--- a/BackTest/2019-10-19 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-19 BackTest LAMB.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.8000000000000114</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-50</v>
+      </c>
       <c r="L12" t="n">
         <v>35.07</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.8000000000000114</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-50</v>
+      </c>
       <c r="L13" t="n">
         <v>35.03</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.9000000000000057</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-42.85714285714228</v>
+      </c>
       <c r="L14" t="n">
         <v>34.98</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.9000000000000057</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-100</v>
+      </c>
       <c r="L15" t="n">
         <v>34.95</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.9000000000000057</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-100</v>
+      </c>
       <c r="L16" t="n">
         <v>34.9</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.9000000000000057</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-100</v>
+      </c>
       <c r="L17" t="n">
         <v>34.85</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>1.100000000000009</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-100</v>
+      </c>
       <c r="L18" t="n">
         <v>34.79</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>1.100000000000009</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-100</v>
+      </c>
       <c r="L19" t="n">
         <v>34.73</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>1.100000000000009</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-100</v>
+      </c>
       <c r="L20" t="n">
         <v>34.67999999999999</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>1.100000000000009</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-100</v>
+      </c>
       <c r="L21" t="n">
         <v>34.64</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>1.400000000000006</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
       <c r="L22" t="n">
         <v>34.64</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>1.600000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>-37.50000000000006</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L23" t="n">
         <v>34.62</v>
@@ -1466,7 +1488,7 @@
         <v>1.600000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>-37.50000000000006</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L24" t="n">
         <v>34.61</v>
@@ -1515,7 +1537,7 @@
         <v>1.600000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>-28.5714285714285</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L25" t="n">
         <v>34.60000000000001</v>
@@ -1564,7 +1586,7 @@
         <v>1.700000000000003</v>
       </c>
       <c r="K26" t="n">
-        <v>-38.46153846153855</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>34.60000000000001</v>
@@ -1613,7 +1635,7 @@
         <v>1.800000000000004</v>
       </c>
       <c r="K27" t="n">
-        <v>-42.857142857143</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L27" t="n">
         <v>34.59000000000001</v>
@@ -1662,7 +1684,7 @@
         <v>1.800000000000004</v>
       </c>
       <c r="K28" t="n">
-        <v>-38.46153846153855</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L28" t="n">
         <v>34.60000000000001</v>
@@ -1711,7 +1733,7 @@
         <v>1.800000000000004</v>
       </c>
       <c r="K29" t="n">
-        <v>-38.46153846153855</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L29" t="n">
         <v>34.61000000000001</v>
@@ -1760,7 +1782,7 @@
         <v>1.800000000000004</v>
       </c>
       <c r="K30" t="n">
-        <v>-33.33333333333333</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L30" t="n">
         <v>34.62000000000002</v>
@@ -1809,7 +1831,7 @@
         <v>1.800000000000004</v>
       </c>
       <c r="K31" t="n">
-        <v>-27.27272727272715</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L31" t="n">
         <v>34.63000000000002</v>
@@ -1860,7 +1882,7 @@
         <v>1.900000000000006</v>
       </c>
       <c r="K32" t="n">
-        <v>-27.27272727272715</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L32" t="n">
         <v>34.60000000000002</v>
@@ -1911,7 +1933,7 @@
         <v>2.000000000000007</v>
       </c>
       <c r="K33" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L33" t="n">
         <v>34.58000000000001</v>
@@ -1962,7 +1984,7 @@
         <v>2.000000000000007</v>
       </c>
       <c r="K34" t="n">
-        <v>-27.27272727272763</v>
+        <v>-50</v>
       </c>
       <c r="L34" t="n">
         <v>34.56000000000001</v>
@@ -2064,7 +2086,7 @@
         <v>2.600000000000016</v>
       </c>
       <c r="K36" t="n">
-        <v>-17.64705882352956</v>
+        <v>-25</v>
       </c>
       <c r="L36" t="n">
         <v>34.54000000000001</v>
@@ -2115,7 +2137,7 @@
         <v>2.90000000000002</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L37" t="n">
         <v>34.55</v>
@@ -2166,7 +2188,7 @@
         <v>3.000000000000014</v>
       </c>
       <c r="K38" t="n">
-        <v>15.78947368421033</v>
+        <v>16.66666666666617</v>
       </c>
       <c r="L38" t="n">
         <v>34.57</v>
@@ -2217,7 +2239,7 @@
         <v>3.000000000000014</v>
       </c>
       <c r="K39" t="n">
-        <v>15.78947368421033</v>
+        <v>16.66666666666617</v>
       </c>
       <c r="L39" t="n">
         <v>34.59</v>
@@ -2268,7 +2290,7 @@
         <v>3.100000000000009</v>
       </c>
       <c r="K40" t="n">
-        <v>10.00000000000014</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L40" t="n">
         <v>34.59999999999999</v>
@@ -2319,7 +2341,7 @@
         <v>3.200000000000003</v>
       </c>
       <c r="K41" t="n">
-        <v>14.28571428571419</v>
+        <v>23.07692307692291</v>
       </c>
       <c r="L41" t="n">
         <v>34.61999999999999</v>
@@ -2370,7 +2392,7 @@
         <v>3.299999999999997</v>
       </c>
       <c r="K42" t="n">
-        <v>-5.263157894736566</v>
+        <v>23.07692307692358</v>
       </c>
       <c r="L42" t="n">
         <v>34.63999999999999</v>
@@ -2421,7 +2443,7 @@
         <v>3.5</v>
       </c>
       <c r="K43" t="n">
-        <v>-5.263157894736921</v>
+        <v>6.666666666666793</v>
       </c>
       <c r="L43" t="n">
         <v>34.64999999999999</v>
@@ -2472,7 +2494,7 @@
         <v>3.5</v>
       </c>
       <c r="K44" t="n">
-        <v>-5.263157894736921</v>
+        <v>-16.66666666666706</v>
       </c>
       <c r="L44" t="n">
         <v>34.66</v>
@@ -2523,7 +2545,7 @@
         <v>3.5</v>
       </c>
       <c r="K45" t="n">
-        <v>-5.263157894736921</v>
+        <v>11.11111111111146</v>
       </c>
       <c r="L45" t="n">
         <v>34.64</v>
@@ -2574,7 +2596,7 @@
         <v>3.5</v>
       </c>
       <c r="K46" t="n">
-        <v>-11.11111111111129</v>
+        <v>-33.33333333333491</v>
       </c>
       <c r="L46" t="n">
         <v>34.65</v>
@@ -2625,7 +2647,7 @@
         <v>3.600000000000001</v>
       </c>
       <c r="K47" t="n">
-        <v>-11.11111111111129</v>
+        <v>-66.66666666666785</v>
       </c>
       <c r="L47" t="n">
         <v>34.62</v>
@@ -2676,7 +2698,7 @@
         <v>3.800000000000004</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L48" t="n">
         <v>34.6</v>
@@ -2727,7 +2749,7 @@
         <v>3.800000000000004</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L49" t="n">
         <v>34.58</v>
@@ -2778,7 +2800,7 @@
         <v>3.900000000000006</v>
       </c>
       <c r="K50" t="n">
-        <v>4.761904761904826</v>
+        <v>-14.28571428571342</v>
       </c>
       <c r="L50" t="n">
         <v>34.58</v>
@@ -2829,7 +2851,7 @@
         <v>3.900000000000006</v>
       </c>
       <c r="K51" t="n">
-        <v>4.761904761904826</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>34.57</v>
@@ -2880,7 +2902,7 @@
         <v>3.900000000000006</v>
       </c>
       <c r="K52" t="n">
-        <v>10.00000000000014</v>
+        <v>50</v>
       </c>
       <c r="L52" t="n">
         <v>34.57</v>
@@ -2931,7 +2953,7 @@
         <v>4.000000000000007</v>
       </c>
       <c r="K53" t="n">
-        <v>10.00000000000014</v>
+        <v>20</v>
       </c>
       <c r="L53" t="n">
         <v>34.58</v>
@@ -2982,7 +3004,7 @@
         <v>4.000000000000007</v>
       </c>
       <c r="K54" t="n">
-        <v>10.00000000000014</v>
+        <v>20</v>
       </c>
       <c r="L54" t="n">
         <v>34.59</v>
@@ -3033,7 +3055,7 @@
         <v>4.100000000000009</v>
       </c>
       <c r="K55" t="n">
-        <v>-11.11111111111129</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>34.59</v>
@@ -3084,7 +3106,7 @@
         <v>4.20000000000001</v>
       </c>
       <c r="K56" t="n">
-        <v>12.50000000000022</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L56" t="n">
         <v>34.60000000000001</v>
@@ -3135,7 +3157,7 @@
         <v>4.20000000000001</v>
       </c>
       <c r="K57" t="n">
-        <v>-7.69230769230786</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
         <v>34.62000000000001</v>
@@ -3186,7 +3208,7 @@
         <v>4.400000000000013</v>
       </c>
       <c r="K58" t="n">
-        <v>-28.5714285714285</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L58" t="n">
         <v>34.60000000000001</v>
@@ -3237,7 +3259,7 @@
         <v>4.600000000000009</v>
       </c>
       <c r="K59" t="n">
-        <v>-37.49999999999978</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L59" t="n">
         <v>34.56</v>
@@ -3288,7 +3310,7 @@
         <v>4.70000000000001</v>
       </c>
       <c r="K60" t="n">
-        <v>-37.50000000000006</v>
+        <v>-74.99999999999977</v>
       </c>
       <c r="L60" t="n">
         <v>34.50000000000001</v>
@@ -3339,7 +3361,7 @@
         <v>4.70000000000001</v>
       </c>
       <c r="K61" t="n">
-        <v>-46.66666666666616</v>
+        <v>-74.99999999999977</v>
       </c>
       <c r="L61" t="n">
         <v>34.44000000000001</v>
@@ -3390,7 +3412,7 @@
         <v>5.100000000000009</v>
       </c>
       <c r="K62" t="n">
-        <v>-55.5555555555552</v>
+        <v>-81.81818181818159</v>
       </c>
       <c r="L62" t="n">
         <v>34.34000000000001</v>
@@ -3441,7 +3463,7 @@
         <v>5.20000000000001</v>
       </c>
       <c r="K63" t="n">
-        <v>-52.94117647058785</v>
+        <v>-83.33333333333314</v>
       </c>
       <c r="L63" t="n">
         <v>34.24000000000001</v>
@@ -3492,7 +3514,7 @@
         <v>5.20000000000001</v>
       </c>
       <c r="K64" t="n">
-        <v>-52.94117647058785</v>
+        <v>-81.81818181818159</v>
       </c>
       <c r="L64" t="n">
         <v>34.14000000000001</v>
@@ -3543,7 +3565,7 @@
         <v>5.20000000000001</v>
       </c>
       <c r="K65" t="n">
-        <v>-52.94117647058785</v>
+        <v>-100</v>
       </c>
       <c r="L65" t="n">
         <v>34.05000000000001</v>
@@ -3594,7 +3616,7 @@
         <v>5.20000000000001</v>
       </c>
       <c r="K66" t="n">
-        <v>-52.94117647058785</v>
+        <v>-100</v>
       </c>
       <c r="L66" t="n">
         <v>33.95000000000001</v>
@@ -3645,7 +3667,7 @@
         <v>5.20000000000001</v>
       </c>
       <c r="K67" t="n">
-        <v>-49.99999999999956</v>
+        <v>-100</v>
       </c>
       <c r="L67" t="n">
         <v>33.85000000000001</v>
@@ -3696,7 +3718,7 @@
         <v>5.20000000000001</v>
       </c>
       <c r="K68" t="n">
-        <v>-71.42857142857115</v>
+        <v>-100</v>
       </c>
       <c r="L68" t="n">
         <v>33.77000000000002</v>
@@ -3747,7 +3769,7 @@
         <v>5.600000000000009</v>
       </c>
       <c r="K69" t="n">
-        <v>-33.33333333333333</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L69" t="n">
         <v>33.75000000000001</v>
@@ -3798,7 +3820,7 @@
         <v>6.000000000000007</v>
       </c>
       <c r="K70" t="n">
-        <v>-52.38095238095242</v>
+        <v>-38.46153846153855</v>
       </c>
       <c r="L70" t="n">
         <v>33.70000000000002</v>
@@ -3849,7 +3871,7 @@
         <v>6.300000000000011</v>
       </c>
       <c r="K71" t="n">
-        <v>-58.33333333333344</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L71" t="n">
         <v>33.62000000000002</v>
@@ -3900,7 +3922,7 @@
         <v>6.300000000000011</v>
       </c>
       <c r="K72" t="n">
-        <v>-58.33333333333344</v>
+        <v>-27.27272727272763</v>
       </c>
       <c r="L72" t="n">
         <v>33.58000000000002</v>
@@ -3951,7 +3973,7 @@
         <v>6.300000000000011</v>
       </c>
       <c r="K73" t="n">
-        <v>-56.52173913043487</v>
+        <v>-27.27272727272763</v>
       </c>
       <c r="L73" t="n">
         <v>33.55000000000002</v>
@@ -4002,7 +4024,7 @@
         <v>6.900000000000013</v>
       </c>
       <c r="K74" t="n">
-        <v>-24.13793103448281</v>
+        <v>17.64705882352921</v>
       </c>
       <c r="L74" t="n">
         <v>33.58000000000001</v>
@@ -4053,7 +4075,7 @@
         <v>7.400000000000013</v>
       </c>
       <c r="K75" t="n">
-        <v>-33.33333333333333</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L75" t="n">
         <v>33.56000000000001</v>
@@ -4104,7 +4126,7 @@
         <v>7.600000000000009</v>
       </c>
       <c r="K76" t="n">
-        <v>-41.17647058823527</v>
+        <v>-16.66666666666662</v>
       </c>
       <c r="L76" t="n">
         <v>33.52</v>
@@ -4155,7 +4177,7 @@
         <v>7.700000000000003</v>
       </c>
       <c r="K77" t="n">
-        <v>-37.14285714285734</v>
+        <v>-12.0000000000002</v>
       </c>
       <c r="L77" t="n">
         <v>33.49</v>
@@ -4206,7 +4228,7 @@
         <v>7.700000000000003</v>
       </c>
       <c r="K78" t="n">
-        <v>-33.33333333333348</v>
+        <v>-33.33333333333356</v>
       </c>
       <c r="L78" t="n">
         <v>33.46</v>
@@ -4257,7 +4279,7 @@
         <v>7.800000000000004</v>
       </c>
       <c r="K79" t="n">
-        <v>-25.00000000000017</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L79" t="n">
         <v>33.4</v>
@@ -4308,7 +4330,7 @@
         <v>7.900000000000006</v>
       </c>
       <c r="K80" t="n">
-        <v>-25.00000000000017</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
         <v>33.37</v>
@@ -4359,7 +4381,7 @@
         <v>8.000000000000007</v>
       </c>
       <c r="K81" t="n">
-        <v>-21.21212121212131</v>
+        <v>5.882352941176569</v>
       </c>
       <c r="L81" t="n">
         <v>33.38</v>
@@ -4410,7 +4432,7 @@
         <v>8.100000000000009</v>
       </c>
       <c r="K82" t="n">
-        <v>-13.33333333333352</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
         <v>33.38</v>
@@ -4461,7 +4483,7 @@
         <v>8.100000000000009</v>
       </c>
       <c r="K83" t="n">
-        <v>-10.34482758620705</v>
+        <v>-50.0000000000003</v>
       </c>
       <c r="L83" t="n">
         <v>33.38</v>
@@ -4512,7 +4534,7 @@
         <v>8.400000000000013</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L84" t="n">
         <v>33.35</v>
@@ -4563,7 +4585,7 @@
         <v>8.600000000000016</v>
       </c>
       <c r="K85" t="n">
-        <v>-5.882352941176544</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L85" t="n">
         <v>33.35</v>
@@ -4614,7 +4636,7 @@
         <v>8.800000000000018</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L86" t="n">
         <v>33.39</v>
@@ -4665,7 +4687,7 @@
         <v>8.800000000000018</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L87" t="n">
         <v>33.42</v>
@@ -4716,7 +4738,7 @@
         <v>9.000000000000021</v>
       </c>
       <c r="K88" t="n">
-        <v>-5.263157894736901</v>
+        <v>0</v>
       </c>
       <c r="L88" t="n">
         <v>33.43</v>
@@ -4767,7 +4789,7 @@
         <v>9.000000000000021</v>
       </c>
       <c r="K89" t="n">
-        <v>-17.64705882352939</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L89" t="n">
         <v>33.43</v>
@@ -4818,7 +4840,7 @@
         <v>9.000000000000021</v>
       </c>
       <c r="K90" t="n">
-        <v>-6.66666666666673</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
         <v>33.44</v>
@@ -4869,7 +4891,7 @@
         <v>9.000000000000021</v>
       </c>
       <c r="K91" t="n">
-        <v>3.703703703703742</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L91" t="n">
         <v>33.44</v>
@@ -4920,7 +4942,7 @@
         <v>9.000000000000021</v>
       </c>
       <c r="K92" t="n">
-        <v>3.703703703703742</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L92" t="n">
         <v>33.45</v>
@@ -4971,7 +4993,7 @@
         <v>9.200000000000024</v>
       </c>
       <c r="K93" t="n">
-        <v>10.344827586207</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
         <v>33.48</v>
@@ -5022,7 +5044,7 @@
         <v>9.200000000000024</v>
       </c>
       <c r="K94" t="n">
-        <v>-13.04347826086938</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L94" t="n">
         <v>33.48</v>
@@ -5073,7 +5095,7 @@
         <v>9.300000000000026</v>
       </c>
       <c r="K95" t="n">
-        <v>5.263157894736882</v>
+        <v>-20</v>
       </c>
       <c r="L95" t="n">
         <v>33.48999999999999</v>
@@ -5124,7 +5146,7 @@
         <v>9.400000000000027</v>
       </c>
       <c r="K96" t="n">
-        <v>22.22222222222192</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>33.48999999999999</v>
@@ -5175,7 +5197,7 @@
         <v>9.400000000000027</v>
       </c>
       <c r="K97" t="n">
-        <v>17.64705882352941</v>
+        <v>50</v>
       </c>
       <c r="L97" t="n">
         <v>33.48999999999999</v>
@@ -5226,7 +5248,7 @@
         <v>9.500000000000028</v>
       </c>
       <c r="K98" t="n">
-        <v>22.22222222222222</v>
+        <v>60</v>
       </c>
       <c r="L98" t="n">
         <v>33.52</v>
@@ -5277,7 +5299,7 @@
         <v>9.500000000000028</v>
       </c>
       <c r="K99" t="n">
-        <v>17.64705882352941</v>
+        <v>60</v>
       </c>
       <c r="L99" t="n">
         <v>33.55</v>
@@ -5328,7 +5350,7 @@
         <v>9.500000000000028</v>
       </c>
       <c r="K100" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="L100" t="n">
         <v>33.58</v>
@@ -5379,7 +5401,7 @@
         <v>9.500000000000028</v>
       </c>
       <c r="K101" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="L101" t="n">
         <v>33.61</v>
@@ -5430,7 +5452,7 @@
         <v>9.500000000000028</v>
       </c>
       <c r="K102" t="n">
-        <v>28.57142857142857</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L102" t="n">
         <v>33.64</v>
@@ -5481,7 +5503,7 @@
         <v>9.500000000000028</v>
       </c>
       <c r="K103" t="n">
-        <v>28.57142857142857</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L103" t="n">
         <v>33.65</v>
@@ -5532,7 +5554,7 @@
         <v>9.60000000000003</v>
       </c>
       <c r="K104" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L104" t="n">
         <v>33.65</v>
@@ -5583,7 +5605,7 @@
         <v>9.60000000000003</v>
       </c>
       <c r="K105" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L105" t="n">
         <v>33.66</v>
@@ -5634,7 +5656,7 @@
         <v>9.700000000000031</v>
       </c>
       <c r="K106" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L106" t="n">
         <v>33.67</v>
@@ -5685,7 +5707,7 @@
         <v>9.700000000000031</v>
       </c>
       <c r="K107" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L107" t="n">
         <v>33.67999999999999</v>
@@ -5736,7 +5758,7 @@
         <v>9.800000000000033</v>
       </c>
       <c r="K108" t="n">
-        <v>25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L108" t="n">
         <v>33.67</v>
@@ -5787,7 +5809,7 @@
         <v>9.900000000000034</v>
       </c>
       <c r="K109" t="n">
-        <v>11.11111111111111</v>
+        <v>-50</v>
       </c>
       <c r="L109" t="n">
         <v>33.65</v>
@@ -5838,7 +5860,7 @@
         <v>10.00000000000004</v>
       </c>
       <c r="K110" t="n">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="L110" t="n">
         <v>33.64</v>
@@ -5889,7 +5911,7 @@
         <v>10.10000000000004</v>
       </c>
       <c r="K111" t="n">
-        <v>9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L111" t="n">
         <v>33.62</v>
@@ -5940,7 +5962,7 @@
         <v>10.20000000000004</v>
       </c>
       <c r="K112" t="n">
-        <v>16.66666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L112" t="n">
         <v>33.61000000000001</v>
@@ -6042,7 +6064,7 @@
         <v>10.30000000000004</v>
       </c>
       <c r="K114" t="n">
-        <v>9.090909090909092</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L114" t="n">
         <v>33.61000000000001</v>
@@ -6093,7 +6115,7 @@
         <v>10.30000000000004</v>
       </c>
       <c r="K115" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
         <v>33.62</v>
@@ -6144,7 +6166,7 @@
         <v>10.30000000000004</v>
       </c>
       <c r="K116" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L116" t="n">
         <v>33.62</v>
@@ -6246,7 +6268,7 @@
         <v>10.50000000000004</v>
       </c>
       <c r="K118" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L118" t="n">
         <v>33.60000000000001</v>
@@ -6348,7 +6370,7 @@
         <v>10.50000000000004</v>
       </c>
       <c r="K120" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
         <v>33.59</v>
@@ -6399,7 +6421,7 @@
         <v>10.60000000000004</v>
       </c>
       <c r="K121" t="n">
-        <v>-27.27272727272727</v>
+        <v>-50</v>
       </c>
       <c r="L121" t="n">
         <v>33.58</v>
@@ -6450,7 +6472,7 @@
         <v>10.60000000000004</v>
       </c>
       <c r="K122" t="n">
-        <v>-27.27272727272727</v>
+        <v>-50</v>
       </c>
       <c r="L122" t="n">
         <v>33.56</v>
@@ -6501,7 +6523,7 @@
         <v>10.70000000000005</v>
       </c>
       <c r="K123" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L123" t="n">
         <v>33.52999999999999</v>
@@ -6552,7 +6574,7 @@
         <v>10.70000000000005</v>
       </c>
       <c r="K124" t="n">
-        <v>-27.27272727272727</v>
+        <v>-100</v>
       </c>
       <c r="L124" t="n">
         <v>33.48999999999999</v>
@@ -6603,7 +6625,7 @@
         <v>10.70000000000005</v>
       </c>
       <c r="K125" t="n">
-        <v>-27.27272727272727</v>
+        <v>-100</v>
       </c>
       <c r="L125" t="n">
         <v>33.45</v>
@@ -6654,7 +6676,7 @@
         <v>11.10000000000005</v>
       </c>
       <c r="K126" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L126" t="n">
         <v>33.45</v>
@@ -6705,7 +6727,7 @@
         <v>11.40000000000006</v>
       </c>
       <c r="K127" t="n">
-        <v>-17.64705882352941</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L127" t="n">
         <v>33.42999999999999</v>
@@ -6756,7 +6778,7 @@
         <v>11.50000000000006</v>
       </c>
       <c r="K128" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L128" t="n">
         <v>33.42999999999999</v>
@@ -6858,7 +6880,7 @@
         <v>11.80000000000005</v>
       </c>
       <c r="K130" t="n">
-        <v>11.11111111111076</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L130" t="n">
         <v>33.45999999999999</v>
@@ -6909,7 +6931,7 @@
         <v>11.90000000000005</v>
       </c>
       <c r="K131" t="n">
-        <v>11.1111111111112</v>
+        <v>23.07692307692333</v>
       </c>
       <c r="L131" t="n">
         <v>33.48999999999999</v>
@@ -6960,7 +6982,7 @@
         <v>12.10000000000005</v>
       </c>
       <c r="K132" t="n">
-        <v>-5.263157894736882</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L132" t="n">
         <v>33.5</v>
@@ -7011,7 +7033,7 @@
         <v>12.30000000000005</v>
       </c>
       <c r="K133" t="n">
-        <v>4.761904761904794</v>
+        <v>25.00000000000022</v>
       </c>
       <c r="L133" t="n">
         <v>33.54</v>
@@ -7062,7 +7084,7 @@
         <v>12.60000000000006</v>
       </c>
       <c r="K134" t="n">
-        <v>-13.04347826086964</v>
+        <v>5.263157894736882</v>
       </c>
       <c r="L134" t="n">
         <v>33.55</v>
@@ -7164,7 +7186,7 @@
         <v>13.30000000000006</v>
       </c>
       <c r="K136" t="n">
-        <v>13.33333333333319</v>
+        <v>36.84210526315793</v>
       </c>
       <c r="L136" t="n">
         <v>33.63</v>
@@ -7215,7 +7237,7 @@
         <v>13.40000000000006</v>
       </c>
       <c r="K137" t="n">
-        <v>13.33333333333319</v>
+        <v>26.31578947368413</v>
       </c>
       <c r="L137" t="n">
         <v>33.69</v>
@@ -7266,7 +7288,7 @@
         <v>13.60000000000007</v>
       </c>
       <c r="K138" t="n">
-        <v>9.677419354838547</v>
+        <v>14.28571428571409</v>
       </c>
       <c r="L138" t="n">
         <v>33.72</v>
@@ -7317,7 +7339,7 @@
         <v>13.70000000000006</v>
       </c>
       <c r="K139" t="n">
-        <v>6.250000000000055</v>
+        <v>-5.263157894736527</v>
       </c>
       <c r="L139" t="n">
         <v>33.73999999999999</v>
@@ -7368,7 +7390,7 @@
         <v>14.00000000000006</v>
       </c>
       <c r="K140" t="n">
-        <v>14.28571428571423</v>
+        <v>14.28571428571409</v>
       </c>
       <c r="L140" t="n">
         <v>33.76</v>
@@ -7419,7 +7441,7 @@
         <v>14.20000000000006</v>
       </c>
       <c r="K141" t="n">
-        <v>11.11111111111102</v>
+        <v>14.28571428571409</v>
       </c>
       <c r="L141" t="n">
         <v>33.77</v>
@@ -7470,7 +7492,7 @@
         <v>14.30000000000006</v>
       </c>
       <c r="K142" t="n">
-        <v>13.51351351351345</v>
+        <v>9.999999999999751</v>
       </c>
       <c r="L142" t="n">
         <v>33.81</v>
@@ -7521,7 +7543,7 @@
         <v>14.40000000000006</v>
       </c>
       <c r="K143" t="n">
-        <v>18.91891891891891</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L143" t="n">
         <v>33.84</v>
@@ -7572,7 +7594,7 @@
         <v>14.60000000000007</v>
       </c>
       <c r="K144" t="n">
-        <v>12.82051282051276</v>
+        <v>5.882352941176126</v>
       </c>
       <c r="L144" t="n">
         <v>33.88</v>
@@ -7623,7 +7645,7 @@
         <v>14.80000000000006</v>
       </c>
       <c r="K145" t="n">
-        <v>7.317073170731783</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L145" t="n">
         <v>33.87</v>
@@ -7674,7 +7696,7 @@
         <v>15.10000000000006</v>
       </c>
       <c r="K146" t="n">
-        <v>4.999999999999885</v>
+        <v>-5.882352941176569</v>
       </c>
       <c r="L146" t="n">
         <v>33.85</v>
@@ -7725,7 +7747,7 @@
         <v>15.10000000000006</v>
       </c>
       <c r="K147" t="n">
-        <v>13.5135135135135</v>
+        <v>6.666666666666793</v>
       </c>
       <c r="L147" t="n">
         <v>33.84</v>
@@ -7776,7 +7798,7 @@
         <v>15.10000000000006</v>
       </c>
       <c r="K148" t="n">
-        <v>11.11111111111107</v>
+        <v>14.285714285714</v>
       </c>
       <c r="L148" t="n">
         <v>33.84999999999999</v>
@@ -7827,7 +7849,7 @@
         <v>15.40000000000006</v>
       </c>
       <c r="K149" t="n">
-        <v>2.564102564102602</v>
+        <v>-28.5714285714285</v>
       </c>
       <c r="L149" t="n">
         <v>33.84</v>
@@ -7878,7 +7900,7 @@
         <v>15.50000000000006</v>
       </c>
       <c r="K150" t="n">
-        <v>-8.108108108108025</v>
+        <v>-23.07692307692291</v>
       </c>
       <c r="L150" t="n">
         <v>33.79</v>
@@ -7929,7 +7951,7 @@
         <v>15.90000000000006</v>
       </c>
       <c r="K151" t="n">
-        <v>4.999999999999885</v>
+        <v>0</v>
       </c>
       <c r="L151" t="n">
         <v>33.8</v>
@@ -7980,7 +8002,7 @@
         <v>16.10000000000005</v>
       </c>
       <c r="K152" t="n">
-        <v>5.000000000000071</v>
+        <v>-17.64705882352936</v>
       </c>
       <c r="L152" t="n">
         <v>33.77999999999999</v>
@@ -8031,7 +8053,7 @@
         <v>16.20000000000005</v>
       </c>
       <c r="K153" t="n">
-        <v>-2.564102564102602</v>
+        <v>-12.49999999999983</v>
       </c>
       <c r="L153" t="n">
         <v>33.73999999999999</v>
@@ -8082,7 +8104,7 @@
         <v>16.20000000000005</v>
       </c>
       <c r="K154" t="n">
-        <v>5.555555555555643</v>
+        <v>0</v>
       </c>
       <c r="L154" t="n">
         <v>33.72</v>
@@ -8133,7 +8155,7 @@
         <v>16.30000000000005</v>
       </c>
       <c r="K155" t="n">
-        <v>-5.882352941176569</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L155" t="n">
         <v>33.70999999999999</v>
@@ -8184,7 +8206,7 @@
         <v>16.50000000000006</v>
       </c>
       <c r="K156" t="n">
-        <v>-12.49999999999997</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L156" t="n">
         <v>33.69</v>
@@ -8235,7 +8257,7 @@
         <v>16.60000000000006</v>
       </c>
       <c r="K157" t="n">
-        <v>-12.49999999999997</v>
+        <v>-19.99999999999981</v>
       </c>
       <c r="L157" t="n">
         <v>33.66</v>
@@ -8286,7 +8308,7 @@
         <v>16.70000000000006</v>
       </c>
       <c r="K158" t="n">
-        <v>-9.677419354838635</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L158" t="n">
         <v>33.62</v>
@@ -8337,7 +8359,7 @@
         <v>16.90000000000006</v>
       </c>
       <c r="K159" t="n">
-        <v>0</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L159" t="n">
         <v>33.63</v>
@@ -8388,7 +8410,7 @@
         <v>17.10000000000007</v>
       </c>
       <c r="K160" t="n">
-        <v>-16.12903225806447</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L160" t="n">
         <v>33.63</v>
@@ -8439,7 +8461,7 @@
         <v>17.10000000000007</v>
       </c>
       <c r="K161" t="n">
-        <v>-10.34482758620678</v>
+        <v>-20</v>
       </c>
       <c r="L161" t="n">
         <v>33.59</v>
@@ -8490,7 +8512,7 @@
         <v>17.30000000000007</v>
       </c>
       <c r="K162" t="n">
-        <v>-6.666666666666508</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L162" t="n">
         <v>33.59</v>
@@ -8541,7 +8563,7 @@
         <v>17.50000000000007</v>
       </c>
       <c r="K163" t="n">
-        <v>-16.12903225806447</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L163" t="n">
         <v>33.58</v>
@@ -8592,7 +8614,7 @@
         <v>17.70000000000007</v>
       </c>
       <c r="K164" t="n">
-        <v>-3.225806451612711</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L164" t="n">
         <v>33.59</v>
@@ -8643,7 +8665,7 @@
         <v>17.70000000000007</v>
       </c>
       <c r="K165" t="n">
-        <v>3.448275862068999</v>
+        <v>0</v>
       </c>
       <c r="L165" t="n">
         <v>33.61</v>
@@ -8694,7 +8716,7 @@
         <v>17.90000000000008</v>
       </c>
       <c r="K166" t="n">
-        <v>-14.28571428571414</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L166" t="n">
         <v>33.59</v>
@@ -8745,7 +8767,7 @@
         <v>18.00000000000008</v>
       </c>
       <c r="K167" t="n">
-        <v>-10.34482758620673</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L167" t="n">
         <v>33.59</v>
@@ -8796,7 +8818,7 @@
         <v>18.10000000000008</v>
       </c>
       <c r="K168" t="n">
-        <v>-6.666666666666478</v>
+        <v>0</v>
       </c>
       <c r="L168" t="n">
         <v>33.61</v>
@@ -8847,7 +8869,7 @@
         <v>18.20000000000008</v>
       </c>
       <c r="K169" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L169" t="n">
         <v>33.6</v>
@@ -8898,7 +8920,7 @@
         <v>18.30000000000008</v>
       </c>
       <c r="K170" t="n">
-        <v>7.142857142857179</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L170" t="n">
         <v>33.62</v>
@@ -8949,7 +8971,7 @@
         <v>18.50000000000009</v>
       </c>
       <c r="K171" t="n">
-        <v>-15.38461538461515</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L171" t="n">
         <v>33.62</v>
@@ -9000,7 +9022,7 @@
         <v>18.70000000000009</v>
       </c>
       <c r="K172" t="n">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L172" t="n">
         <v>33.62</v>
@@ -9051,7 +9073,7 @@
         <v>18.90000000000009</v>
       </c>
       <c r="K173" t="n">
-        <v>-3.703703703703703</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L173" t="n">
         <v>33.62</v>
@@ -9102,7 +9124,7 @@
         <v>18.90000000000009</v>
       </c>
       <c r="K174" t="n">
-        <v>-3.703703703703703</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L174" t="n">
         <v>33.6</v>
@@ -9204,7 +9226,7 @@
         <v>18.90000000000009</v>
       </c>
       <c r="K176" t="n">
-        <v>-8.333333333333332</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L176" t="n">
         <v>33.58</v>
@@ -9255,7 +9277,7 @@
         <v>18.90000000000009</v>
       </c>
       <c r="K177" t="n">
-        <v>-4.347826086956522</v>
+        <v>-25</v>
       </c>
       <c r="L177" t="n">
         <v>33.57</v>
@@ -9306,7 +9328,7 @@
         <v>18.90000000000009</v>
       </c>
       <c r="K178" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L178" t="n">
         <v>33.55</v>
@@ -9357,7 +9379,7 @@
         <v>19.00000000000009</v>
       </c>
       <c r="K179" t="n">
-        <v>-14.28571428571428</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L179" t="n">
         <v>33.52999999999999</v>
@@ -9459,7 +9481,7 @@
         <v>19.10000000000009</v>
       </c>
       <c r="K181" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L181" t="n">
         <v>33.51</v>
@@ -9510,7 +9532,7 @@
         <v>19.2000000000001</v>
       </c>
       <c r="K182" t="n">
-        <v>-15.78947368421053</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L182" t="n">
         <v>33.48</v>
@@ -9561,7 +9583,7 @@
         <v>19.3000000000001</v>
       </c>
       <c r="K183" t="n">
-        <v>-11.11111111111111</v>
+        <v>-50</v>
       </c>
       <c r="L183" t="n">
         <v>33.45999999999999</v>
@@ -9612,7 +9634,7 @@
         <v>19.3000000000001</v>
       </c>
       <c r="K184" t="n">
-        <v>-25</v>
+        <v>-50</v>
       </c>
       <c r="L184" t="n">
         <v>33.44</v>
@@ -9663,7 +9685,7 @@
         <v>19.40000000000009</v>
       </c>
       <c r="K185" t="n">
-        <v>-29.41176470588206</v>
+        <v>-59.99999999999943</v>
       </c>
       <c r="L185" t="n">
         <v>33.41</v>
@@ -9714,7 +9736,7 @@
         <v>19.40000000000009</v>
       </c>
       <c r="K186" t="n">
-        <v>-19.99999999999962</v>
+        <v>-59.99999999999943</v>
       </c>
       <c r="L186" t="n">
         <v>33.38</v>
@@ -9765,7 +9787,7 @@
         <v>19.40000000000009</v>
       </c>
       <c r="K187" t="n">
-        <v>-28.57142857142821</v>
+        <v>-59.99999999999943</v>
       </c>
       <c r="L187" t="n">
         <v>33.34999999999999</v>
@@ -9816,7 +9838,7 @@
         <v>19.50000000000009</v>
       </c>
       <c r="K188" t="n">
-        <v>-28.57142857142886</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L188" t="n">
         <v>33.33</v>
@@ -9867,7 +9889,7 @@
         <v>19.60000000000008</v>
       </c>
       <c r="K189" t="n">
-        <v>-28.5714285714285</v>
+        <v>-60.00000000000114</v>
       </c>
       <c r="L189" t="n">
         <v>33.31</v>
@@ -9918,7 +9940,7 @@
         <v>19.60000000000008</v>
       </c>
       <c r="K190" t="n">
-        <v>-38.46153846153855</v>
+        <v>-60.00000000000114</v>
       </c>
       <c r="L190" t="n">
         <v>33.27999999999999</v>
@@ -9969,7 +9991,7 @@
         <v>19.60000000000008</v>
       </c>
       <c r="K191" t="n">
-        <v>-27.27272727272715</v>
+        <v>-50.00000000000089</v>
       </c>
       <c r="L191" t="n">
         <v>33.24999999999999</v>
@@ -10020,7 +10042,7 @@
         <v>19.60000000000008</v>
       </c>
       <c r="K192" t="n">
-        <v>-55.55555555555608</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L192" t="n">
         <v>33.23</v>
@@ -10071,7 +10093,7 @@
         <v>19.70000000000007</v>
       </c>
       <c r="K193" t="n">
-        <v>-25.00000000000089</v>
+        <v>0</v>
       </c>
       <c r="L193" t="n">
         <v>33.23</v>
@@ -10122,7 +10144,7 @@
         <v>20.10000000000007</v>
       </c>
       <c r="K194" t="n">
-        <v>-50.00000000000089</v>
+        <v>-42.85714285714459</v>
       </c>
       <c r="L194" t="n">
         <v>33.18999999999999</v>
@@ -10173,7 +10195,7 @@
         <v>20.40000000000008</v>
       </c>
       <c r="K195" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L195" t="n">
         <v>33.18999999999999</v>
@@ -10224,7 +10246,7 @@
         <v>20.50000000000008</v>
       </c>
       <c r="K196" t="n">
-        <v>-25.00000000000011</v>
+        <v>-9.090909090909326</v>
       </c>
       <c r="L196" t="n">
         <v>33.17999999999999</v>
@@ -10275,7 +10297,7 @@
         <v>20.60000000000008</v>
       </c>
       <c r="K197" t="n">
-        <v>-17.64705882352936</v>
+        <v>-9.090909090908621</v>
       </c>
       <c r="L197" t="n">
         <v>33.17999999999999</v>
@@ -10326,7 +10348,7 @@
         <v>20.60000000000008</v>
       </c>
       <c r="K198" t="n">
-        <v>-17.64705882352936</v>
+        <v>0</v>
       </c>
       <c r="L198" t="n">
         <v>33.16999999999999</v>
@@ -10377,7 +10399,7 @@
         <v>20.70000000000008</v>
       </c>
       <c r="K199" t="n">
-        <v>-17.64705882352936</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L199" t="n">
         <v>33.16</v>
@@ -10428,7 +10450,7 @@
         <v>20.80000000000008</v>
       </c>
       <c r="K200" t="n">
-        <v>-29.41176470588255</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L200" t="n">
         <v>33.14</v>
@@ -10479,7 +10501,7 @@
         <v>20.90000000000008</v>
       </c>
       <c r="K201" t="n">
-        <v>-22.22222222222226</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L201" t="n">
         <v>33.13</v>
@@ -10530,7 +10552,7 @@
         <v>21.00000000000009</v>
       </c>
       <c r="K202" t="n">
-        <v>-11.11111111111093</v>
+        <v>-7.692307692307187</v>
       </c>
       <c r="L202" t="n">
         <v>33.13</v>
@@ -10581,7 +10603,7 @@
         <v>21.20000000000009</v>
       </c>
       <c r="K203" t="n">
-        <v>-15.78947368421045</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L203" t="n">
         <v>33.1</v>
@@ -10632,7 +10654,7 @@
         <v>21.30000000000009</v>
       </c>
       <c r="K204" t="n">
-        <v>-9.999999999999822</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L204" t="n">
         <v>33.12</v>
@@ -10683,7 +10705,7 @@
         <v>21.40000000000009</v>
       </c>
       <c r="K205" t="n">
-        <v>-10.00000000000014</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L205" t="n">
         <v>33.10000000000001</v>
@@ -10734,7 +10756,7 @@
         <v>21.50000000000009</v>
       </c>
       <c r="K206" t="n">
-        <v>-4.761904761904826</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L206" t="n">
         <v>33.10000000000001</v>
@@ -10785,7 +10807,7 @@
         <v>21.60000000000009</v>
       </c>
       <c r="K207" t="n">
-        <v>-9.090909090909207</v>
+        <v>-20</v>
       </c>
       <c r="L207" t="n">
         <v>33.08000000000001</v>
@@ -10836,7 +10858,7 @@
         <v>21.8000000000001</v>
       </c>
       <c r="K208" t="n">
-        <v>-4.347826086956253</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L208" t="n">
         <v>33.08000000000001</v>
@@ -10887,7 +10909,7 @@
         <v>22.0000000000001</v>
       </c>
       <c r="K209" t="n">
-        <v>-8.333333333333384</v>
+        <v>0</v>
       </c>
       <c r="L209" t="n">
         <v>33.07000000000001</v>
@@ -10938,7 +10960,7 @@
         <v>22.0000000000001</v>
       </c>
       <c r="K210" t="n">
-        <v>-8.333333333333384</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L210" t="n">
         <v>33.07000000000001</v>
@@ -10989,7 +11011,7 @@
         <v>22.5000000000001</v>
       </c>
       <c r="K211" t="n">
-        <v>-24.13793103448269</v>
+        <v>-46.66666666666642</v>
       </c>
       <c r="L211" t="n">
         <v>33.01000000000001</v>
@@ -11040,7 +11062,7 @@
         <v>23.0000000000001</v>
       </c>
       <c r="K212" t="n">
-        <v>-5.88235294117652</v>
+        <v>0</v>
       </c>
       <c r="L212" t="n">
         <v>32.99</v>
@@ -11091,7 +11113,7 @@
         <v>23.0000000000001</v>
       </c>
       <c r="K213" t="n">
-        <v>-9.090909090908934</v>
+        <v>-5.88235294117652</v>
       </c>
       <c r="L213" t="n">
         <v>32.99</v>
@@ -11142,7 +11164,7 @@
         <v>23.3000000000001</v>
       </c>
       <c r="K214" t="n">
-        <v>-6.24999999999982</v>
+        <v>-15.78947368421033</v>
       </c>
       <c r="L214" t="n">
         <v>32.95</v>
@@ -11193,7 +11215,7 @@
         <v>23.50000000000009</v>
       </c>
       <c r="K215" t="n">
-        <v>-9.677419354838799</v>
+        <v>-10.00000000000014</v>
       </c>
       <c r="L215" t="n">
         <v>32.94</v>
@@ -11244,7 +11266,7 @@
         <v>23.60000000000009</v>
       </c>
       <c r="K216" t="n">
-        <v>-9.677419354838799</v>
+        <v>-10.00000000000014</v>
       </c>
       <c r="L216" t="n">
         <v>32.91</v>
@@ -11295,7 +11317,7 @@
         <v>23.8000000000001</v>
       </c>
       <c r="K217" t="n">
-        <v>-6.250000000000055</v>
+        <v>-10.00000000000014</v>
       </c>
       <c r="L217" t="n">
         <v>32.91</v>
@@ -11346,7 +11368,7 @@
         <v>24.0000000000001</v>
       </c>
       <c r="K218" t="n">
-        <v>-11.76470588235304</v>
+        <v>-10.00000000000014</v>
       </c>
       <c r="L218" t="n">
         <v>32.87</v>
@@ -11397,7 +11419,7 @@
         <v>24.10000000000009</v>
       </c>
       <c r="K219" t="n">
-        <v>-11.76470588235285</v>
+        <v>-14.28571428571419</v>
       </c>
       <c r="L219" t="n">
         <v>32.84</v>
@@ -11448,7 +11470,7 @@
         <v>24.10000000000009</v>
       </c>
       <c r="K220" t="n">
-        <v>-9.090909090908973</v>
+        <v>12.50000000000022</v>
       </c>
       <c r="L220" t="n">
         <v>32.81</v>
@@ -11499,7 +11521,7 @@
         <v>24.30000000000009</v>
       </c>
       <c r="K221" t="n">
-        <v>-5.882352941176544</v>
+        <v>-7.69230769230786</v>
       </c>
       <c r="L221" t="n">
         <v>32.84999999999999</v>
@@ -11550,7 +11572,7 @@
         <v>24.30000000000009</v>
       </c>
       <c r="K222" t="n">
-        <v>-9.090909090909207</v>
+        <v>-7.69230769230786</v>
       </c>
       <c r="L222" t="n">
         <v>32.83999999999999</v>
@@ -11601,7 +11623,7 @@
         <v>24.30000000000009</v>
       </c>
       <c r="K223" t="n">
-        <v>-3.225806451612947</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L223" t="n">
         <v>32.82999999999999</v>
@@ -11652,7 +11674,7 @@
         <v>24.40000000000009</v>
       </c>
       <c r="K224" t="n">
-        <v>-3.225806451612947</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L224" t="n">
         <v>32.85999999999999</v>
@@ -11703,7 +11725,7 @@
         <v>24.50000000000009</v>
       </c>
       <c r="K225" t="n">
-        <v>3.225806451612947</v>
+        <v>33.33333333333386</v>
       </c>
       <c r="L225" t="n">
         <v>32.88</v>
@@ -11754,7 +11776,7 @@
         <v>24.8000000000001</v>
       </c>
       <c r="K226" t="n">
-        <v>-9.090909090909207</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L226" t="n">
         <v>32.88</v>
@@ -11805,7 +11827,7 @@
         <v>25.0000000000001</v>
       </c>
       <c r="K227" t="n">
-        <v>0</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L227" t="n">
         <v>32.88</v>
@@ -11856,7 +11878,7 @@
         <v>25.0000000000001</v>
       </c>
       <c r="K228" t="n">
-        <v>-6.250000000000083</v>
+        <v>33.33333333333281</v>
       </c>
       <c r="L228" t="n">
         <v>32.89999999999999</v>
@@ -11907,7 +11929,7 @@
         <v>25.3000000000001</v>
       </c>
       <c r="K229" t="n">
-        <v>-9.090909090909012</v>
+        <v>0</v>
       </c>
       <c r="L229" t="n">
         <v>32.89999999999999</v>
@@ -11958,7 +11980,7 @@
         <v>25.50000000000009</v>
       </c>
       <c r="K230" t="n">
-        <v>-2.857142857142903</v>
+        <v>0</v>
       </c>
       <c r="L230" t="n">
         <v>32.91999999999999</v>
@@ -12009,7 +12031,7 @@
         <v>25.8000000000001</v>
       </c>
       <c r="K231" t="n">
-        <v>21.21212121212131</v>
+        <v>20.00000000000019</v>
       </c>
       <c r="L231" t="n">
         <v>32.95</v>
@@ -12060,7 +12082,7 @@
         <v>26.0000000000001</v>
       </c>
       <c r="K232" t="n">
-        <v>0</v>
+        <v>5.88235294117652</v>
       </c>
       <c r="L232" t="n">
         <v>32.95999999999999</v>
@@ -12162,7 +12184,7 @@
         <v>26.1000000000001</v>
       </c>
       <c r="K234" t="n">
-        <v>7.14285714285698</v>
+        <v>-12.50000000000011</v>
       </c>
       <c r="L234" t="n">
         <v>32.95999999999999</v>
@@ -12213,7 +12235,7 @@
         <v>26.3000000000001</v>
       </c>
       <c r="K235" t="n">
-        <v>7.142857142857216</v>
+        <v>20.00000000000019</v>
       </c>
       <c r="L235" t="n">
         <v>32.95999999999999</v>
@@ -12264,7 +12286,7 @@
         <v>26.3000000000001</v>
       </c>
       <c r="K236" t="n">
-        <v>11.11111111111123</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L236" t="n">
         <v>32.98999999999999</v>
@@ -12315,7 +12337,7 @@
         <v>26.90000000000011</v>
       </c>
       <c r="K237" t="n">
-        <v>22.58064516129035</v>
+        <v>36.84210526315793</v>
       </c>
       <c r="L237" t="n">
         <v>33.06</v>
@@ -12366,7 +12388,7 @@
         <v>27.30000000000011</v>
       </c>
       <c r="K238" t="n">
-        <v>15.1515151515151</v>
+        <v>29.99999999999951</v>
       </c>
       <c r="L238" t="n">
         <v>33.09</v>
@@ -12417,7 +12439,7 @@
         <v>27.70000000000012</v>
       </c>
       <c r="K239" t="n">
-        <v>27.7777777777776</v>
+        <v>36.36363636363616</v>
       </c>
       <c r="L239" t="n">
         <v>33.19</v>
@@ -12468,7 +12490,7 @@
         <v>27.70000000000012</v>
       </c>
       <c r="K240" t="n">
-        <v>27.7777777777776</v>
+        <v>26.31578947368394</v>
       </c>
       <c r="L240" t="n">
         <v>33.27</v>
@@ -12519,7 +12541,7 @@
         <v>27.70000000000012</v>
       </c>
       <c r="K241" t="n">
-        <v>23.52941176470582</v>
+        <v>41.17647058823505</v>
       </c>
       <c r="L241" t="n">
         <v>33.32</v>
@@ -12570,7 +12592,7 @@
         <v>27.80000000000011</v>
       </c>
       <c r="K242" t="n">
-        <v>25.71428571428552</v>
+        <v>44.444444444444</v>
       </c>
       <c r="L242" t="n">
         <v>33.4</v>
@@ -12621,7 +12643,7 @@
         <v>28.20000000000011</v>
       </c>
       <c r="K243" t="n">
-        <v>12.82051282051276</v>
+        <v>23.80952380952371</v>
       </c>
       <c r="L243" t="n">
         <v>33.44</v>
@@ -12672,7 +12694,7 @@
         <v>28.60000000000011</v>
       </c>
       <c r="K244" t="n">
-        <v>19.0476190476189</v>
+        <v>30.43478260869541</v>
       </c>
       <c r="L244" t="n">
         <v>33.53</v>
@@ -12723,7 +12745,7 @@
         <v>29.10000000000011</v>
       </c>
       <c r="K245" t="n">
-        <v>4.347826086956414</v>
+        <v>7.14285714285698</v>
       </c>
       <c r="L245" t="n">
         <v>33.55</v>
@@ -12774,7 +12796,7 @@
         <v>29.30000000000011</v>
       </c>
       <c r="K246" t="n">
-        <v>15.55555555555557</v>
+        <v>-8.333333333333432</v>
       </c>
       <c r="L246" t="n">
         <v>33.59</v>
@@ -12825,7 +12847,7 @@
         <v>29.40000000000011</v>
       </c>
       <c r="K247" t="n">
-        <v>13.63636363636363</v>
+        <v>14.28571428571448</v>
       </c>
       <c r="L247" t="n">
         <v>33.58</v>
@@ -12876,7 +12898,7 @@
         <v>29.80000000000011</v>
       </c>
       <c r="K248" t="n">
-        <v>4.166666666666716</v>
+        <v>-23.80952380952387</v>
       </c>
       <c r="L248" t="n">
         <v>33.57</v>
@@ -12927,7 +12949,7 @@
         <v>30.00000000000011</v>
       </c>
       <c r="K249" t="n">
-        <v>14.89361702127647</v>
+        <v>-13.04347826086981</v>
       </c>
       <c r="L249" t="n">
         <v>33.54</v>
@@ -12978,7 +13000,7 @@
         <v>30.20000000000011</v>
       </c>
       <c r="K250" t="n">
-        <v>14.8936170212766</v>
+        <v>-4.000000000000068</v>
       </c>
       <c r="L250" t="n">
         <v>33.53</v>
@@ -13029,7 +13051,7 @@
         <v>30.70000000000011</v>
       </c>
       <c r="K251" t="n">
-        <v>-2.040816326530636</v>
+        <v>-24.13793103448262</v>
       </c>
       <c r="L251" t="n">
         <v>33.47000000000001</v>
@@ -13080,7 +13102,7 @@
         <v>31.00000000000011</v>
       </c>
       <c r="K252" t="n">
-        <v>7.99999999999996</v>
+        <v>0</v>
       </c>
       <c r="L252" t="n">
         <v>33.43</v>
@@ -13131,7 +13153,7 @@
         <v>31.3000000000001</v>
       </c>
       <c r="K253" t="n">
-        <v>1.886792452830214</v>
+        <v>-25.92592592592581</v>
       </c>
       <c r="L253" t="n">
         <v>33.40000000000001</v>
@@ -13182,7 +13204,7 @@
         <v>31.6000000000001</v>
       </c>
       <c r="K254" t="n">
-        <v>9.090909090909092</v>
+        <v>4.000000000000068</v>
       </c>
       <c r="L254" t="n">
         <v>33.36</v>
@@ -13233,7 +13255,7 @@
         <v>31.7000000000001</v>
       </c>
       <c r="K255" t="n">
-        <v>3.703703703703626</v>
+        <v>-8.333333333333481</v>
       </c>
       <c r="L255" t="n">
         <v>33.36</v>
@@ -13284,7 +13306,7 @@
         <v>31.8000000000001</v>
       </c>
       <c r="K256" t="n">
-        <v>5.454545454545403</v>
+        <v>-8.333333333333481</v>
       </c>
       <c r="L256" t="n">
         <v>33.35</v>
@@ -13335,7 +13357,7 @@
         <v>31.8000000000001</v>
       </c>
       <c r="K257" t="n">
-        <v>-6.122448979591925</v>
+        <v>9.999999999999822</v>
       </c>
       <c r="L257" t="n">
         <v>33.33</v>
@@ -13386,7 +13408,7 @@
         <v>31.8000000000001</v>
       </c>
       <c r="K258" t="n">
-        <v>2.222222222222257</v>
+        <v>0</v>
       </c>
       <c r="L258" t="n">
         <v>33.34999999999999</v>
@@ -13437,7 +13459,7 @@
         <v>32.1000000000001</v>
       </c>
       <c r="K259" t="n">
-        <v>-13.63636363636372</v>
+        <v>-26.31578947368433</v>
       </c>
       <c r="L259" t="n">
         <v>33.32</v>
@@ -13488,7 +13510,7 @@
         <v>32.4000000000001</v>
       </c>
       <c r="K260" t="n">
-        <v>-6.382978723404372</v>
+        <v>17.64705882352936</v>
       </c>
       <c r="L260" t="n">
         <v>33.3</v>
@@ -13539,7 +13561,7 @@
         <v>32.4000000000001</v>
       </c>
       <c r="K261" t="n">
-        <v>-6.382978723404372</v>
+        <v>0</v>
       </c>
       <c r="L261" t="n">
         <v>33.32999999999999</v>
@@ -13590,7 +13612,7 @@
         <v>32.4000000000001</v>
       </c>
       <c r="K262" t="n">
-        <v>-8.695652173913036</v>
+        <v>27.27272727272715</v>
       </c>
       <c r="L262" t="n">
         <v>33.32999999999999</v>
@@ -13641,7 +13663,7 @@
         <v>32.7000000000001</v>
       </c>
       <c r="K263" t="n">
-        <v>-6.666666666666625</v>
+        <v>-27.27272727272715</v>
       </c>
       <c r="L263" t="n">
         <v>33.32999999999999</v>
@@ -13692,7 +13714,7 @@
         <v>32.90000000000009</v>
       </c>
       <c r="K264" t="n">
-        <v>-11.62790697674423</v>
+        <v>0</v>
       </c>
       <c r="L264" t="n">
         <v>33.31999999999999</v>
@@ -13743,7 +13765,7 @@
         <v>33.00000000000009</v>
       </c>
       <c r="K265" t="n">
-        <v>2.564102564102611</v>
+        <v>0</v>
       </c>
       <c r="L265" t="n">
         <v>33.32999999999999</v>
@@ -13794,7 +13816,7 @@
         <v>33.10000000000009</v>
       </c>
       <c r="K266" t="n">
-        <v>-5.26315789473694</v>
+        <v>-7.69230769230786</v>
       </c>
       <c r="L266" t="n">
         <v>33.31999999999999</v>
@@ -13845,7 +13867,7 @@
         <v>33.10000000000009</v>
       </c>
       <c r="K267" t="n">
-        <v>-8.108108108108263</v>
+        <v>-7.69230769230786</v>
       </c>
       <c r="L267" t="n">
         <v>33.31</v>
@@ -13896,7 +13918,7 @@
         <v>33.10000000000009</v>
       </c>
       <c r="K268" t="n">
-        <v>3.030303030302874</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L268" t="n">
         <v>33.3</v>
@@ -13947,7 +13969,7 @@
         <v>33.10000000000009</v>
       </c>
       <c r="K269" t="n">
-        <v>-3.225806451612962</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L269" t="n">
         <v>33.32</v>
@@ -13998,7 +14020,7 @@
         <v>33.20000000000009</v>
       </c>
       <c r="K270" t="n">
-        <v>-13.33333333333338</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L270" t="n">
         <v>33.3</v>
@@ -14049,7 +14071,7 @@
         <v>33.20000000000009</v>
       </c>
       <c r="K271" t="n">
-        <v>4.000000000000091</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L271" t="n">
         <v>33.28</v>
@@ -14100,7 +14122,7 @@
         <v>33.50000000000009</v>
       </c>
       <c r="K272" t="n">
-        <v>4.000000000000091</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L272" t="n">
         <v>33.29000000000001</v>
@@ -14151,7 +14173,7 @@
         <v>33.80000000000008</v>
       </c>
       <c r="K273" t="n">
-        <v>4.000000000000091</v>
+        <v>-11.11111111111058</v>
       </c>
       <c r="L273" t="n">
         <v>33.3</v>
@@ -14202,7 +14224,7 @@
         <v>34.10000000000008</v>
       </c>
       <c r="K274" t="n">
-        <v>4.000000000000091</v>
+        <v>9.090909090909326</v>
       </c>
       <c r="L274" t="n">
         <v>33.32</v>
@@ -14253,7 +14275,7 @@
         <v>34.10000000000008</v>
       </c>
       <c r="K275" t="n">
-        <v>8.333333333333531</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L275" t="n">
         <v>33.33</v>
@@ -14304,7 +14326,7 @@
         <v>34.10000000000008</v>
       </c>
       <c r="K276" t="n">
-        <v>4.347826086956629</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L276" t="n">
         <v>33.35</v>
@@ -14355,7 +14377,7 @@
         <v>34.30000000000008</v>
       </c>
       <c r="K277" t="n">
-        <v>-4.000000000000091</v>
+        <v>0</v>
       </c>
       <c r="L277" t="n">
         <v>33.35</v>
@@ -14406,7 +14428,7 @@
         <v>34.50000000000009</v>
       </c>
       <c r="K278" t="n">
-        <v>3.703703703703782</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L278" t="n">
         <v>33.37</v>
@@ -14457,7 +14479,7 @@
         <v>34.50000000000009</v>
       </c>
       <c r="K279" t="n">
-        <v>16.66666666666671</v>
+        <v>23.07692307692291</v>
       </c>
       <c r="L279" t="n">
         <v>33.39</v>
@@ -14508,7 +14530,7 @@
         <v>34.80000000000008</v>
       </c>
       <c r="K280" t="n">
-        <v>-8.33333333333321</v>
+        <v>0</v>
       </c>
       <c r="L280" t="n">
         <v>33.39</v>
@@ -14559,7 +14581,7 @@
         <v>35.10000000000008</v>
       </c>
       <c r="K281" t="n">
-        <v>3.703703703703782</v>
+        <v>0</v>
       </c>
       <c r="L281" t="n">
         <v>33.42</v>
@@ -14610,7 +14632,7 @@
         <v>35.40000000000008</v>
       </c>
       <c r="K282" t="n">
-        <v>-6.666666666666572</v>
+        <v>0</v>
       </c>
       <c r="L282" t="n">
         <v>33.39</v>
@@ -14661,7 +14683,7 @@
         <v>35.70000000000007</v>
       </c>
       <c r="K283" t="n">
-        <v>13.33333333333338</v>
+        <v>0</v>
       </c>
       <c r="L283" t="n">
         <v>33.42</v>
@@ -14712,7 +14734,7 @@
         <v>36.00000000000007</v>
       </c>
       <c r="K284" t="n">
-        <v>-3.225806451612741</v>
+        <v>-15.78947368421045</v>
       </c>
       <c r="L284" t="n">
         <v>33.39</v>
@@ -14763,7 +14785,7 @@
         <v>36.20000000000007</v>
       </c>
       <c r="K285" t="n">
-        <v>0</v>
+        <v>-4.761904761904859</v>
       </c>
       <c r="L285" t="n">
         <v>33.38</v>
@@ -14865,7 +14887,7 @@
         <v>36.40000000000006</v>
       </c>
       <c r="K287" t="n">
-        <v>-3.030303030302887</v>
+        <v>-15.78947368421056</v>
       </c>
       <c r="L287" t="n">
         <v>33.34999999999999</v>
@@ -14916,7 +14938,7 @@
         <v>36.40000000000006</v>
       </c>
       <c r="K288" t="n">
-        <v>-3.030303030302887</v>
+        <v>-15.78947368421056</v>
       </c>
       <c r="L288" t="n">
         <v>33.31999999999999</v>
@@ -14967,7 +14989,7 @@
         <v>36.40000000000006</v>
       </c>
       <c r="K289" t="n">
-        <v>-3.030303030302887</v>
+        <v>0</v>
       </c>
       <c r="L289" t="n">
         <v>33.28999999999999</v>
@@ -15018,7 +15040,7 @@
         <v>36.40000000000006</v>
       </c>
       <c r="K290" t="n">
-        <v>0</v>
+        <v>-23.07692307692316</v>
       </c>
       <c r="L290" t="n">
         <v>33.28999999999999</v>
@@ -15069,7 +15091,7 @@
         <v>36.50000000000006</v>
       </c>
       <c r="K291" t="n">
-        <v>-3.030303030303096</v>
+        <v>-9.090909090909326</v>
       </c>
       <c r="L291" t="n">
         <v>33.24999999999999</v>
@@ -15120,7 +15142,7 @@
         <v>36.60000000000007</v>
       </c>
       <c r="K292" t="n">
-        <v>-16.12903225806462</v>
+        <v>-55.55555555555608</v>
       </c>
       <c r="L292" t="n">
         <v>33.23</v>
@@ -15171,7 +15193,7 @@
         <v>36.60000000000007</v>
       </c>
       <c r="K293" t="n">
-        <v>-7.142857142857288</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L293" t="n">
         <v>33.17999999999999</v>
@@ -15222,7 +15244,7 @@
         <v>36.70000000000007</v>
       </c>
       <c r="K294" t="n">
-        <v>-23.07692307692324</v>
+        <v>-100</v>
       </c>
       <c r="L294" t="n">
         <v>33.14999999999999</v>
@@ -15273,7 +15295,7 @@
         <v>37.00000000000007</v>
       </c>
       <c r="K295" t="n">
-        <v>-10.34482758620683</v>
+        <v>-14.28571428571342</v>
       </c>
       <c r="L295" t="n">
         <v>33.13</v>
@@ -15324,7 +15346,7 @@
         <v>37.40000000000008</v>
       </c>
       <c r="K296" t="n">
-        <v>-21.21212121212131</v>
+        <v>-40</v>
       </c>
       <c r="L296" t="n">
         <v>33.08</v>
@@ -15375,7 +15397,7 @@
         <v>37.70000000000008</v>
       </c>
       <c r="K297" t="n">
-        <v>-5.882352941176348</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L297" t="n">
         <v>33.07</v>
@@ -15426,7 +15448,7 @@
         <v>37.70000000000008</v>
       </c>
       <c r="K298" t="n">
-        <v>-12.49999999999997</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L298" t="n">
         <v>33.06</v>
@@ -15477,7 +15499,7 @@
         <v>37.80000000000008</v>
       </c>
       <c r="K299" t="n">
-        <v>-9.090909090909012</v>
+        <v>0</v>
       </c>
       <c r="L299" t="n">
         <v>33.06</v>
@@ -15528,7 +15550,7 @@
         <v>37.80000000000008</v>
       </c>
       <c r="K300" t="n">
-        <v>0</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L300" t="n">
         <v>33.06</v>
@@ -15579,7 +15601,7 @@
         <v>37.90000000000008</v>
       </c>
       <c r="K301" t="n">
-        <v>-7.142857142857252</v>
+        <v>23.07692307692266</v>
       </c>
       <c r="L301" t="n">
         <v>33.08</v>
@@ -15630,7 +15652,7 @@
         <v>38.10000000000008</v>
       </c>
       <c r="K302" t="n">
-        <v>11.11111111111099</v>
+        <v>33.33333333333302</v>
       </c>
       <c r="L302" t="n">
         <v>33.13</v>
@@ -15681,7 +15703,7 @@
         <v>38.50000000000008</v>
       </c>
       <c r="K303" t="n">
-        <v>-14.28571428571421</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L303" t="n">
         <v>33.14</v>

--- a/BackTest/2019-10-19 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-19 BackTest LAMB.xlsx
@@ -3391,13 +3391,17 @@
         <v>34.10833333333327</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K86" t="n">
+        <v>33.4</v>
+      </c>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
@@ -3426,14 +3430,22 @@
         <v>34.0916666666666</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="K87" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3461,14 +3473,22 @@
         <v>34.07166666666661</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="K88" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3502,8 +3522,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3537,8 +3563,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3572,8 +3604,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3607,8 +3645,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3642,8 +3686,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3677,8 +3727,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3712,8 +3768,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3747,8 +3809,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3782,8 +3850,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3817,8 +3891,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3852,8 +3932,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3887,8 +3973,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3922,8 +4014,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3957,8 +4055,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3992,8 +4096,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4027,8 +4137,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4062,8 +4178,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4097,8 +4219,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4132,8 +4260,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4167,8 +4301,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4202,8 +4342,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4237,8 +4383,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4272,8 +4424,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4307,8 +4465,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4342,8 +4506,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4377,8 +4547,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4412,8 +4588,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4447,8 +4629,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4482,8 +4670,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4517,8 +4711,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4552,8 +4752,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4587,8 +4793,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4622,8 +4834,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4657,8 +4875,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4692,8 +4916,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4727,8 +4957,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4762,8 +4998,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4797,8 +5039,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4832,8 +5080,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4867,8 +5121,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4902,8 +5162,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4937,8 +5203,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4969,11 +5241,17 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5004,11 +5282,17 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5039,11 +5323,17 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5074,11 +5364,17 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5109,11 +5405,17 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5144,11 +5446,17 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5182,8 +5490,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5214,11 +5528,17 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5249,11 +5569,17 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5284,11 +5610,17 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5319,11 +5651,17 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5354,11 +5692,17 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5389,11 +5733,17 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5424,11 +5774,17 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5459,11 +5815,17 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5494,11 +5856,17 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5529,11 +5897,17 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5564,11 +5938,17 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5602,8 +5982,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5637,8 +6023,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5672,8 +6064,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5707,8 +6105,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5742,8 +6146,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5777,8 +6187,14 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5812,8 +6228,14 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5847,8 +6269,14 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5882,8 +6310,14 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5917,8 +6351,14 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5952,8 +6392,14 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -5987,8 +6433,14 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6022,8 +6474,14 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6057,8 +6515,14 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6092,8 +6556,14 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6127,8 +6597,14 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6162,8 +6638,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6197,8 +6679,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6232,8 +6720,14 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6267,8 +6761,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6302,8 +6802,14 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6337,8 +6843,14 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6369,11 +6881,17 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6404,11 +6922,17 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6442,8 +6966,14 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6477,8 +7007,14 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6512,8 +7048,14 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6547,8 +7089,14 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6582,8 +7130,14 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6617,8 +7171,14 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6652,8 +7212,14 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6687,8 +7253,14 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6722,8 +7294,14 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6757,8 +7335,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6792,8 +7376,14 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6827,8 +7417,14 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6862,8 +7458,14 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6897,8 +7499,14 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -6932,8 +7540,14 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -6967,8 +7581,14 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7002,8 +7622,14 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7037,8 +7663,14 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7072,8 +7704,14 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7107,8 +7745,14 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7142,8 +7786,14 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7177,8 +7827,14 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7212,8 +7868,14 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7247,8 +7909,14 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7282,8 +7950,14 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7314,11 +7988,17 @@
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7349,11 +8029,17 @@
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7387,8 +8073,14 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7419,11 +8111,17 @@
         <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7457,8 +8155,14 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7492,8 +8196,14 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7527,8 +8237,14 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7556,18 +8272,18 @@
         <v>33.4333333333333</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>33.4</v>
+      </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M205" t="n">
@@ -7597,15 +8313,15 @@
         <v>33.41999999999997</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>33.4</v>
+      </c>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7638,15 +8354,15 @@
         <v>33.40499999999997</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>33.4</v>
+      </c>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7679,15 +8395,15 @@
         <v>33.3933333333333</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>33.4</v>
+      </c>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7726,7 +8442,9 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>33.4</v>
+      </c>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7759,15 +8477,15 @@
         <v>33.37499999999996</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>33</v>
-      </c>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>33.4</v>
+      </c>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7800,15 +8518,15 @@
         <v>33.35166666666663</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>33.4</v>
+      </c>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7841,15 +8559,15 @@
         <v>33.33999999999996</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>33.4</v>
+      </c>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7888,7 +8606,9 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>33.4</v>
+      </c>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7924,10 +8644,12 @@
         <v>0</v>
       </c>
       <c r="I214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>33.4</v>
+      </c>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7963,10 +8685,12 @@
         <v>0</v>
       </c>
       <c r="I215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>33.4</v>
+      </c>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7999,21 +8723,23 @@
         <v>33.28999999999997</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
-        <v>1</v>
-      </c>
-      <c r="J216" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K216" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>33.4</v>
+      </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M216" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8038,18 +8764,20 @@
         <v>33.27999999999997</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
-        <v>1</v>
-      </c>
-      <c r="J217" t="n">
-        <v>33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="n">
-        <v>33</v>
-      </c>
-      <c r="L217" t="inlineStr"/>
+        <v>33.4</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8077,20 +8805,18 @@
         <v>33.2683333333333</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
-        <v>1</v>
-      </c>
-      <c r="J218" t="n">
-        <v>33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M218" t="n">
@@ -8120,16 +8846,14 @@
         <v>33.25166666666664</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
-        <v>1</v>
-      </c>
-      <c r="J219" t="n">
-        <v>32.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="L219" t="inlineStr">
         <is>
@@ -8163,16 +8887,14 @@
         <v>33.2383333333333</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>32.8</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="L220" t="inlineStr">
         <is>
@@ -8206,16 +8928,14 @@
         <v>33.2283333333333</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>32.6</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="L221" t="inlineStr">
         <is>
@@ -8249,16 +8969,14 @@
         <v>33.21499999999997</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
-        <v>32.6</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="L222" t="inlineStr">
         <is>
@@ -8292,16 +9010,14 @@
         <v>33.20499999999997</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="n">
-        <v>32.9</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="L223" t="inlineStr">
         <is>
@@ -8335,16 +9051,14 @@
         <v>33.19333333333331</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
-        <v>33</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="L224" t="inlineStr">
         <is>
@@ -8378,16 +9092,14 @@
         <v>33.1833333333333</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
-        <v>33</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="L225" t="inlineStr">
         <is>
@@ -8421,16 +9133,14 @@
         <v>33.17166666666664</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>32.8</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="L226" t="inlineStr">
         <is>
@@ -8464,16 +9174,14 @@
         <v>33.16166666666664</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
-        <v>32.9</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="L227" t="inlineStr">
         <is>
@@ -8507,16 +9215,14 @@
         <v>33.14999999999997</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>32.8</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="L228" t="inlineStr">
         <is>
@@ -8550,16 +9256,14 @@
         <v>33.13499999999997</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="n">
-        <v>32.8</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="L229" t="inlineStr">
         <is>
@@ -8593,16 +9297,14 @@
         <v>33.12166666666664</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="n">
-        <v>33.1</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="L230" t="inlineStr">
         <is>
@@ -8636,16 +9338,14 @@
         <v>33.11666666666664</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="n">
-        <v>33.6</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="L231" t="inlineStr">
         <is>
@@ -8679,16 +9379,14 @@
         <v>33.10499999999998</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="n">
-        <v>33.2</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="L232" t="inlineStr">
         <is>
@@ -8722,16 +9420,14 @@
         <v>33.09666666666664</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="n">
-        <v>33.1</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="L233" t="inlineStr">
         <is>
@@ -8765,16 +9461,14 @@
         <v>33.08666666666664</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>32.9</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="L234" t="inlineStr">
         <is>
@@ -8808,16 +9502,14 @@
         <v>33.07999999999997</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
-        <v>33.3</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="L235" t="inlineStr">
         <is>
@@ -8851,16 +9543,14 @@
         <v>33.0733333333333</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
-        <v>33.1</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="L236" t="inlineStr">
         <is>
@@ -8894,16 +9584,14 @@
         <v>33.07666666666664</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="n">
-        <v>33.7</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="L237" t="inlineStr">
         <is>
@@ -8937,16 +9625,14 @@
         <v>33.0733333333333</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="n">
-        <v>33.3</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="L238" t="inlineStr">
         <is>
@@ -8980,16 +9666,14 @@
         <v>33.0783333333333</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="n">
-        <v>33.7</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="L239" t="inlineStr">
         <is>
@@ -9023,16 +9707,14 @@
         <v>33.08166666666664</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="n">
-        <v>33.7</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="L240" t="inlineStr">
         <is>
@@ -9073,7 +9755,7 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="L241" t="inlineStr">
         <is>
@@ -9114,7 +9796,7 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="L242" t="inlineStr">
         <is>
@@ -9155,7 +9837,7 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="L243" t="inlineStr">
         <is>
@@ -9196,7 +9878,7 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="L244" t="inlineStr">
         <is>
@@ -9237,7 +9919,7 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="L245" t="inlineStr">
         <is>
@@ -9274,19 +9956,19 @@
         <v>0</v>
       </c>
       <c r="I246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M246" t="n">
-        <v>1.010151515151515</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -9318,8 +10000,14 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9353,8 +10041,14 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9385,11 +10079,17 @@
         <v>0</v>
       </c>
       <c r="I249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9423,8 +10123,14 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9458,8 +10164,14 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9493,8 +10205,14 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9525,13 +10243,19 @@
         <v>0</v>
       </c>
       <c r="I253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M253" t="n">
-        <v>1</v>
+        <v>0.9860179640718564</v>
       </c>
     </row>
     <row r="254">
@@ -9595,7 +10319,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
@@ -9630,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
@@ -9665,7 +10389,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
@@ -9770,7 +10494,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
@@ -9805,7 +10529,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
@@ -9875,7 +10599,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>

--- a/BackTest/2019-10-19 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-19 BackTest LAMB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M283"/>
+  <dimension ref="A1:N293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>14537</v>
       </c>
       <c r="G2" t="n">
+        <v>35.24000000000002</v>
+      </c>
+      <c r="H2" t="n">
         <v>35.79499999999996</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>1500</v>
       </c>
       <c r="G3" t="n">
+        <v>35.21333333333336</v>
+      </c>
+      <c r="H3" t="n">
         <v>35.78499999999995</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>11064.353</v>
       </c>
       <c r="G4" t="n">
+        <v>35.20000000000003</v>
+      </c>
+      <c r="H4" t="n">
         <v>35.77333333333328</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>12209.7509</v>
       </c>
       <c r="G5" t="n">
+        <v>35.1866666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>35.75999999999995</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>7754.0753</v>
       </c>
       <c r="G6" t="n">
+        <v>35.16000000000004</v>
+      </c>
+      <c r="H6" t="n">
         <v>35.74166666666661</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>16.817</v>
       </c>
       <c r="G7" t="n">
+        <v>35.14000000000004</v>
+      </c>
+      <c r="H7" t="n">
         <v>35.72999999999994</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>246.341</v>
       </c>
       <c r="G8" t="n">
+        <v>35.13333333333338</v>
+      </c>
+      <c r="H8" t="n">
         <v>35.71499999999994</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>500</v>
       </c>
       <c r="G9" t="n">
+        <v>35.12666666666671</v>
+      </c>
+      <c r="H9" t="n">
         <v>35.69666666666661</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>1328.4145</v>
       </c>
       <c r="G10" t="n">
+        <v>35.12000000000004</v>
+      </c>
+      <c r="H10" t="n">
         <v>35.67999999999994</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>17300.7539</v>
       </c>
       <c r="G11" t="n">
+        <v>35.1066666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>35.66333333333328</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>13200</v>
       </c>
       <c r="G12" t="n">
+        <v>35.0866666666667</v>
+      </c>
+      <c r="H12" t="n">
         <v>35.64499999999995</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>83524.9323</v>
       </c>
       <c r="G13" t="n">
+        <v>35.0666666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>35.62499999999995</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>1000</v>
       </c>
       <c r="G14" t="n">
+        <v>35.0466666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>35.60499999999995</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>39139.9148</v>
       </c>
       <c r="G15" t="n">
+        <v>35.04000000000003</v>
+      </c>
+      <c r="H15" t="n">
         <v>35.58499999999994</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>10639.6778</v>
       </c>
       <c r="G16" t="n">
+        <v>35.02000000000003</v>
+      </c>
+      <c r="H16" t="n">
         <v>35.56166666666661</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>7268.7105</v>
       </c>
       <c r="G17" t="n">
+        <v>34.9866666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>35.53999999999994</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>3500</v>
       </c>
       <c r="G18" t="n">
+        <v>34.95333333333337</v>
+      </c>
+      <c r="H18" t="n">
         <v>35.51666666666661</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>8302.7907</v>
       </c>
       <c r="G19" t="n">
+        <v>34.9066666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>35.49333333333327</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>17917.3354</v>
       </c>
       <c r="G20" t="n">
+        <v>34.86000000000003</v>
+      </c>
+      <c r="H20" t="n">
         <v>35.4666666666666</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>12356.2527</v>
       </c>
       <c r="G21" t="n">
+        <v>34.8266666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>35.43499999999994</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>0.5054999999999999</v>
       </c>
       <c r="G22" t="n">
+        <v>34.78000000000002</v>
+      </c>
+      <c r="H22" t="n">
         <v>35.40333333333327</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>24</v>
       </c>
       <c r="G23" t="n">
+        <v>34.75333333333335</v>
+      </c>
+      <c r="H23" t="n">
         <v>35.37166666666661</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>972.9761999999999</v>
       </c>
       <c r="G24" t="n">
+        <v>34.72000000000002</v>
+      </c>
+      <c r="H24" t="n">
         <v>35.33499999999994</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>885.9635</v>
       </c>
       <c r="G25" t="n">
+        <v>34.68666666666669</v>
+      </c>
+      <c r="H25" t="n">
         <v>35.3116666666666</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>300</v>
       </c>
       <c r="G26" t="n">
+        <v>34.66000000000002</v>
+      </c>
+      <c r="H26" t="n">
         <v>35.2866666666666</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>1803.3237</v>
       </c>
       <c r="G27" t="n">
+        <v>34.64666666666669</v>
+      </c>
+      <c r="H27" t="n">
         <v>35.26499999999994</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>1267.1709</v>
       </c>
       <c r="G28" t="n">
+        <v>34.63333333333336</v>
+      </c>
+      <c r="H28" t="n">
         <v>35.24333333333326</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>2466.471</v>
       </c>
       <c r="G29" t="n">
+        <v>34.62000000000003</v>
+      </c>
+      <c r="H29" t="n">
         <v>35.21999999999993</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>10667.7535</v>
       </c>
       <c r="G30" t="n">
+        <v>34.61333333333337</v>
+      </c>
+      <c r="H30" t="n">
         <v>35.19833333333326</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>1158.5618</v>
       </c>
       <c r="G31" t="n">
+        <v>34.6066666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>35.17833333333326</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>1618.949</v>
       </c>
       <c r="G32" t="n">
+        <v>34.60000000000003</v>
+      </c>
+      <c r="H32" t="n">
         <v>35.15666666666659</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>10173.8419</v>
       </c>
       <c r="G33" t="n">
+        <v>34.58666666666669</v>
+      </c>
+      <c r="H33" t="n">
         <v>35.12999999999992</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>2268.068356446991</v>
       </c>
       <c r="G34" t="n">
+        <v>34.58000000000003</v>
+      </c>
+      <c r="H34" t="n">
         <v>35.10499999999992</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>88</v>
       </c>
       <c r="G35" t="n">
+        <v>34.57333333333336</v>
+      </c>
+      <c r="H35" t="n">
         <v>35.07999999999992</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>44</v>
       </c>
       <c r="G36" t="n">
+        <v>34.58666666666669</v>
+      </c>
+      <c r="H36" t="n">
         <v>35.05999999999992</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>1185.8841</v>
       </c>
       <c r="G37" t="n">
+        <v>34.58000000000003</v>
+      </c>
+      <c r="H37" t="n">
         <v>35.03166666666659</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>2449.5677</v>
       </c>
       <c r="G38" t="n">
+        <v>34.57333333333337</v>
+      </c>
+      <c r="H38" t="n">
         <v>35.01833333333325</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>2442.5286</v>
       </c>
       <c r="G39" t="n">
+        <v>34.58666666666669</v>
+      </c>
+      <c r="H39" t="n">
         <v>35.00166666666658</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>5500</v>
       </c>
       <c r="G40" t="n">
+        <v>34.60000000000002</v>
+      </c>
+      <c r="H40" t="n">
         <v>34.98499999999991</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>3500</v>
       </c>
       <c r="G41" t="n">
+        <v>34.60666666666669</v>
+      </c>
+      <c r="H41" t="n">
         <v>34.96666666666658</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>18900</v>
       </c>
       <c r="G42" t="n">
+        <v>34.61333333333335</v>
+      </c>
+      <c r="H42" t="n">
         <v>34.94999999999991</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>22</v>
       </c>
       <c r="G43" t="n">
+        <v>34.62000000000002</v>
+      </c>
+      <c r="H43" t="n">
         <v>34.93499999999991</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>808.198</v>
       </c>
       <c r="G44" t="n">
+        <v>34.61333333333335</v>
+      </c>
+      <c r="H44" t="n">
         <v>34.91666666666658</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>2000</v>
       </c>
       <c r="G45" t="n">
+        <v>34.60666666666668</v>
+      </c>
+      <c r="H45" t="n">
         <v>34.89833333333324</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>10000</v>
       </c>
       <c r="G46" t="n">
+        <v>34.60000000000002</v>
+      </c>
+      <c r="H46" t="n">
         <v>34.87333333333324</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>1000</v>
       </c>
       <c r="G47" t="n">
+        <v>34.59333333333335</v>
+      </c>
+      <c r="H47" t="n">
         <v>34.85499999999991</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>13100.0001</v>
       </c>
       <c r="G48" t="n">
+        <v>34.58666666666668</v>
+      </c>
+      <c r="H48" t="n">
         <v>34.83499999999992</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>11</v>
       </c>
       <c r="G49" t="n">
+        <v>34.60000000000002</v>
+      </c>
+      <c r="H49" t="n">
         <v>34.82166666666658</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>1588.4809</v>
       </c>
       <c r="G50" t="n">
+        <v>34.61333333333335</v>
+      </c>
+      <c r="H50" t="n">
         <v>34.80833333333324</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>1000</v>
       </c>
       <c r="G51" t="n">
+        <v>34.61333333333335</v>
+      </c>
+      <c r="H51" t="n">
         <v>34.79666666666657</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>11163.9818</v>
       </c>
       <c r="G52" t="n">
+        <v>34.63333333333335</v>
+      </c>
+      <c r="H52" t="n">
         <v>34.78333333333323</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>339.8265</v>
       </c>
       <c r="G53" t="n">
+        <v>34.63333333333335</v>
+      </c>
+      <c r="H53" t="n">
         <v>34.77333333333323</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>11</v>
       </c>
       <c r="G54" t="n">
+        <v>34.62000000000003</v>
+      </c>
+      <c r="H54" t="n">
         <v>34.76333333333323</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>4591.084</v>
       </c>
       <c r="G55" t="n">
+        <v>34.6066666666667</v>
+      </c>
+      <c r="H55" t="n">
         <v>34.75333333333323</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>2212.7864</v>
       </c>
       <c r="G56" t="n">
+        <v>34.59333333333336</v>
+      </c>
+      <c r="H56" t="n">
         <v>34.74166666666657</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>11</v>
       </c>
       <c r="G57" t="n">
+        <v>34.58000000000003</v>
+      </c>
+      <c r="H57" t="n">
         <v>34.73166666666657</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>1000</v>
       </c>
       <c r="G58" t="n">
+        <v>34.57333333333337</v>
+      </c>
+      <c r="H58" t="n">
         <v>34.72333333333324</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>124501.2105</v>
       </c>
       <c r="G59" t="n">
+        <v>34.5666666666667</v>
+      </c>
+      <c r="H59" t="n">
         <v>34.71166666666657</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>500</v>
       </c>
       <c r="G60" t="n">
+        <v>34.5466666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>34.70166666666657</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>3683.6888</v>
       </c>
       <c r="G61" t="n">
+        <v>34.52000000000003</v>
+      </c>
+      <c r="H61" t="n">
         <v>34.68666666666657</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>1727.0118</v>
       </c>
       <c r="G62" t="n">
+        <v>34.49333333333337</v>
+      </c>
+      <c r="H62" t="n">
         <v>34.66833333333323</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>14916.7339</v>
       </c>
       <c r="G63" t="n">
+        <v>34.44666666666671</v>
+      </c>
+      <c r="H63" t="n">
         <v>34.64333333333323</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>43465.5675</v>
       </c>
       <c r="G64" t="n">
+        <v>34.38000000000004</v>
+      </c>
+      <c r="H64" t="n">
         <v>34.61666666666657</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,27 @@
         <v>238861.4713</v>
       </c>
       <c r="G65" t="n">
+        <v>34.31333333333338</v>
+      </c>
+      <c r="H65" t="n">
         <v>34.5899999999999</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>33.6</v>
+      </c>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2891,25 @@
         <v>78915.0245</v>
       </c>
       <c r="G66" t="n">
+        <v>34.24000000000004</v>
+      </c>
+      <c r="H66" t="n">
         <v>34.56666666666657</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2933,27 @@
         <v>10.2976</v>
       </c>
       <c r="G67" t="n">
+        <v>34.16666666666671</v>
+      </c>
+      <c r="H67" t="n">
         <v>34.5399999999999</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>33.6</v>
+      </c>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2977,27 @@
         <v>10000</v>
       </c>
       <c r="G68" t="n">
+        <v>34.09333333333338</v>
+      </c>
+      <c r="H68" t="n">
         <v>34.51333333333324</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>33.6</v>
+      </c>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3021,27 @@
         <v>29000</v>
       </c>
       <c r="G69" t="n">
+        <v>34.02666666666671</v>
+      </c>
+      <c r="H69" t="n">
         <v>34.48833333333324</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>33.6</v>
+      </c>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3065,27 @@
         <v>60562.38</v>
       </c>
       <c r="G70" t="n">
+        <v>33.9866666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>34.46999999999991</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>33.6</v>
+      </c>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3109,27 @@
         <v>677</v>
       </c>
       <c r="G71" t="n">
+        <v>33.9266666666667</v>
+      </c>
+      <c r="H71" t="n">
         <v>34.44666666666657</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>34</v>
+      </c>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3153,27 @@
         <v>223778.0378</v>
       </c>
       <c r="G72" t="n">
+        <v>33.84000000000003</v>
+      </c>
+      <c r="H72" t="n">
         <v>34.41999999999991</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>33.6</v>
+      </c>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3197,25 @@
         <v>88</v>
       </c>
       <c r="G73" t="n">
+        <v>33.75333333333336</v>
+      </c>
+      <c r="H73" t="n">
         <v>34.3949999999999</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3239,25 @@
         <v>143</v>
       </c>
       <c r="G74" t="n">
+        <v>33.68000000000003</v>
+      </c>
+      <c r="H74" t="n">
         <v>34.36999999999991</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3281,25 @@
         <v>21.7964</v>
       </c>
       <c r="G75" t="n">
+        <v>33.66000000000003</v>
+      </c>
+      <c r="H75" t="n">
         <v>34.35666666666658</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3323,25 @@
         <v>11</v>
       </c>
       <c r="G76" t="n">
+        <v>33.61333333333336</v>
+      </c>
+      <c r="H76" t="n">
         <v>34.33499999999992</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3365,25 @@
         <v>101903.6663</v>
       </c>
       <c r="G77" t="n">
+        <v>33.55333333333336</v>
+      </c>
+      <c r="H77" t="n">
         <v>34.30999999999992</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3407,25 @@
         <v>1156.5768</v>
       </c>
       <c r="G78" t="n">
+        <v>33.52666666666669</v>
+      </c>
+      <c r="H78" t="n">
         <v>34.28666666666659</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3449,25 @@
         <v>55</v>
       </c>
       <c r="G79" t="n">
+        <v>33.50666666666669</v>
+      </c>
+      <c r="H79" t="n">
         <v>34.26666666666659</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3491,25 @@
         <v>507</v>
       </c>
       <c r="G80" t="n">
+        <v>33.49333333333335</v>
+      </c>
+      <c r="H80" t="n">
         <v>34.24833333333326</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3533,25 @@
         <v>33478.1592</v>
       </c>
       <c r="G81" t="n">
+        <v>33.47333333333335</v>
+      </c>
+      <c r="H81" t="n">
         <v>34.22833333333326</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3575,25 @@
         <v>35458.0091</v>
       </c>
       <c r="G82" t="n">
+        <v>33.46000000000002</v>
+      </c>
+      <c r="H82" t="n">
         <v>34.20999999999993</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3617,25 @@
         <v>4023.7605</v>
       </c>
       <c r="G83" t="n">
+        <v>33.44000000000001</v>
+      </c>
+      <c r="H83" t="n">
         <v>34.18499999999993</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3659,25 @@
         <v>44</v>
       </c>
       <c r="G84" t="n">
+        <v>33.42</v>
+      </c>
+      <c r="H84" t="n">
         <v>34.16333333333327</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3701,25 @@
         <v>21.8928</v>
       </c>
       <c r="G85" t="n">
+        <v>33.39333333333334</v>
+      </c>
+      <c r="H85" t="n">
         <v>34.1466666666666</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3743,25 @@
         <v>11</v>
       </c>
       <c r="G86" t="n">
+        <v>33.38</v>
+      </c>
+      <c r="H86" t="n">
         <v>34.1266666666666</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3785,25 @@
         <v>1149.8062</v>
       </c>
       <c r="G87" t="n">
+        <v>33.40000000000001</v>
+      </c>
+      <c r="H87" t="n">
         <v>34.10833333333327</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3827,25 @@
         <v>4289.2858</v>
       </c>
       <c r="G88" t="n">
+        <v>33.42</v>
+      </c>
+      <c r="H88" t="n">
         <v>34.0916666666666</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3869,25 @@
         <v>31262.8333</v>
       </c>
       <c r="G89" t="n">
+        <v>33.42666666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>34.07166666666661</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3911,25 @@
         <v>43</v>
       </c>
       <c r="G90" t="n">
+        <v>33.39333333333334</v>
+      </c>
+      <c r="H90" t="n">
         <v>34.05166666666661</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3953,25 @@
         <v>34.2304</v>
       </c>
       <c r="G91" t="n">
+        <v>33.39333333333334</v>
+      </c>
+      <c r="H91" t="n">
         <v>34.03166666666662</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3995,25 @@
         <v>1220</v>
       </c>
       <c r="G92" t="n">
+        <v>33.40666666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>34.01166666666662</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +4037,25 @@
         <v>3425.7409</v>
       </c>
       <c r="G93" t="n">
+        <v>33.41333333333334</v>
+      </c>
+      <c r="H93" t="n">
         <v>33.99333333333329</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +4079,25 @@
         <v>29.76190476190476</v>
       </c>
       <c r="G94" t="n">
+        <v>33.43333333333334</v>
+      </c>
+      <c r="H94" t="n">
         <v>33.97999999999995</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +4121,25 @@
         <v>10898.5118</v>
       </c>
       <c r="G95" t="n">
+        <v>33.44666666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>33.96666666666661</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4163,25 @@
         <v>11553.52159523809</v>
       </c>
       <c r="G96" t="n">
+        <v>33.46</v>
+      </c>
+      <c r="H96" t="n">
         <v>33.94666666666662</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4205,25 @@
         <v>77</v>
       </c>
       <c r="G97" t="n">
+        <v>33.47333333333334</v>
+      </c>
+      <c r="H97" t="n">
         <v>33.93333333333328</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4247,25 @@
         <v>7142.7056</v>
       </c>
       <c r="G98" t="n">
+        <v>33.49333333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>33.91499999999994</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4289,25 @@
         <v>16667.2574</v>
       </c>
       <c r="G99" t="n">
+        <v>33.52</v>
+      </c>
+      <c r="H99" t="n">
         <v>33.89666666666661</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4331,25 @@
         <v>9176</v>
       </c>
       <c r="G100" t="n">
+        <v>33.52666666666666</v>
+      </c>
+      <c r="H100" t="n">
         <v>33.87833333333328</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4373,25 @@
         <v>9306.244199999999</v>
       </c>
       <c r="G101" t="n">
+        <v>33.54666666666667</v>
+      </c>
+      <c r="H101" t="n">
         <v>33.86166666666661</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4415,25 @@
         <v>3500</v>
       </c>
       <c r="G102" t="n">
+        <v>33.55333333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>33.84333333333328</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4457,25 @@
         <v>169</v>
       </c>
       <c r="G103" t="n">
+        <v>33.56000000000001</v>
+      </c>
+      <c r="H103" t="n">
         <v>33.82666666666662</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4499,25 @@
         <v>1580.7959</v>
       </c>
       <c r="G104" t="n">
+        <v>33.58000000000001</v>
+      </c>
+      <c r="H104" t="n">
         <v>33.81333333333328</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4541,25 @@
         <v>1817.162</v>
       </c>
       <c r="G105" t="n">
+        <v>33.59333333333335</v>
+      </c>
+      <c r="H105" t="n">
         <v>33.79833333333328</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4583,25 @@
         <v>15000</v>
       </c>
       <c r="G106" t="n">
+        <v>33.60666666666668</v>
+      </c>
+      <c r="H106" t="n">
         <v>33.78333333333328</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4625,25 @@
         <v>92</v>
       </c>
       <c r="G107" t="n">
+        <v>33.62666666666669</v>
+      </c>
+      <c r="H107" t="n">
         <v>33.76999999999995</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4667,25 @@
         <v>16.818</v>
       </c>
       <c r="G108" t="n">
+        <v>33.64666666666669</v>
+      </c>
+      <c r="H108" t="n">
         <v>33.75833333333328</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4709,25 @@
         <v>18600</v>
       </c>
       <c r="G109" t="n">
+        <v>33.64666666666669</v>
+      </c>
+      <c r="H109" t="n">
         <v>33.7416666666666</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4751,25 @@
         <v>54307.6934</v>
       </c>
       <c r="G110" t="n">
+        <v>33.64000000000002</v>
+      </c>
+      <c r="H110" t="n">
         <v>33.72333333333327</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4793,25 @@
         <v>1867.3964</v>
       </c>
       <c r="G111" t="n">
+        <v>33.64666666666669</v>
+      </c>
+      <c r="H111" t="n">
         <v>33.70499999999994</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4835,25 @@
         <v>46748.2259</v>
       </c>
       <c r="G112" t="n">
+        <v>33.64000000000002</v>
+      </c>
+      <c r="H112" t="n">
         <v>33.68499999999994</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4877,25 @@
         <v>500</v>
       </c>
       <c r="G113" t="n">
+        <v>33.64000000000002</v>
+      </c>
+      <c r="H113" t="n">
         <v>33.66666666666661</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4919,25 @@
         <v>1000</v>
       </c>
       <c r="G114" t="n">
+        <v>33.63333333333336</v>
+      </c>
+      <c r="H114" t="n">
         <v>33.64999999999995</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4961,25 @@
         <v>10</v>
       </c>
       <c r="G115" t="n">
+        <v>33.63333333333336</v>
+      </c>
+      <c r="H115" t="n">
         <v>33.63499999999995</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +5003,25 @@
         <v>1485.1439</v>
       </c>
       <c r="G116" t="n">
+        <v>33.63333333333336</v>
+      </c>
+      <c r="H116" t="n">
         <v>33.62166666666661</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +5045,25 @@
         <v>19900</v>
       </c>
       <c r="G117" t="n">
+        <v>33.63333333333336</v>
+      </c>
+      <c r="H117" t="n">
         <v>33.60666666666661</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +5087,25 @@
         <v>2040</v>
       </c>
       <c r="G118" t="n">
+        <v>33.62666666666669</v>
+      </c>
+      <c r="H118" t="n">
         <v>33.58999999999994</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +5129,25 @@
         <v>10</v>
       </c>
       <c r="G119" t="n">
+        <v>33.61333333333336</v>
+      </c>
+      <c r="H119" t="n">
         <v>33.57499999999994</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +5171,25 @@
         <v>42040.4253</v>
       </c>
       <c r="G120" t="n">
+        <v>33.60666666666668</v>
+      </c>
+      <c r="H120" t="n">
         <v>33.56333333333327</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +5213,25 @@
         <v>7698.6233</v>
       </c>
       <c r="G121" t="n">
+        <v>33.60000000000002</v>
+      </c>
+      <c r="H121" t="n">
         <v>33.55333333333327</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5255,25 @@
         <v>22301.3767</v>
       </c>
       <c r="G122" t="n">
+        <v>33.58000000000001</v>
+      </c>
+      <c r="H122" t="n">
         <v>33.54166666666661</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5297,25 @@
         <v>454.7026</v>
       </c>
       <c r="G123" t="n">
+        <v>33.56000000000002</v>
+      </c>
+      <c r="H123" t="n">
         <v>33.53666666666661</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5339,25 @@
         <v>977.75</v>
       </c>
       <c r="G124" t="n">
+        <v>33.54000000000001</v>
+      </c>
+      <c r="H124" t="n">
         <v>33.53166666666661</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5381,25 @@
         <v>30500.2919</v>
       </c>
       <c r="G125" t="n">
+        <v>33.52666666666668</v>
+      </c>
+      <c r="H125" t="n">
         <v>33.52666666666661</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5423,25 @@
         <v>1978.7973</v>
       </c>
       <c r="G126" t="n">
+        <v>33.50666666666667</v>
+      </c>
+      <c r="H126" t="n">
         <v>33.52166666666661</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5465,25 @@
         <v>132973.0765</v>
       </c>
       <c r="G127" t="n">
+        <v>33.52000000000001</v>
+      </c>
+      <c r="H127" t="n">
         <v>33.52333333333328</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5507,25 @@
         <v>100</v>
       </c>
       <c r="G128" t="n">
+        <v>33.50666666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>33.51999999999995</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5549,25 @@
         <v>10</v>
       </c>
       <c r="G129" t="n">
+        <v>33.50000000000001</v>
+      </c>
+      <c r="H129" t="n">
         <v>33.51833333333329</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5591,25 @@
         <v>16990</v>
       </c>
       <c r="G130" t="n">
+        <v>33.48666666666667</v>
+      </c>
+      <c r="H130" t="n">
         <v>33.50999999999996</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5633,25 @@
         <v>613.9518</v>
       </c>
       <c r="G131" t="n">
+        <v>33.49333333333335</v>
+      </c>
+      <c r="H131" t="n">
         <v>33.51333333333329</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5675,25 @@
         <v>8010</v>
       </c>
       <c r="G132" t="n">
+        <v>33.49333333333335</v>
+      </c>
+      <c r="H132" t="n">
         <v>33.51999999999995</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5717,25 @@
         <v>14324.4534</v>
       </c>
       <c r="G133" t="n">
+        <v>33.48666666666667</v>
+      </c>
+      <c r="H133" t="n">
         <v>33.52333333333329</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5759,25 @@
         <v>10</v>
       </c>
       <c r="G134" t="n">
+        <v>33.50000000000001</v>
+      </c>
+      <c r="H134" t="n">
         <v>33.52999999999996</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5801,25 @@
         <v>39.67359050445104</v>
       </c>
       <c r="G135" t="n">
+        <v>33.49333333333334</v>
+      </c>
+      <c r="H135" t="n">
         <v>33.52166666666663</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5843,25 @@
         <v>8261</v>
       </c>
       <c r="G136" t="n">
+        <v>33.50666666666667</v>
+      </c>
+      <c r="H136" t="n">
         <v>33.52666666666662</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5885,25 @@
         <v>6077</v>
       </c>
       <c r="G137" t="n">
+        <v>33.55333333333335</v>
+      </c>
+      <c r="H137" t="n">
         <v>33.54166666666662</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5927,25 @@
         <v>7068.2058</v>
       </c>
       <c r="G138" t="n">
+        <v>33.59333333333335</v>
+      </c>
+      <c r="H138" t="n">
         <v>33.55333333333329</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5969,25 @@
         <v>13010</v>
       </c>
       <c r="G139" t="n">
+        <v>33.62666666666668</v>
+      </c>
+      <c r="H139" t="n">
         <v>33.56166666666662</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +6011,25 @@
         <v>3617.4271</v>
       </c>
       <c r="G140" t="n">
+        <v>33.65333333333334</v>
+      </c>
+      <c r="H140" t="n">
         <v>33.56666666666662</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +6053,25 @@
         <v>8166.6022</v>
       </c>
       <c r="G141" t="n">
+        <v>33.70000000000001</v>
+      </c>
+      <c r="H141" t="n">
         <v>33.57833333333329</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +6095,25 @@
         <v>10</v>
       </c>
       <c r="G142" t="n">
+        <v>33.70666666666668</v>
+      </c>
+      <c r="H142" t="n">
         <v>33.58499999999995</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +6137,25 @@
         <v>12137.0146</v>
       </c>
       <c r="G143" t="n">
+        <v>33.74000000000002</v>
+      </c>
+      <c r="H143" t="n">
         <v>33.59499999999996</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +6179,25 @@
         <v>11877.493</v>
       </c>
       <c r="G144" t="n">
+        <v>33.77333333333335</v>
+      </c>
+      <c r="H144" t="n">
         <v>33.60666666666662</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +6221,25 @@
         <v>10</v>
       </c>
       <c r="G145" t="n">
+        <v>33.79333333333334</v>
+      </c>
+      <c r="H145" t="n">
         <v>33.60999999999995</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +6263,25 @@
         <v>5137.737</v>
       </c>
       <c r="G146" t="n">
+        <v>33.78000000000002</v>
+      </c>
+      <c r="H146" t="n">
         <v>33.61333333333328</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,18 +6305,25 @@
         <v>1000</v>
       </c>
       <c r="G147" t="n">
+        <v>33.79333333333335</v>
+      </c>
+      <c r="H147" t="n">
         <v>33.61833333333329</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,18 +6347,25 @@
         <v>20</v>
       </c>
       <c r="G148" t="n">
+        <v>33.82000000000002</v>
+      </c>
+      <c r="H148" t="n">
         <v>33.62333333333329</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6389,25 @@
         <v>1000</v>
       </c>
       <c r="G149" t="n">
+        <v>33.83333333333335</v>
+      </c>
+      <c r="H149" t="n">
         <v>33.63166666666663</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6431,25 @@
         <v>10</v>
       </c>
       <c r="G150" t="n">
+        <v>33.84666666666669</v>
+      </c>
+      <c r="H150" t="n">
         <v>33.63499999999996</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6473,25 @@
         <v>30</v>
       </c>
       <c r="G151" t="n">
+        <v>33.83333333333335</v>
+      </c>
+      <c r="H151" t="n">
         <v>33.63666666666662</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6515,25 @@
         <v>10</v>
       </c>
       <c r="G152" t="n">
+        <v>33.82000000000002</v>
+      </c>
+      <c r="H152" t="n">
         <v>33.64499999999995</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6557,25 @@
         <v>3010</v>
       </c>
       <c r="G153" t="n">
+        <v>33.80000000000003</v>
+      </c>
+      <c r="H153" t="n">
         <v>33.64999999999995</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6599,25 @@
         <v>10</v>
       </c>
       <c r="G154" t="n">
+        <v>33.78666666666669</v>
+      </c>
+      <c r="H154" t="n">
         <v>33.64999999999995</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,18 +6641,25 @@
         <v>10</v>
       </c>
       <c r="G155" t="n">
+        <v>33.78000000000002</v>
+      </c>
+      <c r="H155" t="n">
         <v>33.64999999999995</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,18 +6683,25 @@
         <v>10</v>
       </c>
       <c r="G156" t="n">
+        <v>33.74666666666668</v>
+      </c>
+      <c r="H156" t="n">
         <v>33.64999999999995</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,18 +6725,25 @@
         <v>219.1691</v>
       </c>
       <c r="G157" t="n">
+        <v>33.74000000000002</v>
+      </c>
+      <c r="H157" t="n">
         <v>33.65166666666661</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,18 +6767,25 @@
         <v>14910</v>
       </c>
       <c r="G158" t="n">
+        <v>33.72000000000002</v>
+      </c>
+      <c r="H158" t="n">
         <v>33.65166666666661</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,18 +6809,25 @@
         <v>10</v>
       </c>
       <c r="G159" t="n">
+        <v>33.68666666666669</v>
+      </c>
+      <c r="H159" t="n">
         <v>33.64833333333328</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,18 +6851,25 @@
         <v>10</v>
       </c>
       <c r="G160" t="n">
+        <v>33.68000000000002</v>
+      </c>
+      <c r="H160" t="n">
         <v>33.64833333333328</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,18 +6893,25 @@
         <v>108.703</v>
       </c>
       <c r="G161" t="n">
+        <v>33.67333333333335</v>
+      </c>
+      <c r="H161" t="n">
         <v>33.64499999999995</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,18 +6935,25 @@
         <v>7068.2058</v>
       </c>
       <c r="G162" t="n">
+        <v>33.64666666666668</v>
+      </c>
+      <c r="H162" t="n">
         <v>33.64166666666662</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,18 +6977,25 @@
         <v>20</v>
       </c>
       <c r="G163" t="n">
+        <v>33.63333333333335</v>
+      </c>
+      <c r="H163" t="n">
         <v>33.64166666666662</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,18 +7019,25 @@
         <v>62.5168</v>
       </c>
       <c r="G164" t="n">
+        <v>33.60666666666669</v>
+      </c>
+      <c r="H164" t="n">
         <v>33.63833333333329</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,18 +7061,25 @@
         <v>10</v>
       </c>
       <c r="G165" t="n">
+        <v>33.61333333333336</v>
+      </c>
+      <c r="H165" t="n">
         <v>33.63999999999996</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,18 +7103,25 @@
         <v>29.67359050445104</v>
       </c>
       <c r="G166" t="n">
+        <v>33.62666666666669</v>
+      </c>
+      <c r="H166" t="n">
         <v>33.64166666666662</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6223,18 +7145,25 @@
         <v>10</v>
       </c>
       <c r="G167" t="n">
+        <v>33.60000000000003</v>
+      </c>
+      <c r="H167" t="n">
         <v>33.63833333333329</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,18 +7187,25 @@
         <v>30010</v>
       </c>
       <c r="G168" t="n">
+        <v>33.59333333333337</v>
+      </c>
+      <c r="H168" t="n">
         <v>33.63666666666662</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6293,18 +7229,25 @@
         <v>10</v>
       </c>
       <c r="G169" t="n">
+        <v>33.60000000000003</v>
+      </c>
+      <c r="H169" t="n">
         <v>33.63833333333329</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,18 +7271,25 @@
         <v>31.2584</v>
       </c>
       <c r="G170" t="n">
+        <v>33.60000000000003</v>
+      </c>
+      <c r="H170" t="n">
         <v>33.63999999999996</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6363,18 +7313,25 @@
         <v>10</v>
       </c>
       <c r="G171" t="n">
+        <v>33.61333333333337</v>
+      </c>
+      <c r="H171" t="n">
         <v>33.64166666666662</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6398,18 +7355,25 @@
         <v>8673.3575</v>
       </c>
       <c r="G172" t="n">
+        <v>33.60000000000004</v>
+      </c>
+      <c r="H172" t="n">
         <v>33.64166666666662</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6433,18 +7397,25 @@
         <v>10</v>
       </c>
       <c r="G173" t="n">
+        <v>33.6066666666667</v>
+      </c>
+      <c r="H173" t="n">
         <v>33.64333333333329</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6468,18 +7439,25 @@
         <v>9596.9815</v>
       </c>
       <c r="G174" t="n">
+        <v>33.6066666666667</v>
+      </c>
+      <c r="H174" t="n">
         <v>33.64166666666662</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6503,18 +7481,25 @@
         <v>31808.2533</v>
       </c>
       <c r="G175" t="n">
+        <v>33.59333333333337</v>
+      </c>
+      <c r="H175" t="n">
         <v>33.63833333333329</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6538,18 +7523,25 @@
         <v>28932.9756</v>
       </c>
       <c r="G176" t="n">
+        <v>33.59333333333337</v>
+      </c>
+      <c r="H176" t="n">
         <v>33.63499999999996</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6573,18 +7565,25 @@
         <v>49713.5036</v>
       </c>
       <c r="G177" t="n">
+        <v>33.59333333333337</v>
+      </c>
+      <c r="H177" t="n">
         <v>33.63166666666663</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6608,18 +7607,25 @@
         <v>1000</v>
       </c>
       <c r="G178" t="n">
+        <v>33.58000000000003</v>
+      </c>
+      <c r="H178" t="n">
         <v>33.62999999999997</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6643,18 +7649,25 @@
         <v>1190.5298</v>
       </c>
       <c r="G179" t="n">
+        <v>33.58000000000003</v>
+      </c>
+      <c r="H179" t="n">
         <v>33.62999999999997</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6678,18 +7691,25 @@
         <v>10</v>
       </c>
       <c r="G180" t="n">
+        <v>33.56000000000003</v>
+      </c>
+      <c r="H180" t="n">
         <v>33.6283333333333</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6713,18 +7733,25 @@
         <v>73361.94</v>
       </c>
       <c r="G181" t="n">
+        <v>33.5466666666667</v>
+      </c>
+      <c r="H181" t="n">
         <v>33.6283333333333</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6748,18 +7775,25 @@
         <v>37340.7342</v>
       </c>
       <c r="G182" t="n">
+        <v>33.5466666666667</v>
+      </c>
+      <c r="H182" t="n">
         <v>33.62999999999997</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6783,18 +7817,25 @@
         <v>14441.8614</v>
       </c>
       <c r="G183" t="n">
+        <v>33.53333333333337</v>
+      </c>
+      <c r="H183" t="n">
         <v>33.62999999999997</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6818,18 +7859,25 @@
         <v>783.2588</v>
       </c>
       <c r="G184" t="n">
+        <v>33.5066666666667</v>
+      </c>
+      <c r="H184" t="n">
         <v>33.62999999999997</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6853,18 +7901,25 @@
         <v>14614.3703</v>
       </c>
       <c r="G185" t="n">
+        <v>33.48666666666669</v>
+      </c>
+      <c r="H185" t="n">
         <v>33.62999999999997</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6888,18 +7943,25 @@
         <v>2433.5279</v>
       </c>
       <c r="G186" t="n">
+        <v>33.45333333333336</v>
+      </c>
+      <c r="H186" t="n">
         <v>33.6283333333333</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6923,18 +7985,25 @@
         <v>144.4234</v>
       </c>
       <c r="G187" t="n">
+        <v>33.43333333333337</v>
+      </c>
+      <c r="H187" t="n">
         <v>33.61999999999997</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6958,18 +8027,25 @@
         <v>74.5232</v>
       </c>
       <c r="G188" t="n">
+        <v>33.40000000000003</v>
+      </c>
+      <c r="H188" t="n">
         <v>33.61666666666664</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6993,18 +8069,25 @@
         <v>60793.1391</v>
       </c>
       <c r="G189" t="n">
+        <v>33.3866666666667</v>
+      </c>
+      <c r="H189" t="n">
         <v>33.61333333333331</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7028,18 +8111,25 @@
         <v>10</v>
       </c>
       <c r="G190" t="n">
+        <v>33.3666666666667</v>
+      </c>
+      <c r="H190" t="n">
         <v>33.60833333333331</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7063,18 +8153,25 @@
         <v>2507.2615</v>
       </c>
       <c r="G191" t="n">
+        <v>33.34666666666671</v>
+      </c>
+      <c r="H191" t="n">
         <v>33.5983333333333</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7098,18 +8195,25 @@
         <v>79887.8705</v>
       </c>
       <c r="G192" t="n">
+        <v>33.32666666666671</v>
+      </c>
+      <c r="H192" t="n">
         <v>33.58999999999997</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7133,18 +8237,25 @@
         <v>4149.432</v>
       </c>
       <c r="G193" t="n">
+        <v>33.30666666666671</v>
+      </c>
+      <c r="H193" t="n">
         <v>33.58499999999997</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7168,18 +8279,25 @@
         <v>220184.6804</v>
       </c>
       <c r="G194" t="n">
+        <v>33.29333333333338</v>
+      </c>
+      <c r="H194" t="n">
         <v>33.5783333333333</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7203,18 +8321,25 @@
         <v>92551.0067</v>
       </c>
       <c r="G195" t="n">
+        <v>33.26000000000004</v>
+      </c>
+      <c r="H195" t="n">
         <v>33.56999999999997</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7238,18 +8363,25 @@
         <v>20</v>
       </c>
       <c r="G196" t="n">
+        <v>33.24000000000004</v>
+      </c>
+      <c r="H196" t="n">
         <v>33.56166666666664</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7273,18 +8405,25 @@
         <v>2426.9644</v>
       </c>
       <c r="G197" t="n">
+        <v>33.21333333333338</v>
+      </c>
+      <c r="H197" t="n">
         <v>33.54499999999997</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7308,18 +8447,25 @@
         <v>3706.8114</v>
       </c>
       <c r="G198" t="n">
+        <v>33.20000000000005</v>
+      </c>
+      <c r="H198" t="n">
         <v>33.53166666666664</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7343,18 +8489,25 @@
         <v>80</v>
       </c>
       <c r="G199" t="n">
+        <v>33.19333333333339</v>
+      </c>
+      <c r="H199" t="n">
         <v>33.52166666666664</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7378,18 +8531,25 @@
         <v>1427.7121</v>
       </c>
       <c r="G200" t="n">
+        <v>33.18000000000005</v>
+      </c>
+      <c r="H200" t="n">
         <v>33.51166666666663</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7413,18 +8573,25 @@
         <v>10</v>
       </c>
       <c r="G201" t="n">
+        <v>33.16666666666671</v>
+      </c>
+      <c r="H201" t="n">
         <v>33.49499999999997</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7448,18 +8615,25 @@
         <v>1766.894680362538</v>
       </c>
       <c r="G202" t="n">
+        <v>33.16000000000005</v>
+      </c>
+      <c r="H202" t="n">
         <v>33.48333333333331</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7483,18 +8657,25 @@
         <v>90</v>
       </c>
       <c r="G203" t="n">
+        <v>33.16000000000005</v>
+      </c>
+      <c r="H203" t="n">
         <v>33.47166666666664</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7518,18 +8699,25 @@
         <v>499.2645</v>
       </c>
       <c r="G204" t="n">
+        <v>33.14000000000005</v>
+      </c>
+      <c r="H204" t="n">
         <v>33.45499999999997</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7553,18 +8741,25 @@
         <v>649.2145</v>
       </c>
       <c r="G205" t="n">
+        <v>33.13333333333338</v>
+      </c>
+      <c r="H205" t="n">
         <v>33.4433333333333</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,18 +8783,25 @@
         <v>661.8424</v>
       </c>
       <c r="G206" t="n">
+        <v>33.12000000000005</v>
+      </c>
+      <c r="H206" t="n">
         <v>33.4333333333333</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7623,18 +8825,25 @@
         <v>60594.3312</v>
       </c>
       <c r="G207" t="n">
+        <v>33.11333333333338</v>
+      </c>
+      <c r="H207" t="n">
         <v>33.41999999999997</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7658,24 +8867,25 @@
         <v>73600</v>
       </c>
       <c r="G208" t="n">
+        <v>33.10000000000005</v>
+      </c>
+      <c r="H208" t="n">
         <v>33.40499999999997</v>
       </c>
-      <c r="H208" t="n">
-        <v>1</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
       <c r="J208" t="n">
-        <v>33.1</v>
+        <v>0</v>
       </c>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7699,22 +8909,25 @@
         <v>10</v>
       </c>
       <c r="G209" t="n">
+        <v>33.09333333333338</v>
+      </c>
+      <c r="H209" t="n">
         <v>33.3933333333333</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7738,22 +8951,25 @@
         <v>967.1357</v>
       </c>
       <c r="G210" t="n">
+        <v>33.10000000000005</v>
+      </c>
+      <c r="H210" t="n">
         <v>33.3833333333333</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7777,22 +8993,25 @@
         <v>933.4699000000001</v>
       </c>
       <c r="G211" t="n">
+        <v>33.08666666666672</v>
+      </c>
+      <c r="H211" t="n">
         <v>33.37499999999996</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7816,22 +9035,25 @@
         <v>264256.6651</v>
       </c>
       <c r="G212" t="n">
+        <v>33.04666666666672</v>
+      </c>
+      <c r="H212" t="n">
         <v>33.35166666666663</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7855,22 +9077,25 @@
         <v>4510</v>
       </c>
       <c r="G213" t="n">
+        <v>33.03333333333339</v>
+      </c>
+      <c r="H213" t="n">
         <v>33.33999999999996</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7894,22 +9119,25 @@
         <v>7878.7138</v>
       </c>
       <c r="G214" t="n">
+        <v>33.02000000000006</v>
+      </c>
+      <c r="H214" t="n">
         <v>33.32999999999996</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7933,22 +9161,25 @@
         <v>981.1629</v>
       </c>
       <c r="G215" t="n">
+        <v>32.99333333333339</v>
+      </c>
+      <c r="H215" t="n">
         <v>33.31499999999997</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7972,22 +9203,25 @@
         <v>1502.3064</v>
       </c>
       <c r="G216" t="n">
+        <v>32.98666666666672</v>
+      </c>
+      <c r="H216" t="n">
         <v>33.30499999999997</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8011,22 +9245,27 @@
         <v>286.1553</v>
       </c>
       <c r="G217" t="n">
+        <v>32.96666666666672</v>
+      </c>
+      <c r="H217" t="n">
         <v>33.28999999999997</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8050,22 +9289,27 @@
         <v>20.18</v>
       </c>
       <c r="G218" t="n">
+        <v>32.95333333333339</v>
+      </c>
+      <c r="H218" t="n">
         <v>33.27999999999997</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8089,22 +9333,27 @@
         <v>20</v>
       </c>
       <c r="G219" t="n">
+        <v>32.94000000000005</v>
+      </c>
+      <c r="H219" t="n">
         <v>33.2683333333333</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="n">
+        <v>33</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8128,22 +9377,27 @@
         <v>10</v>
       </c>
       <c r="G220" t="n">
+        <v>32.91333333333339</v>
+      </c>
+      <c r="H220" t="n">
         <v>33.25166666666664</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8167,22 +9421,27 @@
         <v>20</v>
       </c>
       <c r="G221" t="n">
+        <v>32.89333333333339</v>
+      </c>
+      <c r="H221" t="n">
         <v>33.2383333333333</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8206,22 +9465,27 @@
         <v>838.7994</v>
       </c>
       <c r="G222" t="n">
+        <v>32.88000000000006</v>
+      </c>
+      <c r="H222" t="n">
         <v>33.2283333333333</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8245,22 +9509,27 @@
         <v>20664.8263</v>
       </c>
       <c r="G223" t="n">
+        <v>32.87333333333338</v>
+      </c>
+      <c r="H223" t="n">
         <v>33.21499999999997</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8284,22 +9553,25 @@
         <v>2000</v>
       </c>
       <c r="G224" t="n">
+        <v>32.85333333333339</v>
+      </c>
+      <c r="H224" t="n">
         <v>33.20499999999997</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8323,22 +9595,25 @@
         <v>10</v>
       </c>
       <c r="G225" t="n">
+        <v>32.85333333333339</v>
+      </c>
+      <c r="H225" t="n">
         <v>33.19333333333331</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8362,22 +9637,25 @@
         <v>1500</v>
       </c>
       <c r="G226" t="n">
+        <v>32.86000000000006</v>
+      </c>
+      <c r="H226" t="n">
         <v>33.1833333333333</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8401,22 +9679,27 @@
         <v>10</v>
       </c>
       <c r="G227" t="n">
+        <v>32.88000000000006</v>
+      </c>
+      <c r="H227" t="n">
         <v>33.17166666666664</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8440,22 +9723,27 @@
         <v>10800</v>
       </c>
       <c r="G228" t="n">
+        <v>32.88000000000006</v>
+      </c>
+      <c r="H228" t="n">
         <v>33.16166666666664</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8479,22 +9767,27 @@
         <v>33360.7526</v>
       </c>
       <c r="G229" t="n">
+        <v>32.88000000000006</v>
+      </c>
+      <c r="H229" t="n">
         <v>33.14999999999997</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>33</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8518,22 +9811,27 @@
         <v>3902.507</v>
       </c>
       <c r="G230" t="n">
+        <v>32.88000000000006</v>
+      </c>
+      <c r="H230" t="n">
         <v>33.13499999999997</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="n">
+        <v>33</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8557,22 +9855,27 @@
         <v>14125.1257</v>
       </c>
       <c r="G231" t="n">
+        <v>32.88000000000007</v>
+      </c>
+      <c r="H231" t="n">
         <v>33.12166666666664</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8596,22 +9899,27 @@
         <v>2378.3811</v>
       </c>
       <c r="G232" t="n">
+        <v>32.90666666666673</v>
+      </c>
+      <c r="H232" t="n">
         <v>33.11666666666664</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8635,22 +9943,25 @@
         <v>8262.7482</v>
       </c>
       <c r="G233" t="n">
+        <v>32.90666666666674</v>
+      </c>
+      <c r="H233" t="n">
         <v>33.10499999999998</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8674,22 +9985,27 @@
         <v>1500</v>
       </c>
       <c r="G234" t="n">
+        <v>32.92000000000007</v>
+      </c>
+      <c r="H234" t="n">
         <v>33.09666666666664</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="n">
+        <v>33</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8713,22 +10029,27 @@
         <v>3527.7249</v>
       </c>
       <c r="G235" t="n">
+        <v>32.93333333333341</v>
+      </c>
+      <c r="H235" t="n">
         <v>33.08666666666664</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="n">
+        <v>33</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8752,22 +10073,27 @@
         <v>32990.3166</v>
       </c>
       <c r="G236" t="n">
+        <v>32.96000000000007</v>
+      </c>
+      <c r="H236" t="n">
         <v>33.07999999999997</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8791,22 +10117,27 @@
         <v>14375.4238</v>
       </c>
       <c r="G237" t="n">
+        <v>32.9733333333334</v>
+      </c>
+      <c r="H237" t="n">
         <v>33.0733333333333</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8830,22 +10161,27 @@
         <v>10</v>
       </c>
       <c r="G238" t="n">
+        <v>33.02666666666674</v>
+      </c>
+      <c r="H238" t="n">
         <v>33.07666666666664</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8869,22 +10205,27 @@
         <v>148.8415</v>
       </c>
       <c r="G239" t="n">
+        <v>33.05333333333341</v>
+      </c>
+      <c r="H239" t="n">
         <v>33.0733333333333</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8908,22 +10249,25 @@
         <v>50</v>
       </c>
       <c r="G240" t="n">
+        <v>33.10000000000007</v>
+      </c>
+      <c r="H240" t="n">
         <v>33.0783333333333</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8947,22 +10291,25 @@
         <v>10</v>
       </c>
       <c r="G241" t="n">
+        <v>33.14000000000008</v>
+      </c>
+      <c r="H241" t="n">
         <v>33.08166666666664</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8986,22 +10333,25 @@
         <v>1852.7893</v>
       </c>
       <c r="G242" t="n">
+        <v>33.20000000000008</v>
+      </c>
+      <c r="H242" t="n">
         <v>33.08499999999997</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9025,22 +10375,25 @@
         <v>6800</v>
       </c>
       <c r="G243" t="n">
+        <v>33.25333333333342</v>
+      </c>
+      <c r="H243" t="n">
         <v>33.09166666666663</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9064,22 +10417,25 @@
         <v>945.5713</v>
       </c>
       <c r="G244" t="n">
+        <v>33.28000000000008</v>
+      </c>
+      <c r="H244" t="n">
         <v>33.09333333333331</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9103,22 +10459,25 @@
         <v>10</v>
       </c>
       <c r="G245" t="n">
+        <v>33.35333333333341</v>
+      </c>
+      <c r="H245" t="n">
         <v>33.10166666666664</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9142,22 +10501,25 @@
         <v>3200</v>
       </c>
       <c r="G246" t="n">
+        <v>33.38000000000008</v>
+      </c>
+      <c r="H246" t="n">
         <v>33.1033333333333</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9181,22 +10543,25 @@
         <v>10</v>
       </c>
       <c r="G247" t="n">
+        <v>33.40000000000008</v>
+      </c>
+      <c r="H247" t="n">
         <v>33.10833333333331</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9220,22 +10585,27 @@
         <v>10</v>
       </c>
       <c r="G248" t="n">
+        <v>33.44000000000008</v>
+      </c>
+      <c r="H248" t="n">
         <v>33.11499999999997</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
+        <v>1</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9259,22 +10629,27 @@
         <v>4000</v>
       </c>
       <c r="G249" t="n">
+        <v>33.45333333333341</v>
+      </c>
+      <c r="H249" t="n">
         <v>33.1133333333333</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
-        <v>0</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
+        <v>1</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9298,22 +10673,27 @@
         <v>40</v>
       </c>
       <c r="G250" t="n">
+        <v>33.48666666666675</v>
+      </c>
+      <c r="H250" t="n">
         <v>33.11666666666664</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
+        <v>1</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9337,22 +10717,27 @@
         <v>1023.244</v>
       </c>
       <c r="G251" t="n">
+        <v>33.52000000000008</v>
+      </c>
+      <c r="H251" t="n">
         <v>33.1233333333333</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
-        <v>0</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M251" t="n">
+        <v>1</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9376,22 +10761,25 @@
         <v>242696.6385</v>
       </c>
       <c r="G252" t="n">
+        <v>33.52000000000008</v>
+      </c>
+      <c r="H252" t="n">
         <v>33.12166666666663</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9415,22 +10803,25 @@
         <v>10</v>
       </c>
       <c r="G253" t="n">
+        <v>33.50000000000008</v>
+      </c>
+      <c r="H253" t="n">
         <v>33.12499999999996</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M253" t="n">
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9454,22 +10845,25 @@
         <v>228891.9515</v>
       </c>
       <c r="G254" t="n">
+        <v>33.48666666666674</v>
+      </c>
+      <c r="H254" t="n">
         <v>33.12166666666663</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M254" t="n">
+      <c r="L254" t="inlineStr"/>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9493,22 +10887,27 @@
         <v>4299.9617</v>
       </c>
       <c r="G255" t="n">
+        <v>33.46666666666675</v>
+      </c>
+      <c r="H255" t="n">
         <v>33.12999999999997</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
-        <v>1</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N255" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9530,18 +10929,25 @@
         <v>29856.2709</v>
       </c>
       <c r="G256" t="n">
+        <v>33.44000000000008</v>
+      </c>
+      <c r="H256" t="n">
         <v>33.13166666666663</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
-        <v>1</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9565,18 +10971,25 @@
         <v>1000</v>
       </c>
       <c r="G257" t="n">
+        <v>33.42000000000009</v>
+      </c>
+      <c r="H257" t="n">
         <v>33.13666666666663</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
       <c r="I257" t="n">
-        <v>1</v>
-      </c>
-      <c r="J257" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9600,18 +11013,25 @@
         <v>4500</v>
       </c>
       <c r="G258" t="n">
+        <v>33.39333333333342</v>
+      </c>
+      <c r="H258" t="n">
         <v>33.13999999999997</v>
       </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9635,18 +11055,25 @@
         <v>3600</v>
       </c>
       <c r="G259" t="n">
+        <v>33.39333333333342</v>
+      </c>
+      <c r="H259" t="n">
         <v>33.1433333333333</v>
       </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9670,18 +11097,25 @@
         <v>10412.0597</v>
       </c>
       <c r="G260" t="n">
+        <v>33.34666666666676</v>
+      </c>
+      <c r="H260" t="n">
         <v>33.1433333333333</v>
       </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9705,18 +11139,25 @@
         <v>10</v>
       </c>
       <c r="G261" t="n">
+        <v>33.35333333333342</v>
+      </c>
+      <c r="H261" t="n">
         <v>33.14999999999997</v>
       </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9740,18 +11181,25 @@
         <v>11.976</v>
       </c>
       <c r="G262" t="n">
+        <v>33.34666666666676</v>
+      </c>
+      <c r="H262" t="n">
         <v>33.15499999999997</v>
       </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9775,18 +11223,25 @@
         <v>3955.3298</v>
       </c>
       <c r="G263" t="n">
+        <v>33.33333333333342</v>
+      </c>
+      <c r="H263" t="n">
         <v>33.15833333333331</v>
       </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9810,18 +11265,25 @@
         <v>14029.6394</v>
       </c>
       <c r="G264" t="n">
+        <v>33.32666666666676</v>
+      </c>
+      <c r="H264" t="n">
         <v>33.15999999999998</v>
       </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9845,18 +11307,25 @@
         <v>1851.4144</v>
       </c>
       <c r="G265" t="n">
+        <v>33.32000000000009</v>
+      </c>
+      <c r="H265" t="n">
         <v>33.16333333333331</v>
       </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N265" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9880,18 +11349,25 @@
         <v>4000</v>
       </c>
       <c r="G266" t="n">
+        <v>33.30666666666676</v>
+      </c>
+      <c r="H266" t="n">
         <v>33.16999999999997</v>
       </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N266" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9915,18 +11391,27 @@
         <v>5010</v>
       </c>
       <c r="G267" t="n">
+        <v>33.32000000000009</v>
+      </c>
+      <c r="H267" t="n">
         <v>33.17333333333331</v>
       </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
       <c r="I267" t="n">
-        <v>0</v>
-      </c>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
+      <c r="K267" t="n">
+        <v>33.4</v>
+      </c>
       <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N267" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9950,18 +11435,25 @@
         <v>12810</v>
       </c>
       <c r="G268" t="n">
+        <v>33.31333333333342</v>
+      </c>
+      <c r="H268" t="n">
         <v>33.17833333333331</v>
       </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N268" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9985,18 +11477,25 @@
         <v>11853.4871</v>
       </c>
       <c r="G269" t="n">
+        <v>33.32666666666675</v>
+      </c>
+      <c r="H269" t="n">
         <v>33.17999999999997</v>
       </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N269" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10020,18 +11519,25 @@
         <v>40000.0933</v>
       </c>
       <c r="G270" t="n">
+        <v>33.32000000000008</v>
+      </c>
+      <c r="H270" t="n">
         <v>33.18499999999997</v>
       </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N270" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10055,18 +11561,25 @@
         <v>12200</v>
       </c>
       <c r="G271" t="n">
+        <v>33.31333333333342</v>
+      </c>
+      <c r="H271" t="n">
         <v>33.1883333333333</v>
       </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
+      <c r="M271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N271" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10090,18 +11603,25 @@
         <v>2155.6752</v>
       </c>
       <c r="G272" t="n">
+        <v>33.30000000000008</v>
+      </c>
+      <c r="H272" t="n">
         <v>33.19999999999997</v>
       </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N272" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10125,18 +11645,25 @@
         <v>2584.4526</v>
       </c>
       <c r="G273" t="n">
+        <v>33.30666666666675</v>
+      </c>
+      <c r="H273" t="n">
         <v>33.20833333333331</v>
       </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
       <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N273" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10160,18 +11687,27 @@
         <v>1322.0845</v>
       </c>
       <c r="G274" t="n">
+        <v>33.29333333333342</v>
+      </c>
+      <c r="H274" t="n">
         <v>33.21166666666664</v>
       </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
       <c r="I274" t="n">
-        <v>0</v>
-      </c>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" t="n">
+        <v>33.5</v>
+      </c>
       <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N274" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10195,18 +11731,27 @@
         <v>10</v>
       </c>
       <c r="G275" t="n">
+        <v>33.32000000000009</v>
+      </c>
+      <c r="H275" t="n">
         <v>33.22499999999997</v>
       </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
       <c r="I275" t="n">
-        <v>0</v>
-      </c>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
+      <c r="K275" t="n">
+        <v>33.2</v>
+      </c>
       <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
+      <c r="M275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N275" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10230,18 +11775,27 @@
         <v>2448.368</v>
       </c>
       <c r="G276" t="n">
+        <v>33.32666666666675</v>
+      </c>
+      <c r="H276" t="n">
         <v>33.23499999999997</v>
       </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
       <c r="I276" t="n">
-        <v>0</v>
-      </c>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
+      <c r="K276" t="n">
+        <v>33.5</v>
+      </c>
       <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
+      <c r="M276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N276" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10265,18 +11819,25 @@
         <v>5500</v>
       </c>
       <c r="G277" t="n">
+        <v>33.33333333333342</v>
+      </c>
+      <c r="H277" t="n">
         <v>33.24666666666664</v>
       </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
       <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
+      <c r="M277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N277" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10300,18 +11861,25 @@
         <v>4123.6357</v>
       </c>
       <c r="G278" t="n">
+        <v>33.32666666666675</v>
+      </c>
+      <c r="H278" t="n">
         <v>33.25166666666664</v>
       </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
       <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
+      <c r="M278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N278" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10335,18 +11903,25 @@
         <v>985.1155</v>
       </c>
       <c r="G279" t="n">
+        <v>33.35333333333342</v>
+      </c>
+      <c r="H279" t="n">
         <v>33.26333333333331</v>
       </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
       <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N279" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10370,18 +11945,25 @@
         <v>803.2913</v>
       </c>
       <c r="G280" t="n">
+        <v>33.36666666666675</v>
+      </c>
+      <c r="H280" t="n">
         <v>33.27666666666664</v>
       </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
       <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
+      <c r="M280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N280" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10405,18 +11987,25 @@
         <v>33399.7653</v>
       </c>
       <c r="G281" t="n">
+        <v>33.35333333333342</v>
+      </c>
+      <c r="H281" t="n">
         <v>33.28499999999998</v>
       </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
       <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
+      <c r="M281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N281" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10440,18 +12029,25 @@
         <v>10</v>
       </c>
       <c r="G282" t="n">
+        <v>33.36666666666675</v>
+      </c>
+      <c r="H282" t="n">
         <v>33.29499999999997</v>
       </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
       <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
+      <c r="M282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N282" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10475,18 +12071,445 @@
         <v>921.7138</v>
       </c>
       <c r="G283" t="n">
+        <v>33.36000000000008</v>
+      </c>
+      <c r="H283" t="n">
         <v>33.29999999999997</v>
       </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
       <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
+      <c r="M283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N283" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="C284" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="D284" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="E284" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="F284" t="n">
+        <v>10</v>
+      </c>
+      <c r="G284" t="n">
+        <v>33.37333333333341</v>
+      </c>
+      <c r="H284" t="n">
+        <v>33.30999999999997</v>
+      </c>
+      <c r="I284" t="n">
+        <v>0</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="inlineStr"/>
+      <c r="M284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N284" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="C285" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="D285" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="E285" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="F285" t="n">
+        <v>1113.2409</v>
+      </c>
+      <c r="G285" t="n">
+        <v>33.36666666666675</v>
+      </c>
+      <c r="H285" t="n">
+        <v>33.3133333333333</v>
+      </c>
+      <c r="I285" t="n">
+        <v>0</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="inlineStr"/>
+      <c r="M285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N285" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="C286" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="D286" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="E286" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="F286" t="n">
+        <v>1776</v>
+      </c>
+      <c r="G286" t="n">
+        <v>33.38000000000008</v>
+      </c>
+      <c r="H286" t="n">
+        <v>33.31833333333331</v>
+      </c>
+      <c r="I286" t="n">
+        <v>0</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="inlineStr"/>
+      <c r="M286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N286" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="C287" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="D287" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="E287" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="F287" t="n">
+        <v>1397.3809</v>
+      </c>
+      <c r="G287" t="n">
+        <v>33.38666666666675</v>
+      </c>
+      <c r="H287" t="n">
+        <v>33.32666666666664</v>
+      </c>
+      <c r="I287" t="n">
+        <v>0</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="inlineStr"/>
+      <c r="M287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N287" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="C288" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="D288" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="E288" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="F288" t="n">
+        <v>1906.5136</v>
+      </c>
+      <c r="G288" t="n">
+        <v>33.36666666666675</v>
+      </c>
+      <c r="H288" t="n">
+        <v>33.32999999999997</v>
+      </c>
+      <c r="I288" t="n">
+        <v>0</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0</v>
+      </c>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="inlineStr"/>
+      <c r="M288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N288" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="C289" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="D289" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="E289" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="F289" t="n">
+        <v>1412.7785</v>
+      </c>
+      <c r="G289" t="n">
+        <v>33.36666666666675</v>
+      </c>
+      <c r="H289" t="n">
+        <v>33.33333333333331</v>
+      </c>
+      <c r="I289" t="n">
+        <v>0</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0</v>
+      </c>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="inlineStr"/>
+      <c r="M289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N289" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="C290" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="D290" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="E290" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="F290" t="n">
+        <v>30210.0193</v>
+      </c>
+      <c r="G290" t="n">
+        <v>33.34666666666676</v>
+      </c>
+      <c r="H290" t="n">
+        <v>33.34166666666664</v>
+      </c>
+      <c r="I290" t="n">
+        <v>0</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0</v>
+      </c>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="inlineStr"/>
+      <c r="M290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N290" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="C291" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="D291" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="E291" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="F291" t="n">
+        <v>18201.2903</v>
+      </c>
+      <c r="G291" t="n">
+        <v>33.32666666666675</v>
+      </c>
+      <c r="H291" t="n">
+        <v>33.34666666666664</v>
+      </c>
+      <c r="I291" t="n">
+        <v>0</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0</v>
+      </c>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="inlineStr"/>
+      <c r="M291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N291" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="C292" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="D292" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="E292" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="F292" t="n">
+        <v>25800</v>
+      </c>
+      <c r="G292" t="n">
+        <v>33.30000000000009</v>
+      </c>
+      <c r="H292" t="n">
+        <v>33.34499999999997</v>
+      </c>
+      <c r="I292" t="n">
+        <v>0</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0</v>
+      </c>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="inlineStr"/>
+      <c r="M292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N292" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="C293" t="n">
+        <v>33</v>
+      </c>
+      <c r="D293" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="E293" t="n">
+        <v>33</v>
+      </c>
+      <c r="F293" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G293" t="n">
+        <v>33.28000000000009</v>
+      </c>
+      <c r="H293" t="n">
+        <v>33.34499999999997</v>
+      </c>
+      <c r="I293" t="n">
+        <v>0</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0</v>
+      </c>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="inlineStr"/>
+      <c r="M293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N293" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-19 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-19 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N351"/>
+  <dimension ref="A1:M351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>529781.1087999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>529781.1087999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>529781.1087999999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>529781.1087999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>512112.9685</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>512127.7854999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>511627.7854999999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>510627.7854999999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>512280.9155999999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>512543.9155999999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>513476.9046</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>516129.7985</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>514671.5554</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>498671.5554</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>499516.5983</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>497646.9945</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>499418.7794</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1474,15 @@
         <v>499418.7794</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1639,15 @@
         <v>640690.8478</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1788,18 +1672,15 @@
         <v>640690.8478</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5634,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5667,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5700,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5733,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5766,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5799,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5832,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5865,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +5898,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +5931,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +5964,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +5997,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6030,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6063,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6096,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6129,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6162,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6195,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6228,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6261,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6294,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6327,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6360,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6393,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6426,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6459,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6492,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6525,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +6558,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +6591,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7190,16 +6624,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7226,16 +6657,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7262,16 +6690,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7298,16 +6723,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7334,16 +6756,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7370,16 +6789,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7406,16 +6822,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7442,16 +6855,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7478,16 +6888,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7514,16 +6921,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7550,16 +6954,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7586,16 +6987,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7622,16 +7020,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7658,16 +7053,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7694,16 +7086,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7730,16 +7119,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7766,16 +7152,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7802,16 +7185,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7838,16 +7218,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7874,16 +7251,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7910,16 +7284,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7946,16 +7317,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7982,16 +7350,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8018,16 +7383,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8054,16 +7416,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8090,16 +7449,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8126,16 +7482,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8162,16 +7515,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8198,16 +7548,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8234,16 +7581,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8270,16 +7614,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8306,16 +7647,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8342,16 +7680,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8378,16 +7713,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8414,16 +7746,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8450,16 +7779,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8486,16 +7812,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8522,16 +7845,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8558,16 +7878,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8594,16 +7911,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8630,16 +7944,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8666,16 +7977,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8702,16 +8010,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8738,16 +8043,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8774,16 +8076,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8810,16 +8109,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8846,16 +8142,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8882,16 +8175,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8918,16 +8208,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8954,16 +8241,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8990,16 +8274,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9026,16 +8307,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9062,16 +8340,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9098,16 +8373,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9134,16 +8406,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9170,16 +8439,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9206,16 +8472,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9242,16 +8505,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9278,16 +8538,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9314,16 +8571,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9350,16 +8604,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9386,16 +8637,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9422,16 +8670,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9458,16 +8703,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9494,16 +8736,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9530,16 +8769,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9566,16 +8802,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9602,16 +8835,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9638,16 +8868,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9674,16 +8901,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9710,16 +8934,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9746,16 +8967,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9782,16 +9000,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9818,16 +9033,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9852,18 +9064,19 @@
         <v>-80337.24435706508</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="n">
-        <v>0</v>
-      </c>
-      <c r="J263" t="inlineStr"/>
+        <v>33</v>
+      </c>
+      <c r="J263" t="n">
+        <v>33</v>
+      </c>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9888,18 +9101,23 @@
         <v>-80999.08675706507</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="n">
-        <v>0</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+        <v>33.1</v>
+      </c>
+      <c r="J264" t="n">
+        <v>33</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9924,18 +9142,23 @@
         <v>-20404.75555706507</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="n">
-        <v>0</v>
-      </c>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+        <v>33</v>
+      </c>
+      <c r="J265" t="n">
+        <v>33</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9960,18 +9183,23 @@
         <v>-94004.75555706507</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="n">
-        <v>0</v>
-      </c>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+        <v>33.1</v>
+      </c>
+      <c r="J266" t="n">
+        <v>33</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9996,18 +9224,23 @@
         <v>-93994.75555706507</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="n">
-        <v>0</v>
-      </c>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+        <v>33</v>
+      </c>
+      <c r="J267" t="n">
+        <v>33</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10032,18 +9265,23 @@
         <v>-94961.89125706507</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="n">
-        <v>0</v>
-      </c>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+        <v>33.2</v>
+      </c>
+      <c r="J268" t="n">
+        <v>33</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10068,18 +9306,23 @@
         <v>-94961.89125706507</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="n">
-        <v>0</v>
-      </c>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+        <v>33</v>
+      </c>
+      <c r="J269" t="n">
+        <v>33</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10106,16 +9349,19 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>33</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10142,16 +9388,19 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>33</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10178,16 +9427,19 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>33</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10214,16 +9466,19 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>33</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10250,16 +9505,19 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>33</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10286,16 +9544,19 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>33</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10322,16 +9583,19 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>33</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10358,16 +9622,19 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>33</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10394,16 +9661,19 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>33</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10430,16 +9700,19 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>33</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10464,24 +9737,21 @@
         <v>-353644.588757065</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr">
+        <v>33</v>
+      </c>
+      <c r="K280" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10506,24 +9776,23 @@
         <v>-353644.588757065</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I281" t="n">
-        <v>0</v>
+        <v>32.9</v>
       </c>
       <c r="J281" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr">
+        <v>33</v>
+      </c>
+      <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10548,24 +9817,21 @@
         <v>-353644.588757065</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr">
+        <v>33</v>
+      </c>
+      <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10590,24 +9856,23 @@
         <v>-353634.588757065</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I283" t="n">
-        <v>0</v>
+        <v>32.9</v>
       </c>
       <c r="J283" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr">
+        <v>33</v>
+      </c>
+      <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10632,24 +9897,21 @@
         <v>-352134.588757065</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
         <v>33</v>
       </c>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr">
+      <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10674,24 +9936,21 @@
         <v>-352144.588757065</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr">
+        <v>33</v>
+      </c>
+      <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10716,24 +9975,21 @@
         <v>-341344.588757065</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr">
+        <v>33</v>
+      </c>
+      <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10758,24 +10014,21 @@
         <v>-341344.588757065</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
         <v>33</v>
       </c>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr">
+      <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10800,24 +10053,21 @@
         <v>-345247.095757065</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
         <v>33</v>
       </c>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr">
+      <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10842,24 +10092,21 @@
         <v>-331121.970057065</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr">
+        <v>33</v>
+      </c>
+      <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10884,24 +10131,23 @@
         <v>-328743.588957065</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I290" t="n">
-        <v>0</v>
+        <v>32.9</v>
       </c>
       <c r="J290" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr">
+        <v>33</v>
+      </c>
+      <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10926,24 +10172,21 @@
         <v>-337006.337157065</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr">
+        <v>33</v>
+      </c>
+      <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10968,24 +10211,21 @@
         <v>-337006.337157065</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
         <v>33</v>
       </c>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr">
+      <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11010,24 +10250,21 @@
         <v>-340534.062057065</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
         <v>33</v>
       </c>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr">
+      <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11052,24 +10289,21 @@
         <v>-307543.7454570649</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr">
+        <v>33</v>
+      </c>
+      <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11096,20 +10330,19 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr">
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>33</v>
+      </c>
+      <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11136,20 +10369,19 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr">
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>33</v>
+      </c>
+      <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11176,20 +10408,19 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr">
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>33</v>
+      </c>
+      <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11216,20 +10447,19 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr">
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>33</v>
+      </c>
+      <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11256,20 +10486,19 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr">
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>33</v>
+      </c>
+      <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11296,20 +10525,19 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr">
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>33</v>
+      </c>
+      <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11336,20 +10564,19 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr">
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>33</v>
+      </c>
+      <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11376,20 +10603,19 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr">
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>33</v>
+      </c>
+      <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11416,20 +10642,19 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr">
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>33</v>
+      </c>
+      <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11456,20 +10681,19 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr">
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>33</v>
+      </c>
+      <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11496,20 +10720,19 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr">
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>33</v>
+      </c>
+      <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11536,20 +10759,19 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr">
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>33</v>
+      </c>
+      <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11576,20 +10798,19 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr">
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>33</v>
+      </c>
+      <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11614,24 +10835,21 @@
         <v>-308908.1582570649</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr">
+        <v>33</v>
+      </c>
+      <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11656,24 +10874,21 @@
         <v>-307884.9142570649</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr">
+        <v>33</v>
+      </c>
+      <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11698,24 +10913,21 @@
         <v>-550581.5527570649</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr">
+        <v>33</v>
+      </c>
+      <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11742,20 +10954,19 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr">
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>33</v>
+      </c>
+      <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11782,20 +10993,19 @@
       <c r="H312" t="n">
         <v>0</v>
       </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr">
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>33</v>
+      </c>
+      <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11822,20 +11032,19 @@
       <c r="H313" t="n">
         <v>0</v>
       </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr">
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>33</v>
+      </c>
+      <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -11862,20 +11071,19 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr">
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>33</v>
+      </c>
+      <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -11902,20 +11110,19 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr">
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>33</v>
+      </c>
+      <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -11942,20 +11149,19 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr">
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>33</v>
+      </c>
+      <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -11982,20 +11188,19 @@
       <c r="H317" t="n">
         <v>0</v>
       </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr">
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>33</v>
+      </c>
+      <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12020,22 +11225,23 @@
         <v>-814431.8731570649</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="n">
-        <v>0</v>
-      </c>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr">
+        <v>33.4</v>
+      </c>
+      <c r="J318" t="n">
+        <v>33</v>
+      </c>
+      <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12062,20 +11268,19 @@
       <c r="H319" t="n">
         <v>0</v>
       </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr">
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>33</v>
+      </c>
+      <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12102,20 +11307,19 @@
       <c r="H320" t="n">
         <v>0</v>
       </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr">
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>33</v>
+      </c>
+      <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12142,20 +11346,19 @@
       <c r="H321" t="n">
         <v>0</v>
       </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr">
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>33</v>
+      </c>
+      <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12182,20 +11385,19 @@
       <c r="H322" t="n">
         <v>0</v>
       </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr">
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>33</v>
+      </c>
+      <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12222,20 +11424,19 @@
       <c r="H323" t="n">
         <v>0</v>
       </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr">
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>33</v>
+      </c>
+      <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12260,24 +11461,21 @@
         <v>-822600.0981570649</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr">
+        <v>33</v>
+      </c>
+      <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12302,24 +11500,23 @@
         <v>-827610.0981570649</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I325" t="n">
-        <v>0</v>
+        <v>33.4</v>
       </c>
       <c r="J325" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr">
+        <v>33</v>
+      </c>
+      <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12344,24 +11541,23 @@
         <v>-827610.0981570649</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I326" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="J326" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr">
+        <v>33</v>
+      </c>
+      <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -12386,24 +11582,23 @@
         <v>-827610.0981570649</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I327" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="J327" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr">
+        <v>33</v>
+      </c>
+      <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -12428,24 +11623,21 @@
         <v>-827610.0981570649</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr">
+        <v>33</v>
+      </c>
+      <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -12470,24 +11662,23 @@
         <v>-839810.0981570649</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I329" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="J329" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr">
+        <v>33</v>
+      </c>
+      <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -12512,24 +11703,23 @@
         <v>-839810.0981570649</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I330" t="n">
-        <v>0</v>
+        <v>33.2</v>
       </c>
       <c r="J330" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr">
+        <v>33</v>
+      </c>
+      <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-      <c r="N330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -12554,24 +11744,23 @@
         <v>-837225.6455570649</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I331" t="n">
-        <v>0</v>
+        <v>33.2</v>
       </c>
       <c r="J331" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr">
+        <v>33</v>
+      </c>
+      <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-      <c r="N331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -12596,24 +11785,21 @@
         <v>-838547.7300570649</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr">
+        <v>33</v>
+      </c>
+      <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
-      <c r="N332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -12638,24 +11824,21 @@
         <v>-838537.7300570649</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I333" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr">
+        <v>33</v>
+      </c>
+      <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M333" t="n">
-        <v>1</v>
-      </c>
-      <c r="N333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -12680,24 +11863,21 @@
         <v>-838537.7300570649</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I334" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr">
+        <v>33</v>
+      </c>
+      <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M334" t="n">
-        <v>1</v>
-      </c>
-      <c r="N334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -12722,24 +11902,21 @@
         <v>-838537.7300570649</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr">
+        <v>33</v>
+      </c>
+      <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M335" t="n">
-        <v>1</v>
-      </c>
-      <c r="N335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -12766,20 +11943,19 @@
       <c r="H336" t="n">
         <v>0</v>
       </c>
-      <c r="I336" t="n">
-        <v>0</v>
-      </c>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr">
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>33</v>
+      </c>
+      <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M336" t="n">
-        <v>1</v>
-      </c>
-      <c r="N336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -12806,20 +11982,19 @@
       <c r="H337" t="n">
         <v>0</v>
       </c>
-      <c r="I337" t="n">
-        <v>0</v>
-      </c>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr">
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>33</v>
+      </c>
+      <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M337" t="n">
-        <v>1</v>
-      </c>
-      <c r="N337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -12846,20 +12021,19 @@
       <c r="H338" t="n">
         <v>0</v>
       </c>
-      <c r="I338" t="n">
-        <v>0</v>
-      </c>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr">
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>33</v>
+      </c>
+      <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M338" t="n">
-        <v>1</v>
-      </c>
-      <c r="N338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -12886,20 +12060,19 @@
       <c r="H339" t="n">
         <v>0</v>
       </c>
-      <c r="I339" t="n">
-        <v>0</v>
-      </c>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr">
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>33</v>
+      </c>
+      <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M339" t="n">
-        <v>1</v>
-      </c>
-      <c r="N339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -12926,20 +12099,19 @@
       <c r="H340" t="n">
         <v>0</v>
       </c>
-      <c r="I340" t="n">
-        <v>0</v>
-      </c>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr">
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>33</v>
+      </c>
+      <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M340" t="n">
-        <v>1</v>
-      </c>
-      <c r="N340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -12966,20 +12138,19 @@
       <c r="H341" t="n">
         <v>0</v>
       </c>
-      <c r="I341" t="n">
-        <v>0</v>
-      </c>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr">
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>33</v>
+      </c>
+      <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M341" t="n">
-        <v>1</v>
-      </c>
-      <c r="N341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -13006,20 +12177,19 @@
       <c r="H342" t="n">
         <v>0</v>
       </c>
-      <c r="I342" t="n">
-        <v>0</v>
-      </c>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr">
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>33</v>
+      </c>
+      <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M342" t="n">
-        <v>1</v>
-      </c>
-      <c r="N342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -13046,20 +12216,19 @@
       <c r="H343" t="n">
         <v>0</v>
       </c>
-      <c r="I343" t="n">
-        <v>0</v>
-      </c>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr">
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>33</v>
+      </c>
+      <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M343" t="n">
-        <v>1</v>
-      </c>
-      <c r="N343" t="inlineStr"/>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -13086,20 +12255,19 @@
       <c r="H344" t="n">
         <v>0</v>
       </c>
-      <c r="I344" t="n">
-        <v>0</v>
-      </c>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr">
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>33</v>
+      </c>
+      <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M344" t="n">
-        <v>1</v>
-      </c>
-      <c r="N344" t="inlineStr"/>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -13126,20 +12294,19 @@
       <c r="H345" t="n">
         <v>0</v>
       </c>
-      <c r="I345" t="n">
-        <v>0</v>
-      </c>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr">
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>33</v>
+      </c>
+      <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M345" t="n">
-        <v>1</v>
-      </c>
-      <c r="N345" t="inlineStr"/>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -13166,20 +12333,19 @@
       <c r="H346" t="n">
         <v>0</v>
       </c>
-      <c r="I346" t="n">
-        <v>0</v>
-      </c>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr">
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>33</v>
+      </c>
+      <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M346" t="n">
-        <v>1</v>
-      </c>
-      <c r="N346" t="inlineStr"/>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -13206,20 +12372,19 @@
       <c r="H347" t="n">
         <v>0</v>
       </c>
-      <c r="I347" t="n">
-        <v>0</v>
-      </c>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr">
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>33</v>
+      </c>
+      <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M347" t="n">
-        <v>1</v>
-      </c>
-      <c r="N347" t="inlineStr"/>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -13244,24 +12409,21 @@
         <v>-878618.8647570648</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
-      </c>
-      <c r="I348" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr">
+        <v>33</v>
+      </c>
+      <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M348" t="n">
-        <v>1</v>
-      </c>
-      <c r="N348" t="inlineStr"/>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -13286,24 +12448,21 @@
         <v>-878618.8647570648</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
-      </c>
-      <c r="I349" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr">
+        <v>33</v>
+      </c>
+      <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M349" t="n">
-        <v>1</v>
-      </c>
-      <c r="N349" t="inlineStr"/>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -13328,24 +12487,21 @@
         <v>-904418.8647570648</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
-      </c>
-      <c r="I350" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr">
+        <v>33</v>
+      </c>
+      <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M350" t="n">
-        <v>1</v>
-      </c>
-      <c r="N350" t="inlineStr"/>
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
+      <c r="M350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -13370,26 +12526,23 @@
         <v>-917418.8647570648</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
-      </c>
-      <c r="I351" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr">
+        <v>33</v>
+      </c>
+      <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M351" t="n">
-        <v>1</v>
-      </c>
-      <c r="N351" t="inlineStr"/>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
+      <c r="M351" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-19 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>511903.0802</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>520595.2949</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>526249.703</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>524749.703</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>534281.1087999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>534781.1087999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>534281.1087999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>529781.1087999999</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>529781.1087999999</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>529781.1087999999</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>529781.1087999999</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>512112.9685</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>512127.7854999999</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>511627.7854999999</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>510627.7854999999</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>512280.9155999999</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>512543.9155999999</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>513476.9046</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>516129.7985</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>514671.5554</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>498671.5554</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>499516.5983</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>497646.9945</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>477646.9945</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>481646.9945</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>500446.9945</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>499418.7794</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>499418.7794</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>499418.7794</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>501918.7794</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>470173.0642</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>640690.8478</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>640690.8478</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>640690.8478</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>640690.8478</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>640190.8478</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>640190.8478</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>640201.7089</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>592375.227</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>405336.3865</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>394134.0543</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>394134.0543</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>335133.1489</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>336501.3446</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>351038.3446</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>351038.3446</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>351038.3446</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>351038.3446</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>343284.2692999999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>343301.0862999999</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>343301.0862999999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>342801.0862999999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>228775.4000999999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>189635.4852999999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -9064,14 +9064,10 @@
         <v>-80337.24435706508</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
-      </c>
-      <c r="I263" t="n">
-        <v>33</v>
-      </c>
-      <c r="J263" t="n">
-        <v>33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
@@ -9101,614 +9097,518 @@
         <v>-80999.08675706507</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
-      </c>
-      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
         <v>33.1</v>
       </c>
-      <c r="J264" t="n">
+      <c r="C265" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="D265" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="E265" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="F265" t="n">
+        <v>60594.3312</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-20404.75555706507</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="C266" t="n">
         <v>33</v>
       </c>
-      <c r="K264" t="inlineStr">
+      <c r="D266" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="E266" t="n">
+        <v>33</v>
+      </c>
+      <c r="F266" t="n">
+        <v>73600</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-94004.75555706507</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="C267" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="D267" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="E267" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="F267" t="n">
+        <v>10</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-93994.75555706507</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>33</v>
+      </c>
+      <c r="C268" t="n">
+        <v>33</v>
+      </c>
+      <c r="D268" t="n">
+        <v>33</v>
+      </c>
+      <c r="E268" t="n">
+        <v>33</v>
+      </c>
+      <c r="F268" t="n">
+        <v>967.1357</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-94961.89125706507</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>33</v>
+      </c>
+      <c r="C269" t="n">
+        <v>33</v>
+      </c>
+      <c r="D269" t="n">
+        <v>33</v>
+      </c>
+      <c r="E269" t="n">
+        <v>33</v>
+      </c>
+      <c r="F269" t="n">
+        <v>933.4699000000001</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-94961.89125706507</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="C270" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="D270" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="E270" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="F270" t="n">
+        <v>264256.6651</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-359218.556357065</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="C271" t="n">
+        <v>33</v>
+      </c>
+      <c r="D271" t="n">
+        <v>33</v>
+      </c>
+      <c r="E271" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="F271" t="n">
+        <v>4510</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-354708.556357065</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="C272" t="n">
+        <v>33</v>
+      </c>
+      <c r="D272" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="E272" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="F272" t="n">
+        <v>7878.7138</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-354708.556357065</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="C273" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="D273" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="E273" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F273" t="n">
+        <v>981.1629</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-355689.719257065</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="C274" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="D274" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="E274" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="F274" t="n">
+        <v>1502.3064</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-354187.412857065</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="C275" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="D275" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="E275" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="F275" t="n">
+        <v>286.1553</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-354473.568157065</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>33</v>
+      </c>
+      <c r="C276" t="n">
+        <v>33</v>
+      </c>
+      <c r="D276" t="n">
+        <v>33</v>
+      </c>
+      <c r="E276" t="n">
+        <v>33</v>
+      </c>
+      <c r="F276" t="n">
+        <v>20.18</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-354453.388157065</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>33</v>
+      </c>
+      <c r="C277" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="D277" t="n">
+        <v>33</v>
+      </c>
+      <c r="E277" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="F277" t="n">
+        <v>20</v>
+      </c>
+      <c r="G277" t="n">
+        <v>-354473.388157065</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="C278" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="D278" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="E278" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F278" t="n">
+        <v>10</v>
+      </c>
+      <c r="G278" t="n">
+        <v>-354483.388157065</v>
+      </c>
+      <c r="H278" t="n">
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="J278" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="C279" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="D279" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="E279" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F279" t="n">
+        <v>20</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-354483.388157065</v>
+      </c>
+      <c r="H279" t="n">
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="J279" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="K279" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="C265" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="D265" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="E265" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="F265" t="n">
-        <v>60594.3312</v>
-      </c>
-      <c r="G265" t="n">
-        <v>-20404.75555706507</v>
-      </c>
-      <c r="H265" t="n">
-        <v>2</v>
-      </c>
-      <c r="I265" t="n">
-        <v>33</v>
-      </c>
-      <c r="J265" t="n">
-        <v>33</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="C266" t="n">
-        <v>33</v>
-      </c>
-      <c r="D266" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="E266" t="n">
-        <v>33</v>
-      </c>
-      <c r="F266" t="n">
-        <v>73600</v>
-      </c>
-      <c r="G266" t="n">
-        <v>-94004.75555706507</v>
-      </c>
-      <c r="H266" t="n">
-        <v>2</v>
-      </c>
-      <c r="I266" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="J266" t="n">
-        <v>33</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="C267" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="D267" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="E267" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="F267" t="n">
-        <v>10</v>
-      </c>
-      <c r="G267" t="n">
-        <v>-93994.75555706507</v>
-      </c>
-      <c r="H267" t="n">
-        <v>2</v>
-      </c>
-      <c r="I267" t="n">
-        <v>33</v>
-      </c>
-      <c r="J267" t="n">
-        <v>33</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>33</v>
-      </c>
-      <c r="C268" t="n">
-        <v>33</v>
-      </c>
-      <c r="D268" t="n">
-        <v>33</v>
-      </c>
-      <c r="E268" t="n">
-        <v>33</v>
-      </c>
-      <c r="F268" t="n">
-        <v>967.1357</v>
-      </c>
-      <c r="G268" t="n">
-        <v>-94961.89125706507</v>
-      </c>
-      <c r="H268" t="n">
-        <v>2</v>
-      </c>
-      <c r="I268" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="J268" t="n">
-        <v>33</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>33</v>
-      </c>
-      <c r="C269" t="n">
-        <v>33</v>
-      </c>
-      <c r="D269" t="n">
-        <v>33</v>
-      </c>
-      <c r="E269" t="n">
-        <v>33</v>
-      </c>
-      <c r="F269" t="n">
-        <v>933.4699000000001</v>
-      </c>
-      <c r="G269" t="n">
-        <v>-94961.89125706507</v>
-      </c>
-      <c r="H269" t="n">
-        <v>2</v>
-      </c>
-      <c r="I269" t="n">
-        <v>33</v>
-      </c>
-      <c r="J269" t="n">
-        <v>33</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="C270" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="D270" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="E270" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="F270" t="n">
-        <v>264256.6651</v>
-      </c>
-      <c r="G270" t="n">
-        <v>-359218.556357065</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>33</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="C271" t="n">
-        <v>33</v>
-      </c>
-      <c r="D271" t="n">
-        <v>33</v>
-      </c>
-      <c r="E271" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="F271" t="n">
-        <v>4510</v>
-      </c>
-      <c r="G271" t="n">
-        <v>-354708.556357065</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>33</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="C272" t="n">
-        <v>33</v>
-      </c>
-      <c r="D272" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="E272" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="F272" t="n">
-        <v>7878.7138</v>
-      </c>
-      <c r="G272" t="n">
-        <v>-354708.556357065</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>33</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="C273" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="D273" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="E273" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="F273" t="n">
-        <v>981.1629</v>
-      </c>
-      <c r="G273" t="n">
-        <v>-355689.719257065</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>33</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="C274" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="D274" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="E274" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="F274" t="n">
-        <v>1502.3064</v>
-      </c>
-      <c r="G274" t="n">
-        <v>-354187.412857065</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>33</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="C275" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="D275" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="E275" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="F275" t="n">
-        <v>286.1553</v>
-      </c>
-      <c r="G275" t="n">
-        <v>-354473.568157065</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>33</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>33</v>
-      </c>
-      <c r="C276" t="n">
-        <v>33</v>
-      </c>
-      <c r="D276" t="n">
-        <v>33</v>
-      </c>
-      <c r="E276" t="n">
-        <v>33</v>
-      </c>
-      <c r="F276" t="n">
-        <v>20.18</v>
-      </c>
-      <c r="G276" t="n">
-        <v>-354453.388157065</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>33</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>33</v>
-      </c>
-      <c r="C277" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="D277" t="n">
-        <v>33</v>
-      </c>
-      <c r="E277" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="F277" t="n">
-        <v>20</v>
-      </c>
-      <c r="G277" t="n">
-        <v>-354473.388157065</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>33</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="C278" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="D278" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="E278" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="F278" t="n">
-        <v>10</v>
-      </c>
-      <c r="G278" t="n">
-        <v>-354483.388157065</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>33</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="C279" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="D279" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="E279" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="F279" t="n">
-        <v>20</v>
-      </c>
-      <c r="G279" t="n">
-        <v>-354483.388157065</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>33</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9737,11 +9637,13 @@
         <v>-353644.588757065</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>32.7</v>
+      </c>
       <c r="J280" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -9776,13 +9678,13 @@
         <v>-353644.588757065</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281" t="n">
         <v>32.9</v>
       </c>
       <c r="J281" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -9821,7 +9723,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -9856,13 +9758,11 @@
         <v>-353634.588757065</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
-      </c>
-      <c r="I283" t="n">
-        <v>32.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -9901,7 +9801,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -9940,7 +9840,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -9979,7 +9879,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10018,7 +9918,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10057,7 +9957,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10096,7 +9996,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10131,13 +10031,11 @@
         <v>-328743.588957065</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
-      </c>
-      <c r="I290" t="n">
-        <v>32.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10176,7 +10074,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10215,7 +10113,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10254,7 +10152,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10293,7 +10191,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10332,7 +10230,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10371,7 +10269,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10410,7 +10308,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10449,7 +10347,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10488,7 +10386,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -10527,7 +10425,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -10566,7 +10464,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -10605,7 +10503,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -10644,7 +10542,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -10683,7 +10581,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -10722,7 +10620,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -10761,7 +10659,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -10800,7 +10698,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -10839,7 +10737,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -10878,7 +10776,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -10917,7 +10815,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -10956,7 +10854,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -10995,7 +10893,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -11034,7 +10932,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -11073,7 +10971,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -11112,7 +11010,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -11151,7 +11049,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11190,7 +11088,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11225,13 +11123,11 @@
         <v>-814431.8731570649</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
-      </c>
-      <c r="I318" t="n">
-        <v>33.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11270,7 +11166,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11309,7 +11205,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11348,7 +11244,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11387,7 +11283,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11426,7 +11322,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -11465,7 +11361,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -11500,13 +11396,11 @@
         <v>-827610.0981570649</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
-      </c>
-      <c r="I325" t="n">
-        <v>33.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -11541,13 +11435,11 @@
         <v>-827610.0981570649</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
-      </c>
-      <c r="I326" t="n">
-        <v>33.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -11582,13 +11474,11 @@
         <v>-827610.0981570649</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
-      </c>
-      <c r="I327" t="n">
-        <v>33.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -11627,7 +11517,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -11662,13 +11552,11 @@
         <v>-839810.0981570649</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
-      </c>
-      <c r="I329" t="n">
-        <v>33.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -11703,13 +11591,11 @@
         <v>-839810.0981570649</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
-      </c>
-      <c r="I330" t="n">
-        <v>33.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -11744,13 +11630,11 @@
         <v>-837225.6455570649</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
-      </c>
-      <c r="I331" t="n">
-        <v>33.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -11789,7 +11673,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -11828,7 +11712,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -11867,7 +11751,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -11906,7 +11790,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -11945,7 +11829,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -11984,7 +11868,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -12023,7 +11907,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -12062,7 +11946,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -12101,7 +11985,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -12140,7 +12024,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -12179,7 +12063,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -12218,7 +12102,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -12257,7 +12141,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -12296,7 +12180,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -12335,7 +12219,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -12374,7 +12258,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -12413,7 +12297,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -12452,7 +12336,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -12491,7 +12375,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -12530,7 +12414,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -12543,6 +12427,6 @@
       <c r="M351" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-19 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>511903.0802</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>520595.2949</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>526249.703</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>524749.703</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>534281.1087999999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>512112.9685</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>512127.7854999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>511627.7854999999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>499516.5983</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>497646.9945</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>477646.9945</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>481646.9945</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>500446.9945</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>499418.7794</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>499418.7794</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>499418.7794</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>501918.7794</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>470173.0642</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>640690.8478</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>640690.8478</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>640690.8478</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>640690.8478</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>640190.8478</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>640190.8478</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>640201.7089</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>592375.227</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>592768.6614</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>522837.9613</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>405336.3865</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>405336.3865</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>394134.0543</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>394134.0543</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>335133.1489</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>336501.3446</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>351038.3446</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>351038.3446</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>351038.3446</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>342801.0862999999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>325500.3323999999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>312300.3323999999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>228775.4000999999</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>189635.4852999999</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>172228.1731435529</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>168728.1731435529</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>187628.1731435529</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>187606.1731435529</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>186797.9751435529</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>186797.9751435529</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>186797.9751435529</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>186797.9751435529</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>173697.9750435529</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>173708.9750435529</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>174708.9750435529</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>174708.9750435529</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>174708.9750435529</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>174697.9750435529</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>174697.9750435529</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>172485.1886435529</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>172496.1886435529</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>172496.1886435529</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>47994.97814355291</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>47494.97814355291</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>43811.28934355291</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>43811.28934355291</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>28894.55544355291</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-14571.01205644709</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-178463.6698564471</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -6490,11 +6490,17 @@
         <v>-316978.2452469233</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>33.3</v>
+      </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6527,7 +6533,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6556,11 +6566,15 @@
         <v>-317068.2452469233</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6593,7 +6607,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6626,7 +6644,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6655,11 +6677,15 @@
         <v>-324464.2934469233</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6692,7 +6718,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6725,7 +6755,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6754,11 +6788,15 @@
         <v>-338818.4204374278</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6787,11 +6825,15 @@
         <v>-330557.4204374278</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6820,11 +6862,15 @@
         <v>-324480.4204374278</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6853,14 +6899,16 @@
         <v>-331548.6262374278</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
@@ -6886,7 +6934,7 @@
         <v>-344558.6262374278</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6967,7 @@
         <v>-348176.0533374277</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +7000,7 @@
         <v>-340009.4511374277</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +7033,7 @@
         <v>-340019.4511374277</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7066,7 @@
         <v>-327882.4365374277</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7084,7 +7132,7 @@
         <v>-316014.9435374277</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7150,7 +7198,7 @@
         <v>-320152.6805374277</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7231,7 @@
         <v>-320152.6805374277</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7264,7 @@
         <v>-320152.6805374277</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7297,7 @@
         <v>-320162.6805374277</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7330,7 @@
         <v>-320192.6805374277</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7363,7 @@
         <v>-320182.6805374277</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7396,7 @@
         <v>-323192.6805374277</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7429,7 @@
         <v>-323202.6805374277</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7462,7 @@
         <v>-323202.6805374277</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7546,7 +7594,7 @@
         <v>-337913.5114374277</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7711,7 +7759,7 @@
         <v>-338054.7312374277</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7792,7 @@
         <v>-338044.7312374277</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7825,7 @@
         <v>-338044.7312374277</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7858,7 @@
         <v>-338054.7312374277</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7909,7 +7957,7 @@
         <v>-308065.9896374277</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7990,7 @@
         <v>-308055.9896374277</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +8023,7 @@
         <v>-316729.3471374277</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8056,7 @@
         <v>-316719.3471374277</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8089,7 @@
         <v>-326316.3286374277</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8122,7 @@
         <v>-326316.3286374277</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8470,11 +8518,17 @@
         <v>-270623.0367374276</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>33.2</v>
+      </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8503,11 +8557,17 @@
         <v>-270623.0367374276</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>33.2</v>
+      </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8536,11 +8596,17 @@
         <v>-209829.8976374276</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>33.2</v>
+      </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8573,7 +8639,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8602,11 +8672,17 @@
         <v>-209839.8976374276</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>33.2</v>
+      </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8635,11 +8711,17 @@
         <v>-209839.8976374276</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>33.2</v>
+      </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8672,7 +8754,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8705,7 +8791,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8738,7 +8828,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8771,7 +8865,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8804,7 +8902,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8837,7 +8939,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8870,7 +8976,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8903,7 +9013,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8936,7 +9050,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8969,7 +9087,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9002,7 +9124,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9035,7 +9161,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9068,7 +9198,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9101,7 +9235,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9134,7 +9272,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9167,7 +9309,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9200,7 +9346,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9233,7 +9383,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9266,7 +9420,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9299,7 +9457,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9332,7 +9494,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9365,7 +9531,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9398,7 +9568,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9431,7 +9605,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9464,7 +9642,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9497,7 +9679,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9530,7 +9716,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9559,15 +9749,15 @@
         <v>-354483.388157065</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="J278" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K278" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9596,17 +9786,13 @@
         <v>-354483.388157065</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="J279" t="n">
-        <v>32.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L279" t="n">
@@ -9637,14 +9823,10 @@
         <v>-353644.588757065</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="J280" t="n">
-        <v>32.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9678,14 +9860,10 @@
         <v>-353644.588757065</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="J281" t="n">
-        <v>32.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9722,9 +9900,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>32.8</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9761,9 +9937,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>32.8</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9800,9 +9974,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>32.8</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9839,9 +10011,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>32.8</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9878,9 +10048,7 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>32.8</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9917,9 +10085,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>32.8</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9956,9 +10122,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>32.8</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9995,9 +10159,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>32.8</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10034,9 +10196,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>32.8</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10073,9 +10233,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>32.8</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10112,9 +10270,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>32.8</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10151,9 +10307,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>32.8</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10190,9 +10344,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>32.8</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10229,9 +10381,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>32.8</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10268,9 +10418,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>32.8</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10304,20 +10452,16 @@
         <v>-307682.5869570649</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>32.8</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
+      <c r="L297" t="inlineStr"/>
       <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
@@ -10343,17 +10487,11 @@
         <v>-307632.5869570649</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10382,17 +10520,11 @@
         <v>-307632.5869570649</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10421,17 +10553,11 @@
         <v>-307632.5869570649</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10460,17 +10586,11 @@
         <v>-300832.5869570649</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10499,17 +10619,11 @@
         <v>-301778.1582570649</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10541,14 +10655,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10577,17 +10685,11 @@
         <v>-304968.1582570649</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10616,17 +10718,11 @@
         <v>-304958.1582570649</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10655,17 +10751,11 @@
         <v>-304948.1582570649</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10694,17 +10784,11 @@
         <v>-308948.1582570649</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10733,17 +10817,11 @@
         <v>-308908.1582570649</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10772,17 +10850,11 @@
         <v>-307884.9142570649</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10811,17 +10883,11 @@
         <v>-550581.5527570649</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10850,17 +10916,11 @@
         <v>-550571.5527570649</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10889,17 +10949,11 @@
         <v>-779463.5042570649</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10928,17 +10982,11 @@
         <v>-775163.5425570649</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10970,14 +11018,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11009,14 +11051,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11048,14 +11084,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11087,14 +11117,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11126,14 +11150,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11165,14 +11183,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11204,14 +11216,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11243,14 +11249,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11282,14 +11282,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11321,14 +11315,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11357,17 +11345,11 @@
         <v>-822600.0981570649</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11396,17 +11378,11 @@
         <v>-827610.0981570649</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11438,14 +11414,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11477,14 +11447,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11516,14 +11480,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11555,14 +11513,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11594,14 +11546,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11633,14 +11579,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11672,14 +11612,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11711,14 +11645,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11747,17 +11675,11 @@
         <v>-838537.7300570649</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11786,17 +11708,11 @@
         <v>-838537.7300570649</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11825,17 +11741,11 @@
         <v>-842661.3657570649</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11864,17 +11774,11 @@
         <v>-841676.2502570649</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11903,17 +11807,11 @@
         <v>-841676.2502570649</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11942,17 +11840,11 @@
         <v>-875076.0155570649</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11984,14 +11876,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12023,14 +11909,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12062,14 +11942,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12101,14 +11975,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12140,14 +12008,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12176,17 +12038,15 @@
         <v>-876712.3511570649</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>33.4</v>
+      </c>
       <c r="J345" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>33.4</v>
+      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12219,11 +12079,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>32.8</v>
+        <v>33.4</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L346" t="n">
@@ -12258,11 +12118,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>32.8</v>
+        <v>33.4</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L347" t="n">
@@ -12293,17 +12153,15 @@
         <v>-878618.8647570648</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>33.2</v>
+      </c>
       <c r="J348" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>33.2</v>
+      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12332,15 +12190,17 @@
         <v>-878618.8647570648</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>33.2</v>
+      </c>
       <c r="J349" t="n">
-        <v>32.8</v>
+        <v>33.2</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L349" t="n">
@@ -12371,15 +12231,17 @@
         <v>-904418.8647570648</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>33.2</v>
+      </c>
       <c r="J350" t="n">
-        <v>32.8</v>
+        <v>33.2</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L350" t="n">
@@ -12410,11 +12272,13 @@
         <v>-917418.8647570648</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>33.1</v>
+      </c>
       <c r="J351" t="n">
-        <v>32.8</v>
+        <v>33.2</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -12427,6 +12291,6 @@
       <c r="M351" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-19 BackTest LAMB.xlsx
@@ -484,7 +484,7 @@
         <v>520595.2949</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>526249.703</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>524749.703</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>534281.1087999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>512127.7854999999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>510627.7854999999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>512280.9155999999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>512543.9155999999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>512543.9155999999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>514043.9155999999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>514543.9155999999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>513476.9046</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>516129.7985</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>514671.5554</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>499516.5983</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>592375.227</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>592375.227</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>592768.6614</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>522837.9613</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>405336.3865</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>351038.3446</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>343284.2692999999</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>343301.0862999999</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>343301.0862999999</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>342801.0862999999</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>342801.0862999999</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>325500.3323999999</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>312300.3323999999</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>172228.1731435529</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>168728.1731435529</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>187628.1731435529</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>187606.1731435529</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>186797.9751435529</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>186797.9751435529</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>186797.9751435529</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>186797.9751435529</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>173697.9750435529</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>173708.9750435529</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>174708.9750435529</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>174708.9750435529</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>174708.9750435529</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>174697.9750435529</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>174697.9750435529</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>172485.1886435529</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>172496.1886435529</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>172496.1886435529</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>47994.97814355291</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>47494.97814355291</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>43811.28934355291</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>43811.28934355291</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>28894.55544355291</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-14571.01205644709</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-178463.6698564471</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -6490,17 +6490,11 @@
         <v>-316978.2452469233</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>33.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6533,11 +6527,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6566,15 +6556,11 @@
         <v>-317068.2452469233</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6607,11 +6593,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6644,11 +6626,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6677,15 +6655,11 @@
         <v>-324464.2934469233</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6718,11 +6692,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6755,11 +6725,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6788,15 +6754,11 @@
         <v>-338818.4204374278</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6825,15 +6787,11 @@
         <v>-330557.4204374278</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6862,15 +6820,11 @@
         <v>-324480.4204374278</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6899,16 +6853,14 @@
         <v>-331548.6262374278</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
       <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
@@ -6934,7 +6886,7 @@
         <v>-344558.6262374278</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6967,7 +6919,7 @@
         <v>-348176.0533374277</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7000,7 +6952,7 @@
         <v>-340009.4511374277</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7033,7 +6985,7 @@
         <v>-340019.4511374277</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7066,7 +7018,7 @@
         <v>-327882.4365374277</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7132,7 +7084,7 @@
         <v>-316014.9435374277</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7198,7 +7150,7 @@
         <v>-320152.6805374277</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7231,7 +7183,7 @@
         <v>-320152.6805374277</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7264,7 +7216,7 @@
         <v>-320152.6805374277</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7297,7 +7249,7 @@
         <v>-320162.6805374277</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7330,7 +7282,7 @@
         <v>-320192.6805374277</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7363,7 +7315,7 @@
         <v>-320182.6805374277</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7396,7 +7348,7 @@
         <v>-323192.6805374277</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7429,7 +7381,7 @@
         <v>-323202.6805374277</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7462,7 +7414,7 @@
         <v>-323202.6805374277</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7594,7 +7546,7 @@
         <v>-337913.5114374277</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7759,7 +7711,7 @@
         <v>-338054.7312374277</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7792,7 +7744,7 @@
         <v>-338044.7312374277</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7825,7 +7777,7 @@
         <v>-338044.7312374277</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7858,7 +7810,7 @@
         <v>-338054.7312374277</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7957,7 +7909,7 @@
         <v>-308065.9896374277</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7990,7 +7942,7 @@
         <v>-308055.9896374277</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8023,7 +7975,7 @@
         <v>-316729.3471374277</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8056,7 +8008,7 @@
         <v>-316719.3471374277</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8089,7 +8041,7 @@
         <v>-326316.3286374277</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8122,7 +8074,7 @@
         <v>-326316.3286374277</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8518,17 +8470,11 @@
         <v>-270623.0367374276</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>33.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8557,17 +8503,11 @@
         <v>-270623.0367374276</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>33.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8596,17 +8536,11 @@
         <v>-209829.8976374276</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>33.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8639,11 +8573,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8672,17 +8602,11 @@
         <v>-209839.8976374276</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>33.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8711,17 +8635,11 @@
         <v>-209839.8976374276</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>33.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8754,11 +8672,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8791,11 +8705,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8828,11 +8738,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8865,11 +8771,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8902,11 +8804,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8939,11 +8837,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8976,11 +8870,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9013,11 +8903,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9050,11 +8936,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9087,11 +8969,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9124,11 +9002,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9161,11 +9035,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9198,11 +9068,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9235,11 +9101,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9272,11 +9134,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9309,11 +9167,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9346,11 +9200,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9383,11 +9233,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9420,11 +9266,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9457,11 +9299,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9494,11 +9332,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9531,11 +9365,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9568,11 +9398,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9605,11 +9431,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9642,11 +9464,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9679,11 +9497,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9716,11 +9530,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9753,11 +9563,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9790,11 +9596,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9827,11 +9629,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9864,11 +9662,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9901,11 +9695,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9938,11 +9728,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9975,11 +9761,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10012,11 +9794,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10049,11 +9827,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10086,11 +9860,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10123,11 +9893,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10160,11 +9926,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10197,11 +9959,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10234,11 +9992,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10271,11 +10025,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10308,11 +10058,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10345,11 +10091,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10382,11 +10124,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10419,11 +10157,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10452,16 +10186,14 @@
         <v>-307682.5869570649</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
       <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
@@ -10487,7 +10219,7 @@
         <v>-307632.5869570649</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10520,7 +10252,7 @@
         <v>-307632.5869570649</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10553,7 +10285,7 @@
         <v>-307632.5869570649</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10586,7 +10318,7 @@
         <v>-300832.5869570649</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10619,7 +10351,7 @@
         <v>-301778.1582570649</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10685,7 +10417,7 @@
         <v>-304968.1582570649</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10718,7 +10450,7 @@
         <v>-304958.1582570649</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10751,7 +10483,7 @@
         <v>-304948.1582570649</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10784,7 +10516,7 @@
         <v>-308948.1582570649</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10817,7 +10549,7 @@
         <v>-308908.1582570649</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10850,7 +10582,7 @@
         <v>-307884.9142570649</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10883,7 +10615,7 @@
         <v>-550581.5527570649</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10916,7 +10648,7 @@
         <v>-550571.5527570649</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10949,7 +10681,7 @@
         <v>-779463.5042570649</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10982,7 +10714,7 @@
         <v>-775163.5425570649</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11345,7 +11077,7 @@
         <v>-822600.0981570649</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11378,7 +11110,7 @@
         <v>-827610.0981570649</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11642,10 +11374,14 @@
         <v>-838537.7300570649</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="J333" t="n">
+        <v>33.2</v>
+      </c>
       <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
@@ -11675,11 +11411,19 @@
         <v>-838537.7300570649</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="J334" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11708,11 +11452,19 @@
         <v>-838537.7300570649</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="J335" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11741,11 +11493,19 @@
         <v>-842661.3657570649</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="J336" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11774,11 +11534,19 @@
         <v>-841676.2502570649</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="J337" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11807,11 +11575,19 @@
         <v>-841676.2502570649</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="J338" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11840,11 +11616,19 @@
         <v>-875076.0155570649</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="J339" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11873,11 +11657,19 @@
         <v>-875066.0155570649</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="J340" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11906,11 +11698,19 @@
         <v>-875987.7293570649</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="J341" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11939,11 +11739,19 @@
         <v>-875977.7293570649</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="J342" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11972,11 +11780,19 @@
         <v>-877090.9702570649</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="J343" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12005,11 +11821,19 @@
         <v>-875314.9702570649</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="J344" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12044,9 +11868,13 @@
         <v>33.4</v>
       </c>
       <c r="J345" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K345" t="inlineStr"/>
+        <v>33.2</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12075,15 +11903,17 @@
         <v>-878618.8647570648</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>33.3</v>
+      </c>
       <c r="J346" t="n">
-        <v>33.4</v>
+        <v>33.2</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L346" t="n">
@@ -12114,15 +11944,17 @@
         <v>-878618.8647570648</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>33.2</v>
+      </c>
       <c r="J347" t="n">
-        <v>33.4</v>
+        <v>33.2</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L347" t="n">
@@ -12161,7 +11993,11 @@
       <c r="J348" t="n">
         <v>33.2</v>
       </c>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12200,7 +12036,7 @@
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L349" t="n">
@@ -12241,7 +12077,7 @@
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L350" t="n">

--- a/BackTest/2019-10-19 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-19 BackTest LAMB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M351"/>
+  <dimension ref="A1:L351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>2000</v>
       </c>
       <c r="G2" t="n">
-        <v>511903.0802</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>8692.2147</v>
       </c>
       <c r="G3" t="n">
-        <v>520595.2949</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>5654.4081</v>
       </c>
       <c r="G4" t="n">
-        <v>526249.703</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>1500</v>
       </c>
       <c r="G5" t="n">
-        <v>524749.703</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>9531.4058</v>
       </c>
       <c r="G6" t="n">
-        <v>534281.1087999999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>500</v>
       </c>
       <c r="G7" t="n">
-        <v>534781.1087999999</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>500</v>
       </c>
       <c r="G8" t="n">
-        <v>534281.1087999999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>4500</v>
       </c>
       <c r="G9" t="n">
-        <v>529781.1087999999</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>6500</v>
       </c>
       <c r="G10" t="n">
-        <v>529781.1087999999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>1958.8935</v>
       </c>
       <c r="G11" t="n">
-        <v>529781.1087999999</v>
-      </c>
-      <c r="H11" t="n">
         <v>2</v>
       </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>1000</v>
       </c>
       <c r="G12" t="n">
-        <v>529781.1087999999</v>
-      </c>
-      <c r="H12" t="n">
         <v>2</v>
       </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>17668.1403</v>
       </c>
       <c r="G13" t="n">
-        <v>512112.9685</v>
-      </c>
-      <c r="H13" t="n">
         <v>2</v>
       </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>14.817</v>
       </c>
       <c r="G14" t="n">
-        <v>512127.7854999999</v>
-      </c>
-      <c r="H14" t="n">
         <v>2</v>
       </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>500</v>
       </c>
       <c r="G15" t="n">
-        <v>511627.7854999999</v>
-      </c>
-      <c r="H15" t="n">
         <v>2</v>
       </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>500</v>
       </c>
       <c r="G16" t="n">
-        <v>512127.7854999999</v>
-      </c>
-      <c r="H16" t="n">
         <v>2</v>
       </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>1500</v>
       </c>
       <c r="G17" t="n">
-        <v>510627.7854999999</v>
-      </c>
-      <c r="H17" t="n">
         <v>2</v>
       </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>1653.1301</v>
       </c>
       <c r="G18" t="n">
-        <v>512280.9155999999</v>
-      </c>
-      <c r="H18" t="n">
         <v>2</v>
       </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>263</v>
       </c>
       <c r="G19" t="n">
-        <v>512543.9155999999</v>
-      </c>
-      <c r="H19" t="n">
         <v>2</v>
       </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>0.158</v>
       </c>
       <c r="G20" t="n">
-        <v>512543.9155999999</v>
-      </c>
-      <c r="H20" t="n">
         <v>2</v>
       </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>1500</v>
       </c>
       <c r="G21" t="n">
-        <v>514043.9155999999</v>
-      </c>
-      <c r="H21" t="n">
         <v>2</v>
       </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>500</v>
       </c>
       <c r="G22" t="n">
-        <v>514543.9155999999</v>
-      </c>
-      <c r="H22" t="n">
         <v>2</v>
       </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>1067.011</v>
       </c>
       <c r="G23" t="n">
-        <v>513476.9046</v>
-      </c>
-      <c r="H23" t="n">
         <v>2</v>
       </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>2652.8939</v>
       </c>
       <c r="G24" t="n">
-        <v>516129.7985</v>
-      </c>
-      <c r="H24" t="n">
         <v>2</v>
       </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>1458.2431</v>
       </c>
       <c r="G25" t="n">
-        <v>514671.5554</v>
-      </c>
-      <c r="H25" t="n">
         <v>2</v>
       </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>16000</v>
       </c>
       <c r="G26" t="n">
-        <v>498671.5554</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>845.0429</v>
       </c>
       <c r="G27" t="n">
-        <v>499516.5983</v>
-      </c>
-      <c r="H27" t="n">
         <v>2</v>
       </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>1869.6038</v>
       </c>
       <c r="G28" t="n">
-        <v>497646.9945</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>20000</v>
       </c>
       <c r="G29" t="n">
-        <v>477646.9945</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>4000</v>
       </c>
       <c r="G30" t="n">
-        <v>481646.9945</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>18800</v>
       </c>
       <c r="G31" t="n">
-        <v>500446.9945</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>1028.2151</v>
       </c>
       <c r="G32" t="n">
-        <v>499418.7794</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>2638.2097</v>
       </c>
       <c r="G33" t="n">
-        <v>499418.7794</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>752.8231</v>
       </c>
       <c r="G34" t="n">
-        <v>499418.7794</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>2500</v>
       </c>
       <c r="G35" t="n">
-        <v>501918.7794</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>31745.7152</v>
       </c>
       <c r="G36" t="n">
-        <v>470173.0642</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>170517.7836</v>
       </c>
       <c r="G37" t="n">
-        <v>640690.8478</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>3000</v>
       </c>
       <c r="G38" t="n">
-        <v>640690.8478</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>8813.9665</v>
       </c>
       <c r="G39" t="n">
-        <v>640690.8478</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>4152.3657</v>
       </c>
       <c r="G40" t="n">
-        <v>640690.8478</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>500</v>
       </c>
       <c r="G41" t="n">
-        <v>640190.8478</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>2263.8085</v>
       </c>
       <c r="G42" t="n">
-        <v>640190.8478</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>11</v>
       </c>
       <c r="G43" t="n">
-        <v>640190.8478</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>10.8611</v>
       </c>
       <c r="G44" t="n">
-        <v>640201.7089</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>1075.9327</v>
       </c>
       <c r="G45" t="n">
-        <v>639125.7762</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>17000.2558</v>
       </c>
       <c r="G46" t="n">
-        <v>639125.7762</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>46750.5492</v>
       </c>
       <c r="G47" t="n">
-        <v>592375.227</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>2722</v>
       </c>
       <c r="G48" t="n">
-        <v>592375.227</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>4000</v>
       </c>
       <c r="G49" t="n">
-        <v>592375.227</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>393.4344</v>
       </c>
       <c r="G50" t="n">
-        <v>592768.6614</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>69930.7001</v>
       </c>
       <c r="G51" t="n">
-        <v>522837.9613</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>117501.5748</v>
       </c>
       <c r="G52" t="n">
-        <v>405336.3865</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>568.1818</v>
       </c>
       <c r="G53" t="n">
-        <v>405336.3865</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>1037.0181</v>
       </c>
       <c r="G54" t="n">
-        <v>405336.3865</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>1485.8911</v>
       </c>
       <c r="G55" t="n">
-        <v>405336.3865</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>11202.3322</v>
       </c>
       <c r="G56" t="n">
-        <v>394134.0543</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>2666.8261</v>
       </c>
       <c r="G57" t="n">
-        <v>394134.0543</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>59000.9054</v>
       </c>
       <c r="G58" t="n">
-        <v>335133.1489</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>1368.1957</v>
       </c>
       <c r="G59" t="n">
-        <v>336501.3446</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>14537</v>
       </c>
       <c r="G60" t="n">
-        <v>351038.3446</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>1500</v>
       </c>
       <c r="G61" t="n">
-        <v>351038.3446</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>11064.353</v>
       </c>
       <c r="G62" t="n">
-        <v>351038.3446</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>12209.7509</v>
       </c>
       <c r="G63" t="n">
-        <v>351038.3446</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>7754.0753</v>
       </c>
       <c r="G64" t="n">
-        <v>343284.2692999999</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>16.817</v>
       </c>
       <c r="G65" t="n">
-        <v>343301.0862999999</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>246.341</v>
       </c>
       <c r="G66" t="n">
-        <v>343301.0862999999</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>500</v>
       </c>
       <c r="G67" t="n">
-        <v>342801.0862999999</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>1328.4145</v>
       </c>
       <c r="G68" t="n">
-        <v>342801.0862999999</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>17300.7539</v>
       </c>
       <c r="G69" t="n">
-        <v>325500.3323999999</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>13200</v>
       </c>
       <c r="G70" t="n">
-        <v>312300.3323999999</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>83524.9323</v>
       </c>
       <c r="G71" t="n">
-        <v>228775.4000999999</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>1000</v>
       </c>
       <c r="G72" t="n">
-        <v>228775.4000999999</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>39139.9148</v>
       </c>
       <c r="G73" t="n">
-        <v>189635.4852999999</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>10639.6778</v>
       </c>
       <c r="G74" t="n">
-        <v>189635.4852999999</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>7268.7105</v>
       </c>
       <c r="G75" t="n">
-        <v>189635.4852999999</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>3500</v>
       </c>
       <c r="G76" t="n">
-        <v>189635.4852999999</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>8302.7907</v>
       </c>
       <c r="G77" t="n">
-        <v>181332.6945999999</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>17917.3354</v>
       </c>
       <c r="G78" t="n">
-        <v>181332.6945999999</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>12356.2527</v>
       </c>
       <c r="G79" t="n">
-        <v>181332.6945999999</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>0.5054999999999999</v>
       </c>
       <c r="G80" t="n">
-        <v>181332.6945999999</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>24</v>
       </c>
       <c r="G81" t="n">
-        <v>181356.6945999999</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>972.9761999999999</v>
       </c>
       <c r="G82" t="n">
-        <v>180383.7183999999</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>885.9635</v>
       </c>
       <c r="G83" t="n">
-        <v>180383.7183999999</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>300</v>
       </c>
       <c r="G84" t="n">
-        <v>180383.7183999999</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>1803.3237</v>
       </c>
       <c r="G85" t="n">
-        <v>182187.0420999999</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>1267.1709</v>
       </c>
       <c r="G86" t="n">
-        <v>180919.8711999999</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>2466.471</v>
       </c>
       <c r="G87" t="n">
-        <v>180919.8711999999</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>10667.7535</v>
       </c>
       <c r="G88" t="n">
-        <v>180919.8711999999</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>1158.5618</v>
       </c>
       <c r="G89" t="n">
-        <v>180919.8711999999</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>1618.949</v>
       </c>
       <c r="G90" t="n">
-        <v>180919.8711999999</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>10173.8419</v>
       </c>
       <c r="G91" t="n">
-        <v>170746.0292999999</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>2268.068356446991</v>
       </c>
       <c r="G92" t="n">
-        <v>168477.9609435529</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>88</v>
       </c>
       <c r="G93" t="n">
-        <v>168477.9609435529</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>44</v>
       </c>
       <c r="G94" t="n">
-        <v>168521.9609435529</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>1185.8841</v>
       </c>
       <c r="G95" t="n">
-        <v>167336.0768435529</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>2449.5677</v>
       </c>
       <c r="G96" t="n">
-        <v>169785.6445435529</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>2442.5286</v>
       </c>
       <c r="G97" t="n">
-        <v>172228.1731435529</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>5500</v>
       </c>
       <c r="G98" t="n">
-        <v>172228.1731435529</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>3500</v>
       </c>
       <c r="G99" t="n">
-        <v>168728.1731435529</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>18900</v>
       </c>
       <c r="G100" t="n">
-        <v>187628.1731435529</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>22</v>
       </c>
       <c r="G101" t="n">
-        <v>187606.1731435529</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>808.198</v>
       </c>
       <c r="G102" t="n">
-        <v>186797.9751435529</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>2000</v>
       </c>
       <c r="G103" t="n">
-        <v>186797.9751435529</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>10000</v>
       </c>
       <c r="G104" t="n">
-        <v>186797.9751435529</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>1000</v>
       </c>
       <c r="G105" t="n">
-        <v>186797.9751435529</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>13100.0001</v>
       </c>
       <c r="G106" t="n">
-        <v>173697.9750435529</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>11</v>
       </c>
       <c r="G107" t="n">
-        <v>173708.9750435529</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>1588.4809</v>
       </c>
       <c r="G108" t="n">
-        <v>173708.9750435529</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>1000</v>
       </c>
       <c r="G109" t="n">
-        <v>174708.9750435529</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>11163.9818</v>
       </c>
       <c r="G110" t="n">
-        <v>174708.9750435529</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>339.8265</v>
       </c>
       <c r="G111" t="n">
-        <v>174708.9750435529</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>11</v>
       </c>
       <c r="G112" t="n">
-        <v>174697.9750435529</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>4591.084</v>
       </c>
       <c r="G113" t="n">
-        <v>174697.9750435529</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>2212.7864</v>
       </c>
       <c r="G114" t="n">
-        <v>172485.1886435529</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>11</v>
       </c>
       <c r="G115" t="n">
-        <v>172496.1886435529</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>1000</v>
       </c>
       <c r="G116" t="n">
-        <v>172496.1886435529</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>124501.2105</v>
       </c>
       <c r="G117" t="n">
-        <v>47994.97814355291</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>500</v>
       </c>
       <c r="G118" t="n">
-        <v>47494.97814355291</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>3683.6888</v>
       </c>
       <c r="G119" t="n">
-        <v>43811.28934355291</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>1727.0118</v>
       </c>
       <c r="G120" t="n">
-        <v>43811.28934355291</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>14916.7339</v>
       </c>
       <c r="G121" t="n">
-        <v>28894.55544355291</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>43465.5675</v>
       </c>
       <c r="G122" t="n">
-        <v>-14571.01205644709</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>238861.4713</v>
       </c>
       <c r="G123" t="n">
-        <v>-14571.01205644709</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>78915.0245</v>
       </c>
       <c r="G124" t="n">
-        <v>-14571.01205644709</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>10.2976</v>
       </c>
       <c r="G125" t="n">
-        <v>-14571.01205644709</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>10000</v>
       </c>
       <c r="G126" t="n">
-        <v>-14571.01205644709</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>29000</v>
       </c>
       <c r="G127" t="n">
-        <v>-14571.01205644709</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>60562.38</v>
       </c>
       <c r="G128" t="n">
-        <v>45991.36794355291</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>677</v>
       </c>
       <c r="G129" t="n">
-        <v>45314.36794355291</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>223778.0378</v>
       </c>
       <c r="G130" t="n">
-        <v>-178463.6698564471</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>88</v>
       </c>
       <c r="G131" t="n">
-        <v>-178463.6698564471</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>143</v>
       </c>
       <c r="G132" t="n">
-        <v>-178463.6698564471</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>21.7964</v>
       </c>
       <c r="G133" t="n">
-        <v>-178441.8734564471</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>11</v>
       </c>
       <c r="G134" t="n">
-        <v>-178452.8734564471</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>101903.6663</v>
       </c>
       <c r="G135" t="n">
-        <v>-280356.5397564471</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>1156.5768</v>
       </c>
       <c r="G136" t="n">
-        <v>-279199.9629564471</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>55</v>
       </c>
       <c r="G137" t="n">
-        <v>-279199.9629564471</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>507</v>
       </c>
       <c r="G138" t="n">
-        <v>-278692.9629564471</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>33478.1592</v>
       </c>
       <c r="G139" t="n">
-        <v>-312171.1221564471</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>35458.0091</v>
       </c>
       <c r="G140" t="n">
-        <v>-276713.1130564471</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>4023.7605</v>
       </c>
       <c r="G141" t="n">
-        <v>-280736.873556447</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>44</v>
       </c>
       <c r="G142" t="n">
-        <v>-280736.873556447</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>21.8928</v>
       </c>
       <c r="G143" t="n">
-        <v>-280714.9807564471</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>11</v>
       </c>
       <c r="G144" t="n">
-        <v>-280725.9807564471</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>1149.8062</v>
       </c>
       <c r="G145" t="n">
-        <v>-279576.1745564471</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>4289.2858</v>
       </c>
       <c r="G146" t="n">
-        <v>-279576.1745564471</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>31262.8333</v>
       </c>
       <c r="G147" t="n">
-        <v>-310839.0078564471</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>43</v>
       </c>
       <c r="G148" t="n">
-        <v>-310839.0078564471</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>34.2304</v>
       </c>
       <c r="G149" t="n">
-        <v>-310839.0078564471</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>1220</v>
       </c>
       <c r="G150" t="n">
-        <v>-310839.0078564471</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>3425.7409</v>
       </c>
       <c r="G151" t="n">
-        <v>-310839.0078564471</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>29.76190476190476</v>
       </c>
       <c r="G152" t="n">
-        <v>-310809.2459516852</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>10898.5118</v>
       </c>
       <c r="G153" t="n">
-        <v>-310809.2459516852</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>11553.52159523809</v>
       </c>
       <c r="G154" t="n">
-        <v>-322362.7675469232</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>77</v>
       </c>
       <c r="G155" t="n">
-        <v>-322285.7675469232</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>7142.7056</v>
       </c>
       <c r="G156" t="n">
-        <v>-322285.7675469232</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>16667.2574</v>
       </c>
       <c r="G157" t="n">
-        <v>-305618.5101469232</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>9176</v>
       </c>
       <c r="G158" t="n">
-        <v>-305618.5101469232</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>9306.244199999999</v>
       </c>
       <c r="G159" t="n">
-        <v>-305618.5101469232</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,15 @@
         <v>3500</v>
       </c>
       <c r="G160" t="n">
-        <v>-305618.5101469232</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5213,15 @@
         <v>169</v>
       </c>
       <c r="G161" t="n">
-        <v>-305618.5101469232</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5243,15 @@
         <v>1580.7959</v>
       </c>
       <c r="G162" t="n">
-        <v>-305618.5101469232</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5273,15 @@
         <v>1817.162</v>
       </c>
       <c r="G163" t="n">
-        <v>-307435.6721469233</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5303,15 @@
         <v>15000</v>
       </c>
       <c r="G164" t="n">
-        <v>-307435.6721469233</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5333,15 @@
         <v>92</v>
       </c>
       <c r="G165" t="n">
-        <v>-307343.6721469233</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5363,15 @@
         <v>16.818</v>
       </c>
       <c r="G166" t="n">
-        <v>-307343.6721469233</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5393,15 @@
         <v>18600</v>
       </c>
       <c r="G167" t="n">
-        <v>-325943.6721469233</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5423,15 @@
         <v>54307.6934</v>
       </c>
       <c r="G168" t="n">
-        <v>-380251.3655469232</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5453,15 @@
         <v>1867.3964</v>
       </c>
       <c r="G169" t="n">
-        <v>-378383.9691469232</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5483,15 @@
         <v>46748.2259</v>
       </c>
       <c r="G170" t="n">
-        <v>-425132.1950469232</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5513,15 @@
         <v>500</v>
       </c>
       <c r="G171" t="n">
-        <v>-424632.1950469232</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5543,15 @@
         <v>1000</v>
       </c>
       <c r="G172" t="n">
-        <v>-424632.1950469232</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5573,15 @@
         <v>10</v>
       </c>
       <c r="G173" t="n">
-        <v>-424622.1950469232</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5603,15 @@
         <v>1485.1439</v>
       </c>
       <c r="G174" t="n">
-        <v>-424622.1950469232</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5633,15 @@
         <v>19900</v>
       </c>
       <c r="G175" t="n">
-        <v>-424622.1950469232</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5663,15 @@
         <v>2040</v>
       </c>
       <c r="G176" t="n">
-        <v>-426662.1950469232</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5693,15 @@
         <v>10</v>
       </c>
       <c r="G177" t="n">
-        <v>-426672.1950469232</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5723,15 @@
         <v>42040.4253</v>
       </c>
       <c r="G178" t="n">
-        <v>-426672.1950469232</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5753,15 @@
         <v>7698.6233</v>
       </c>
       <c r="G179" t="n">
-        <v>-426672.1950469232</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5783,15 @@
         <v>22301.3767</v>
       </c>
       <c r="G180" t="n">
-        <v>-448973.5717469233</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5813,15 @@
         <v>454.7026</v>
       </c>
       <c r="G181" t="n">
-        <v>-448973.5717469233</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5843,15 @@
         <v>977.75</v>
       </c>
       <c r="G182" t="n">
-        <v>-449951.3217469233</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5873,15 @@
         <v>30500.2919</v>
       </c>
       <c r="G183" t="n">
-        <v>-449951.3217469233</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5903,15 @@
         <v>1978.7973</v>
       </c>
       <c r="G184" t="n">
-        <v>-449951.3217469233</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5933,15 @@
         <v>132973.0765</v>
       </c>
       <c r="G185" t="n">
-        <v>-316978.2452469233</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +5963,15 @@
         <v>100</v>
       </c>
       <c r="G186" t="n">
-        <v>-317078.2452469233</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +5993,15 @@
         <v>10</v>
       </c>
       <c r="G187" t="n">
-        <v>-317068.2452469233</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6023,15 @@
         <v>16990</v>
       </c>
       <c r="G188" t="n">
-        <v>-317068.2452469233</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6053,15 @@
         <v>613.9518</v>
       </c>
       <c r="G189" t="n">
-        <v>-316454.2934469233</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6083,15 @@
         <v>8010</v>
       </c>
       <c r="G190" t="n">
-        <v>-324464.2934469233</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6113,15 @@
         <v>14324.4534</v>
       </c>
       <c r="G191" t="n">
-        <v>-338788.7468469233</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6143,15 @@
         <v>10</v>
       </c>
       <c r="G192" t="n">
-        <v>-338778.7468469233</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6173,15 @@
         <v>39.67359050445104</v>
       </c>
       <c r="G193" t="n">
-        <v>-338818.4204374278</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6203,15 @@
         <v>8261</v>
       </c>
       <c r="G194" t="n">
-        <v>-330557.4204374278</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6233,15 @@
         <v>6077</v>
       </c>
       <c r="G195" t="n">
-        <v>-324480.4204374278</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6263,15 @@
         <v>7068.2058</v>
       </c>
       <c r="G196" t="n">
-        <v>-331548.6262374278</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6293,15 @@
         <v>13010</v>
       </c>
       <c r="G197" t="n">
-        <v>-344558.6262374278</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6323,15 @@
         <v>3617.4271</v>
       </c>
       <c r="G198" t="n">
-        <v>-348176.0533374277</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6353,15 @@
         <v>8166.6022</v>
       </c>
       <c r="G199" t="n">
-        <v>-340009.4511374277</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6383,15 @@
         <v>10</v>
       </c>
       <c r="G200" t="n">
-        <v>-340019.4511374277</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6413,15 @@
         <v>12137.0146</v>
       </c>
       <c r="G201" t="n">
-        <v>-327882.4365374277</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6443,15 @@
         <v>11877.493</v>
       </c>
       <c r="G202" t="n">
-        <v>-316004.9435374277</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6473,15 @@
         <v>10</v>
       </c>
       <c r="G203" t="n">
-        <v>-316014.9435374277</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6503,15 @@
         <v>5137.737</v>
       </c>
       <c r="G204" t="n">
-        <v>-321152.6805374277</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6533,15 @@
         <v>1000</v>
       </c>
       <c r="G205" t="n">
-        <v>-320152.6805374277</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6563,15 @@
         <v>20</v>
       </c>
       <c r="G206" t="n">
-        <v>-320152.6805374277</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6593,15 @@
         <v>1000</v>
       </c>
       <c r="G207" t="n">
-        <v>-320152.6805374277</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +6623,15 @@
         <v>10</v>
       </c>
       <c r="G208" t="n">
-        <v>-320162.6805374277</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +6653,15 @@
         <v>30</v>
       </c>
       <c r="G209" t="n">
-        <v>-320192.6805374277</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +6683,15 @@
         <v>10</v>
       </c>
       <c r="G210" t="n">
-        <v>-320182.6805374277</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +6713,15 @@
         <v>3010</v>
       </c>
       <c r="G211" t="n">
-        <v>-323192.6805374277</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +6743,15 @@
         <v>10</v>
       </c>
       <c r="G212" t="n">
-        <v>-323202.6805374277</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +6773,15 @@
         <v>10</v>
       </c>
       <c r="G213" t="n">
-        <v>-323202.6805374277</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +6803,15 @@
         <v>10</v>
       </c>
       <c r="G214" t="n">
-        <v>-323212.6805374277</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +6833,15 @@
         <v>219.1691</v>
       </c>
       <c r="G215" t="n">
-        <v>-322993.5114374277</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +6863,15 @@
         <v>14910</v>
       </c>
       <c r="G216" t="n">
-        <v>-337903.5114374277</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +6893,15 @@
         <v>10</v>
       </c>
       <c r="G217" t="n">
-        <v>-337913.5114374277</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +6923,15 @@
         <v>10</v>
       </c>
       <c r="G218" t="n">
-        <v>-337903.5114374277</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +6953,15 @@
         <v>108.703</v>
       </c>
       <c r="G219" t="n">
-        <v>-338012.2144374277</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +6983,15 @@
         <v>7068.2058</v>
       </c>
       <c r="G220" t="n">
-        <v>-338012.2144374277</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7013,15 @@
         <v>20</v>
       </c>
       <c r="G221" t="n">
-        <v>-337992.2144374277</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7043,15 @@
         <v>62.5168</v>
       </c>
       <c r="G222" t="n">
-        <v>-338054.7312374277</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7073,15 @@
         <v>10</v>
       </c>
       <c r="G223" t="n">
-        <v>-338044.7312374277</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +7103,15 @@
         <v>29.67359050445104</v>
       </c>
       <c r="G224" t="n">
-        <v>-338044.7312374277</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,18 +7133,15 @@
         <v>10</v>
       </c>
       <c r="G225" t="n">
-        <v>-338054.7312374277</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7840,18 +7163,15 @@
         <v>30010</v>
       </c>
       <c r="G226" t="n">
-        <v>-308044.7312374277</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7873,18 +7193,15 @@
         <v>10</v>
       </c>
       <c r="G227" t="n">
-        <v>-308034.7312374277</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7906,18 +7223,15 @@
         <v>31.2584</v>
       </c>
       <c r="G228" t="n">
-        <v>-308065.9896374277</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7939,18 +7253,15 @@
         <v>10</v>
       </c>
       <c r="G229" t="n">
-        <v>-308055.9896374277</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7972,18 +7283,15 @@
         <v>8673.3575</v>
       </c>
       <c r="G230" t="n">
-        <v>-316729.3471374277</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8005,18 +7313,15 @@
         <v>10</v>
       </c>
       <c r="G231" t="n">
-        <v>-316719.3471374277</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8038,18 +7343,15 @@
         <v>9596.9815</v>
       </c>
       <c r="G232" t="n">
-        <v>-326316.3286374277</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8071,18 +7373,15 @@
         <v>31808.2533</v>
       </c>
       <c r="G233" t="n">
-        <v>-326316.3286374277</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8104,18 +7403,15 @@
         <v>28932.9756</v>
       </c>
       <c r="G234" t="n">
-        <v>-326316.3286374277</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8137,18 +7433,15 @@
         <v>49713.5036</v>
       </c>
       <c r="G235" t="n">
-        <v>-326316.3286374277</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8170,18 +7463,15 @@
         <v>1000</v>
       </c>
       <c r="G236" t="n">
-        <v>-326316.3286374277</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8203,18 +7493,15 @@
         <v>1190.5298</v>
       </c>
       <c r="G237" t="n">
-        <v>-326316.3286374277</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8236,18 +7523,15 @@
         <v>10</v>
       </c>
       <c r="G238" t="n">
-        <v>-326326.3286374277</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8269,18 +7553,15 @@
         <v>73361.94</v>
       </c>
       <c r="G239" t="n">
-        <v>-252964.3886374276</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8302,18 +7583,15 @@
         <v>37340.7342</v>
       </c>
       <c r="G240" t="n">
-        <v>-252964.3886374276</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8335,18 +7613,15 @@
         <v>14441.8614</v>
       </c>
       <c r="G241" t="n">
-        <v>-267406.2500374276</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8368,18 +7643,15 @@
         <v>783.2588</v>
       </c>
       <c r="G242" t="n">
-        <v>-268189.5088374277</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8401,18 +7673,15 @@
         <v>14614.3703</v>
       </c>
       <c r="G243" t="n">
-        <v>-268189.5088374277</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8434,18 +7703,15 @@
         <v>2433.5279</v>
       </c>
       <c r="G244" t="n">
-        <v>-270623.0367374276</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8467,18 +7733,15 @@
         <v>144.4234</v>
       </c>
       <c r="G245" t="n">
-        <v>-270623.0367374276</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8500,18 +7763,15 @@
         <v>74.5232</v>
       </c>
       <c r="G246" t="n">
-        <v>-270623.0367374276</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8533,18 +7793,15 @@
         <v>60793.1391</v>
       </c>
       <c r="G247" t="n">
-        <v>-209829.8976374276</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8566,18 +7823,15 @@
         <v>10</v>
       </c>
       <c r="G248" t="n">
-        <v>-209839.8976374276</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8599,18 +7853,15 @@
         <v>2507.2615</v>
       </c>
       <c r="G249" t="n">
-        <v>-209839.8976374276</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8632,18 +7883,15 @@
         <v>79887.8705</v>
       </c>
       <c r="G250" t="n">
-        <v>-209839.8976374276</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8665,18 +7913,15 @@
         <v>4149.432</v>
       </c>
       <c r="G251" t="n">
-        <v>-209839.8976374276</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8698,18 +7943,15 @@
         <v>220184.6804</v>
       </c>
       <c r="G252" t="n">
-        <v>10344.78276257237</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8731,18 +7973,15 @@
         <v>92551.0067</v>
       </c>
       <c r="G253" t="n">
-        <v>-82206.22393742763</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8764,18 +8003,15 @@
         <v>20</v>
       </c>
       <c r="G254" t="n">
-        <v>-82186.22393742763</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8797,18 +8033,15 @@
         <v>2426.9644</v>
       </c>
       <c r="G255" t="n">
-        <v>-84613.18833742762</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8830,18 +8063,15 @@
         <v>3706.8114</v>
       </c>
       <c r="G256" t="n">
-        <v>-80906.37693742762</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8863,18 +8093,15 @@
         <v>80</v>
       </c>
       <c r="G257" t="n">
-        <v>-80906.37693742762</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8896,18 +8123,15 @@
         <v>1427.7121</v>
       </c>
       <c r="G258" t="n">
-        <v>-82334.08903742762</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -8929,18 +8153,15 @@
         <v>10</v>
       </c>
       <c r="G259" t="n">
-        <v>-82344.08903742762</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -8962,18 +8183,15 @@
         <v>1766.894680362538</v>
       </c>
       <c r="G260" t="n">
-        <v>-80577.19435706508</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -8995,18 +8213,15 @@
         <v>90</v>
       </c>
       <c r="G261" t="n">
-        <v>-80487.19435706508</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9028,18 +8243,15 @@
         <v>499.2645</v>
       </c>
       <c r="G262" t="n">
-        <v>-80986.45885706508</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9061,18 +8273,15 @@
         <v>649.2145</v>
       </c>
       <c r="G263" t="n">
-        <v>-80337.24435706508</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9094,18 +8303,15 @@
         <v>661.8424</v>
       </c>
       <c r="G264" t="n">
-        <v>-80999.08675706507</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9127,18 +8333,15 @@
         <v>60594.3312</v>
       </c>
       <c r="G265" t="n">
-        <v>-20404.75555706507</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9160,18 +8363,15 @@
         <v>73600</v>
       </c>
       <c r="G266" t="n">
-        <v>-94004.75555706507</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9193,18 +8393,15 @@
         <v>10</v>
       </c>
       <c r="G267" t="n">
-        <v>-93994.75555706507</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9226,18 +8423,15 @@
         <v>967.1357</v>
       </c>
       <c r="G268" t="n">
-        <v>-94961.89125706507</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9259,18 +8453,15 @@
         <v>933.4699000000001</v>
       </c>
       <c r="G269" t="n">
-        <v>-94961.89125706507</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9292,18 +8483,15 @@
         <v>264256.6651</v>
       </c>
       <c r="G270" t="n">
-        <v>-359218.556357065</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9325,18 +8513,15 @@
         <v>4510</v>
       </c>
       <c r="G271" t="n">
-        <v>-354708.556357065</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9358,18 +8543,15 @@
         <v>7878.7138</v>
       </c>
       <c r="G272" t="n">
-        <v>-354708.556357065</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9391,18 +8573,15 @@
         <v>981.1629</v>
       </c>
       <c r="G273" t="n">
-        <v>-355689.719257065</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9424,18 +8603,15 @@
         <v>1502.3064</v>
       </c>
       <c r="G274" t="n">
-        <v>-354187.412857065</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9457,18 +8633,15 @@
         <v>286.1553</v>
       </c>
       <c r="G275" t="n">
-        <v>-354473.568157065</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9490,18 +8663,15 @@
         <v>20.18</v>
       </c>
       <c r="G276" t="n">
-        <v>-354453.388157065</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9523,18 +8693,15 @@
         <v>20</v>
       </c>
       <c r="G277" t="n">
-        <v>-354473.388157065</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9556,18 +8723,15 @@
         <v>10</v>
       </c>
       <c r="G278" t="n">
-        <v>-354483.388157065</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9589,18 +8753,21 @@
         <v>20</v>
       </c>
       <c r="G279" t="n">
-        <v>-354483.388157065</v>
+        <v>1</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>32.7</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9622,18 +8789,21 @@
         <v>838.7994</v>
       </c>
       <c r="G280" t="n">
-        <v>-353644.588757065</v>
+        <v>1</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>32.7</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -9655,18 +8825,21 @@
         <v>20664.8263</v>
       </c>
       <c r="G281" t="n">
-        <v>-353644.588757065</v>
+        <v>1</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>32.9</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -9688,18 +8861,21 @@
         <v>2000</v>
       </c>
       <c r="G282" t="n">
-        <v>-353644.588757065</v>
+        <v>1</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>32.9</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -9721,18 +8897,21 @@
         <v>10</v>
       </c>
       <c r="G283" t="n">
-        <v>-353634.588757065</v>
+        <v>1</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>32.9</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -9754,18 +8933,21 @@
         <v>1500</v>
       </c>
       <c r="G284" t="n">
-        <v>-352134.588757065</v>
+        <v>1</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -9787,18 +8969,21 @@
         <v>10</v>
       </c>
       <c r="G285" t="n">
-        <v>-352144.588757065</v>
+        <v>1</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>33.1</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -9820,18 +9005,21 @@
         <v>10800</v>
       </c>
       <c r="G286" t="n">
-        <v>-341344.588757065</v>
+        <v>1</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>32.8</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -9853,18 +9041,21 @@
         <v>33360.7526</v>
       </c>
       <c r="G287" t="n">
-        <v>-341344.588757065</v>
+        <v>1</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -9886,18 +9077,21 @@
         <v>3902.507</v>
       </c>
       <c r="G288" t="n">
-        <v>-345247.095757065</v>
+        <v>1</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -9919,18 +9113,21 @@
         <v>14125.1257</v>
       </c>
       <c r="G289" t="n">
-        <v>-331121.970057065</v>
+        <v>1</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>32.7</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -9952,18 +9149,21 @@
         <v>2378.3811</v>
       </c>
       <c r="G290" t="n">
-        <v>-328743.588957065</v>
+        <v>1</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>32.9</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -9985,18 +9185,19 @@
         <v>8262.7482</v>
       </c>
       <c r="G291" t="n">
-        <v>-337006.337157065</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10018,18 +9219,19 @@
         <v>1500</v>
       </c>
       <c r="G292" t="n">
-        <v>-337006.337157065</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10051,18 +9253,19 @@
         <v>3527.7249</v>
       </c>
       <c r="G293" t="n">
-        <v>-340534.062057065</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10084,18 +9287,19 @@
         <v>32990.3166</v>
       </c>
       <c r="G294" t="n">
-        <v>-307543.7454570649</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10117,18 +9321,19 @@
         <v>14375.4238</v>
       </c>
       <c r="G295" t="n">
-        <v>-307543.7454570649</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10150,18 +9355,19 @@
         <v>10</v>
       </c>
       <c r="G296" t="n">
-        <v>-307533.7454570649</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10183,18 +9389,19 @@
         <v>148.8415</v>
       </c>
       <c r="G297" t="n">
-        <v>-307682.5869570649</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10216,18 +9423,19 @@
         <v>50</v>
       </c>
       <c r="G298" t="n">
-        <v>-307632.5869570649</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10249,18 +9457,19 @@
         <v>10</v>
       </c>
       <c r="G299" t="n">
-        <v>-307632.5869570649</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10282,18 +9491,19 @@
         <v>1852.7893</v>
       </c>
       <c r="G300" t="n">
-        <v>-307632.5869570649</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10315,18 +9525,19 @@
         <v>6800</v>
       </c>
       <c r="G301" t="n">
-        <v>-300832.5869570649</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10348,18 +9559,19 @@
         <v>945.5713</v>
       </c>
       <c r="G302" t="n">
-        <v>-301778.1582570649</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -10381,18 +9593,19 @@
         <v>10</v>
       </c>
       <c r="G303" t="n">
-        <v>-301768.1582570649</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -10414,18 +9627,19 @@
         <v>3200</v>
       </c>
       <c r="G304" t="n">
-        <v>-304968.1582570649</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -10447,18 +9661,19 @@
         <v>10</v>
       </c>
       <c r="G305" t="n">
-        <v>-304958.1582570649</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -10480,18 +9695,19 @@
         <v>10</v>
       </c>
       <c r="G306" t="n">
-        <v>-304948.1582570649</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -10513,18 +9729,19 @@
         <v>4000</v>
       </c>
       <c r="G307" t="n">
-        <v>-308948.1582570649</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -10546,18 +9763,19 @@
         <v>40</v>
       </c>
       <c r="G308" t="n">
-        <v>-308908.1582570649</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -10579,18 +9797,19 @@
         <v>1023.244</v>
       </c>
       <c r="G309" t="n">
-        <v>-307884.9142570649</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -10612,18 +9831,19 @@
         <v>242696.6385</v>
       </c>
       <c r="G310" t="n">
-        <v>-550581.5527570649</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -10645,18 +9865,19 @@
         <v>10</v>
       </c>
       <c r="G311" t="n">
-        <v>-550571.5527570649</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -10678,18 +9899,19 @@
         <v>228891.9515</v>
       </c>
       <c r="G312" t="n">
-        <v>-779463.5042570649</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -10711,18 +9933,19 @@
         <v>4299.9617</v>
       </c>
       <c r="G313" t="n">
-        <v>-775163.5425570649</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -10744,18 +9967,19 @@
         <v>29856.2709</v>
       </c>
       <c r="G314" t="n">
-        <v>-805019.8134570649</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K314" t="n">
+        <v>1</v>
+      </c>
+      <c r="L314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -10777,18 +10001,19 @@
         <v>1000</v>
       </c>
       <c r="G315" t="n">
-        <v>-804019.8134570649</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
+      <c r="L315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -10810,18 +10035,19 @@
         <v>4500</v>
       </c>
       <c r="G316" t="n">
-        <v>-804019.8134570649</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K316" t="n">
+        <v>1</v>
+      </c>
+      <c r="L316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -10843,18 +10069,19 @@
         <v>3600</v>
       </c>
       <c r="G317" t="n">
-        <v>-804019.8134570649</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K317" t="n">
+        <v>1</v>
+      </c>
+      <c r="L317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -10876,18 +10103,19 @@
         <v>10412.0597</v>
       </c>
       <c r="G318" t="n">
-        <v>-814431.8731570649</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K318" t="n">
+        <v>1</v>
+      </c>
+      <c r="L318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -10909,18 +10137,19 @@
         <v>10</v>
       </c>
       <c r="G319" t="n">
-        <v>-814421.8731570649</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K319" t="n">
+        <v>1</v>
+      </c>
+      <c r="L319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -10942,18 +10171,19 @@
         <v>11.976</v>
       </c>
       <c r="G320" t="n">
-        <v>-814421.8731570649</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K320" t="n">
+        <v>1</v>
+      </c>
+      <c r="L320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -10975,18 +10205,19 @@
         <v>3955.3298</v>
       </c>
       <c r="G321" t="n">
-        <v>-814421.8731570649</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K321" t="n">
+        <v>1</v>
+      </c>
+      <c r="L321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -11008,18 +10239,19 @@
         <v>14029.6394</v>
       </c>
       <c r="G322" t="n">
-        <v>-828451.5125570649</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K322" t="n">
+        <v>1</v>
+      </c>
+      <c r="L322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -11041,18 +10273,19 @@
         <v>1851.4144</v>
       </c>
       <c r="G323" t="n">
-        <v>-826600.0981570649</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K323" t="n">
+        <v>1</v>
+      </c>
+      <c r="L323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -11074,18 +10307,19 @@
         <v>4000</v>
       </c>
       <c r="G324" t="n">
-        <v>-822600.0981570649</v>
-      </c>
-      <c r="H324" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K324" t="n">
+        <v>1</v>
+      </c>
+      <c r="L324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -11107,18 +10341,19 @@
         <v>5010</v>
       </c>
       <c r="G325" t="n">
-        <v>-827610.0981570649</v>
-      </c>
-      <c r="H325" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K325" t="n">
+        <v>1</v>
+      </c>
+      <c r="L325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -11140,18 +10375,19 @@
         <v>12810</v>
       </c>
       <c r="G326" t="n">
-        <v>-827610.0981570649</v>
-      </c>
-      <c r="H326" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K326" t="n">
+        <v>1</v>
+      </c>
+      <c r="L326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -11173,18 +10409,19 @@
         <v>11853.4871</v>
       </c>
       <c r="G327" t="n">
-        <v>-827610.0981570649</v>
-      </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K327" t="n">
+        <v>1</v>
+      </c>
+      <c r="L327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -11206,18 +10443,19 @@
         <v>40000.0933</v>
       </c>
       <c r="G328" t="n">
-        <v>-827610.0981570649</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K328" t="n">
+        <v>1</v>
+      </c>
+      <c r="L328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -11239,18 +10477,19 @@
         <v>12200</v>
       </c>
       <c r="G329" t="n">
-        <v>-839810.0981570649</v>
-      </c>
-      <c r="H329" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K329" t="n">
+        <v>1</v>
+      </c>
+      <c r="L329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -11272,18 +10511,19 @@
         <v>2155.6752</v>
       </c>
       <c r="G330" t="n">
-        <v>-839810.0981570649</v>
-      </c>
-      <c r="H330" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K330" t="n">
+        <v>1</v>
+      </c>
+      <c r="L330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -11305,18 +10545,19 @@
         <v>2584.4526</v>
       </c>
       <c r="G331" t="n">
-        <v>-837225.6455570649</v>
-      </c>
-      <c r="H331" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K331" t="n">
+        <v>1</v>
+      </c>
+      <c r="L331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -11338,18 +10579,19 @@
         <v>1322.0845</v>
       </c>
       <c r="G332" t="n">
-        <v>-838547.7300570649</v>
-      </c>
-      <c r="H332" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K332" t="n">
+        <v>1</v>
+      </c>
+      <c r="L332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -11371,22 +10613,19 @@
         <v>10</v>
       </c>
       <c r="G333" t="n">
-        <v>-838537.7300570649</v>
-      </c>
-      <c r="H333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I333" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="J333" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="n">
-        <v>1</v>
-      </c>
-      <c r="M333" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H333" t="inlineStr"/>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K333" t="n">
+        <v>1</v>
+      </c>
+      <c r="L333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -11408,26 +10647,19 @@
         <v>2448.368</v>
       </c>
       <c r="G334" t="n">
-        <v>-838537.7300570649</v>
-      </c>
-      <c r="H334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I334" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="J334" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K334" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H334" t="inlineStr"/>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L334" t="n">
-        <v>1</v>
-      </c>
-      <c r="M334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>1</v>
+      </c>
+      <c r="L334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -11449,26 +10681,19 @@
         <v>5500</v>
       </c>
       <c r="G335" t="n">
-        <v>-838537.7300570649</v>
-      </c>
-      <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="J335" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K335" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H335" t="inlineStr"/>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L335" t="n">
-        <v>1</v>
-      </c>
-      <c r="M335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>1</v>
+      </c>
+      <c r="L335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -11490,26 +10715,19 @@
         <v>4123.6357</v>
       </c>
       <c r="G336" t="n">
-        <v>-842661.3657570649</v>
-      </c>
-      <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="J336" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K336" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H336" t="inlineStr"/>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L336" t="n">
-        <v>1</v>
-      </c>
-      <c r="M336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>1</v>
+      </c>
+      <c r="L336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -11531,26 +10749,19 @@
         <v>985.1155</v>
       </c>
       <c r="G337" t="n">
-        <v>-841676.2502570649</v>
-      </c>
-      <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="J337" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K337" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H337" t="inlineStr"/>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L337" t="n">
-        <v>1</v>
-      </c>
-      <c r="M337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>1</v>
+      </c>
+      <c r="L337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -11572,26 +10783,19 @@
         <v>803.2913</v>
       </c>
       <c r="G338" t="n">
-        <v>-841676.2502570649</v>
-      </c>
-      <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="J338" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K338" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H338" t="inlineStr"/>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L338" t="n">
-        <v>1</v>
-      </c>
-      <c r="M338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>1</v>
+      </c>
+      <c r="L338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -11613,26 +10817,19 @@
         <v>33399.7653</v>
       </c>
       <c r="G339" t="n">
-        <v>-875076.0155570649</v>
-      </c>
-      <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="J339" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K339" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H339" t="inlineStr"/>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L339" t="n">
-        <v>1</v>
-      </c>
-      <c r="M339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>1</v>
+      </c>
+      <c r="L339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -11654,26 +10851,19 @@
         <v>10</v>
       </c>
       <c r="G340" t="n">
-        <v>-875066.0155570649</v>
-      </c>
-      <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="J340" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K340" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H340" t="inlineStr"/>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L340" t="n">
-        <v>1</v>
-      </c>
-      <c r="M340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>1</v>
+      </c>
+      <c r="L340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -11695,26 +10885,19 @@
         <v>921.7138</v>
       </c>
       <c r="G341" t="n">
-        <v>-875987.7293570649</v>
-      </c>
-      <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="J341" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K341" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H341" t="inlineStr"/>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L341" t="n">
-        <v>1</v>
-      </c>
-      <c r="M341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>1</v>
+      </c>
+      <c r="L341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -11736,26 +10919,19 @@
         <v>10</v>
       </c>
       <c r="G342" t="n">
-        <v>-875977.7293570649</v>
-      </c>
-      <c r="H342" t="n">
-        <v>1</v>
-      </c>
-      <c r="I342" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="J342" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K342" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H342" t="inlineStr"/>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L342" t="n">
-        <v>1</v>
-      </c>
-      <c r="M342" t="inlineStr"/>
+      <c r="K342" t="n">
+        <v>1</v>
+      </c>
+      <c r="L342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -11777,26 +10953,19 @@
         <v>1113.2409</v>
       </c>
       <c r="G343" t="n">
-        <v>-877090.9702570649</v>
-      </c>
-      <c r="H343" t="n">
-        <v>1</v>
-      </c>
-      <c r="I343" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="J343" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K343" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H343" t="inlineStr"/>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L343" t="n">
-        <v>1</v>
-      </c>
-      <c r="M343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>1</v>
+      </c>
+      <c r="L343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -11818,26 +10987,19 @@
         <v>1776</v>
       </c>
       <c r="G344" t="n">
-        <v>-875314.9702570649</v>
-      </c>
-      <c r="H344" t="n">
-        <v>1</v>
-      </c>
-      <c r="I344" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="J344" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K344" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H344" t="inlineStr"/>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L344" t="n">
-        <v>1</v>
-      </c>
-      <c r="M344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>1</v>
+      </c>
+      <c r="L344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -11859,26 +11021,19 @@
         <v>1397.3809</v>
       </c>
       <c r="G345" t="n">
-        <v>-876712.3511570649</v>
-      </c>
-      <c r="H345" t="n">
-        <v>1</v>
-      </c>
-      <c r="I345" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="J345" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K345" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H345" t="inlineStr"/>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L345" t="n">
-        <v>1</v>
-      </c>
-      <c r="M345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>1</v>
+      </c>
+      <c r="L345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -11900,26 +11055,19 @@
         <v>1906.5136</v>
       </c>
       <c r="G346" t="n">
-        <v>-878618.8647570648</v>
-      </c>
-      <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="J346" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K346" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H346" t="inlineStr"/>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L346" t="n">
-        <v>1</v>
-      </c>
-      <c r="M346" t="inlineStr"/>
+      <c r="K346" t="n">
+        <v>1</v>
+      </c>
+      <c r="L346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -11941,26 +11089,19 @@
         <v>1412.7785</v>
       </c>
       <c r="G347" t="n">
-        <v>-878618.8647570648</v>
-      </c>
-      <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="J347" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K347" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H347" t="inlineStr"/>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L347" t="n">
-        <v>1</v>
-      </c>
-      <c r="M347" t="inlineStr"/>
+      <c r="K347" t="n">
+        <v>1</v>
+      </c>
+      <c r="L347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -11982,26 +11123,19 @@
         <v>30210.0193</v>
       </c>
       <c r="G348" t="n">
-        <v>-878618.8647570648</v>
-      </c>
-      <c r="H348" t="n">
-        <v>1</v>
-      </c>
-      <c r="I348" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="J348" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K348" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H348" t="inlineStr"/>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L348" t="n">
-        <v>1</v>
-      </c>
-      <c r="M348" t="inlineStr"/>
+      <c r="K348" t="n">
+        <v>1</v>
+      </c>
+      <c r="L348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -12023,26 +11157,19 @@
         <v>18201.2903</v>
       </c>
       <c r="G349" t="n">
-        <v>-878618.8647570648</v>
-      </c>
-      <c r="H349" t="n">
-        <v>1</v>
-      </c>
-      <c r="I349" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="J349" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K349" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H349" t="inlineStr"/>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L349" t="n">
-        <v>1</v>
-      </c>
-      <c r="M349" t="inlineStr"/>
+      <c r="K349" t="n">
+        <v>1</v>
+      </c>
+      <c r="L349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -12064,26 +11191,19 @@
         <v>25800</v>
       </c>
       <c r="G350" t="n">
-        <v>-904418.8647570648</v>
-      </c>
-      <c r="H350" t="n">
-        <v>1</v>
-      </c>
-      <c r="I350" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="J350" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K350" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H350" t="inlineStr"/>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L350" t="n">
-        <v>1</v>
-      </c>
-      <c r="M350" t="inlineStr"/>
+      <c r="K350" t="n">
+        <v>1</v>
+      </c>
+      <c r="L350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -12105,26 +11225,19 @@
         <v>13000</v>
       </c>
       <c r="G351" t="n">
-        <v>-917418.8647570648</v>
-      </c>
-      <c r="H351" t="n">
-        <v>1</v>
-      </c>
-      <c r="I351" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="J351" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K351" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H351" t="inlineStr"/>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L351" t="n">
-        <v>1</v>
-      </c>
-      <c r="M351" t="inlineStr"/>
+      <c r="K351" t="n">
+        <v>1</v>
+      </c>
+      <c r="L351" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
